--- a/my_work/data1/YearMeanER56739_腾冲.xlsx
+++ b/my_work/data1/YearMeanER56739_腾冲.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,1026 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5478.500000000002</v>
+      </c>
+      <c r="C2" t="n">
+        <v>940.8999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1630.099999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1757.800000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1149.699999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5293.299999999997</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1858.099999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3175.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3562</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2176.399999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5067.300000000003</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2468.900000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4712.599999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5360.699999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3296.899999999998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5434.500000000004</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3358.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6352.499999999997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7143.900000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4419.000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5479.400000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4254.099999999998</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7991.799999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8944.200000000006</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5562.900000000003</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5329.700000000002</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5139.899999999994</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9590.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10712.20000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6640.500000000003</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5473.59999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6059.09999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11206.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12511.90000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7778.499999999995</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5638.399999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7025.499999999995</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12869.30000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14348.50000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8951.399999999994</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5422.400000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7871.199999999997</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14470.50000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16084.40000000002</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10190.99999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5463.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8785.299999999997</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16121.10000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17869.10000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11304.79999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5332.400000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9664.799999999996</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17686.90000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19637.40000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12423.59999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5336.600000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10572.89999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19220.39999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21421.79999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13534.19999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5496.800000000003</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11454.49999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20855.7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23243.09999999998</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14692.79999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5581.900000000002</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12392.4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>22560.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25048.99999999998</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15825.79999999998</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5516.999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13287.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24238.09999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>26867.39999999998</v>
+      </c>
+      <c r="F16" t="n">
+        <v>16952.19999999998</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5557.700000000003</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14212.29999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25821.49999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>28683.39999999998</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18185.49999999997</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5345.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15108.59999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>27405.49999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30478.99999999998</v>
+      </c>
+      <c r="F18" t="n">
+        <v>19254.89999999998</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5324.600000000006</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15893.89999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29008.69999999999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>32279.79999999998</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20390.19999999996</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5424.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16828.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30632.69999999998</v>
+      </c>
+      <c r="E20" t="n">
+        <v>34022.39999999996</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21513.69999999995</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5382.799999999997</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17729.2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>32233.69999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>35791.19999999995</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22625.79999999996</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5425.700000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>18659.99999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>33870.99999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>37551.39999999995</v>
+      </c>
+      <c r="F22" t="n">
+        <v>23723.19999999995</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5564.899999999993</v>
+      </c>
+      <c r="C23" t="n">
+        <v>19597.09999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>35509.60000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>39328.19999999995</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24935.59999999997</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5715.200000000004</v>
+      </c>
+      <c r="C24" t="n">
+        <v>20605.29999999997</v>
+      </c>
+      <c r="D24" t="n">
+        <v>37169.8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>41090.89999999995</v>
+      </c>
+      <c r="F24" t="n">
+        <v>26219.69999999996</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5453.199999999996</v>
+      </c>
+      <c r="C25" t="n">
+        <v>21536.89999999998</v>
+      </c>
+      <c r="D25" t="n">
+        <v>38835.20000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>42803.39999999995</v>
+      </c>
+      <c r="F25" t="n">
+        <v>27363.39999999998</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5509.099999999998</v>
+      </c>
+      <c r="C26" t="n">
+        <v>22441.49999999999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40399.59999999997</v>
+      </c>
+      <c r="E26" t="n">
+        <v>44605.09999999996</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28601.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5587.600000000004</v>
+      </c>
+      <c r="C27" t="n">
+        <v>23435.69999999996</v>
+      </c>
+      <c r="D27" t="n">
+        <v>42012.09999999998</v>
+      </c>
+      <c r="E27" t="n">
+        <v>46399.69999999998</v>
+      </c>
+      <c r="F27" t="n">
+        <v>29788.09999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5244.599999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24293.19999999998</v>
+      </c>
+      <c r="D28" t="n">
+        <v>43548.79999999996</v>
+      </c>
+      <c r="E28" t="n">
+        <v>48150.09999999996</v>
+      </c>
+      <c r="F28" t="n">
+        <v>30888.09999999998</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5439.900000000003</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25193.49999999998</v>
+      </c>
+      <c r="D29" t="n">
+        <v>45124.69999999995</v>
+      </c>
+      <c r="E29" t="n">
+        <v>49885.99999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>32115.89999999998</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5661.9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>26181.89999999998</v>
+      </c>
+      <c r="D30" t="n">
+        <v>46828.39999999995</v>
+      </c>
+      <c r="E30" t="n">
+        <v>51717.49999999996</v>
+      </c>
+      <c r="F30" t="n">
+        <v>33254.19999999995</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5661.700000000002</v>
+      </c>
+      <c r="C31" t="n">
+        <v>27144.59999999995</v>
+      </c>
+      <c r="D31" t="n">
+        <v>48510.59999999992</v>
+      </c>
+      <c r="E31" t="n">
+        <v>53501.39999999998</v>
+      </c>
+      <c r="F31" t="n">
+        <v>34487.09999999995</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5599.299999999997</v>
+      </c>
+      <c r="C32" t="n">
+        <v>28119.29999999996</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50112.29999999992</v>
+      </c>
+      <c r="E32" t="n">
+        <v>55301.99999999992</v>
+      </c>
+      <c r="F32" t="n">
+        <v>35709.39999999996</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5421.000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>29000.39999999997</v>
+      </c>
+      <c r="D33" t="n">
+        <v>51683.89999999994</v>
+      </c>
+      <c r="E33" t="n">
+        <v>57080.19999999993</v>
+      </c>
+      <c r="F33" t="n">
+        <v>36899.49999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5735.900000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>29956.39999999998</v>
+      </c>
+      <c r="D34" t="n">
+        <v>53333.19999999992</v>
+      </c>
+      <c r="E34" t="n">
+        <v>58878.29999999994</v>
+      </c>
+      <c r="F34" t="n">
+        <v>38231.99999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5901.799999999998</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31061.99999999997</v>
+      </c>
+      <c r="D35" t="n">
+        <v>55050.89999999993</v>
+      </c>
+      <c r="E35" t="n">
+        <v>60686.29999999993</v>
+      </c>
+      <c r="F35" t="n">
+        <v>39502.49999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5666.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>32018.19999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>56708.5999999999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>62501.99999999995</v>
+      </c>
+      <c r="F36" t="n">
+        <v>40739.20000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5784.200000000005</v>
+      </c>
+      <c r="C37" t="n">
+        <v>33032.09999999998</v>
+      </c>
+      <c r="D37" t="n">
+        <v>58377.79999999992</v>
+      </c>
+      <c r="E37" t="n">
+        <v>64373.39999999996</v>
+      </c>
+      <c r="F37" t="n">
+        <v>41968.90000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5778.699999999999</v>
+      </c>
+      <c r="C38" t="n">
+        <v>34076.59999999999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>60026.19999999996</v>
+      </c>
+      <c r="E38" t="n">
+        <v>66216.89999999995</v>
+      </c>
+      <c r="F38" t="n">
+        <v>43211.20000000002</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5767.199999999999</v>
+      </c>
+      <c r="C39" t="n">
+        <v>35059.8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>61689.59999999995</v>
+      </c>
+      <c r="E39" t="n">
+        <v>68093.49999999994</v>
+      </c>
+      <c r="F39" t="n">
+        <v>44455.20000000005</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5692.000000000002</v>
+      </c>
+      <c r="C40" t="n">
+        <v>36130.80000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>63337.29999999997</v>
+      </c>
+      <c r="E40" t="n">
+        <v>69905.89999999995</v>
+      </c>
+      <c r="F40" t="n">
+        <v>45616.10000000003</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5879.900000000002</v>
+      </c>
+      <c r="C41" t="n">
+        <v>37156.20000000003</v>
+      </c>
+      <c r="D41" t="n">
+        <v>65039.29999999996</v>
+      </c>
+      <c r="E41" t="n">
+        <v>71800.49999999997</v>
+      </c>
+      <c r="F41" t="n">
+        <v>46874.00000000004</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5848.899999999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>38209.10000000004</v>
+      </c>
+      <c r="D42" t="n">
+        <v>66707.69999999997</v>
+      </c>
+      <c r="E42" t="n">
+        <v>73692.99999999993</v>
+      </c>
+      <c r="F42" t="n">
+        <v>48109.10000000005</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5717.400000000003</v>
+      </c>
+      <c r="C43" t="n">
+        <v>39171.40000000003</v>
+      </c>
+      <c r="D43" t="n">
+        <v>68387.09999999993</v>
+      </c>
+      <c r="E43" t="n">
+        <v>75532.09999999989</v>
+      </c>
+      <c r="F43" t="n">
+        <v>49345.70000000004</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5730.899999999995</v>
+      </c>
+      <c r="C44" t="n">
+        <v>40138.60000000003</v>
+      </c>
+      <c r="D44" t="n">
+        <v>70072.39999999994</v>
+      </c>
+      <c r="E44" t="n">
+        <v>77370.39999999988</v>
+      </c>
+      <c r="F44" t="n">
+        <v>50585.80000000005</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5888.100000000002</v>
+      </c>
+      <c r="C45" t="n">
+        <v>41194.60000000003</v>
+      </c>
+      <c r="D45" t="n">
+        <v>71780.09999999993</v>
+      </c>
+      <c r="E45" t="n">
+        <v>79265.99999999991</v>
+      </c>
+      <c r="F45" t="n">
+        <v>51814.60000000005</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5867.300000000002</v>
+      </c>
+      <c r="C46" t="n">
+        <v>42256.20000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>73456.49999999996</v>
+      </c>
+      <c r="E46" t="n">
+        <v>81124.90000000004</v>
+      </c>
+      <c r="F46" t="n">
+        <v>53085.00000000004</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5711.400000000003</v>
+      </c>
+      <c r="C47" t="n">
+        <v>43219.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>75116.29999999992</v>
+      </c>
+      <c r="E47" t="n">
+        <v>82982.90000000005</v>
+      </c>
+      <c r="F47" t="n">
+        <v>54315.00000000003</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5841.199999999993</v>
+      </c>
+      <c r="C48" t="n">
+        <v>44249.69999999998</v>
+      </c>
+      <c r="D48" t="n">
+        <v>76844.1999999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>84839.50000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>55541.80000000005</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5847.299999999997</v>
+      </c>
+      <c r="C49" t="n">
+        <v>45343.69999999998</v>
+      </c>
+      <c r="D49" t="n">
+        <v>78545.29999999994</v>
+      </c>
+      <c r="E49" t="n">
+        <v>86685.99999999991</v>
+      </c>
+      <c r="F49" t="n">
+        <v>56747.50000000002</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5621</v>
+      </c>
+      <c r="C50" t="n">
+        <v>46303.90000000003</v>
+      </c>
+      <c r="D50" t="n">
+        <v>80217.19999999994</v>
+      </c>
+      <c r="E50" t="n">
+        <v>88517.39999999988</v>
+      </c>
+      <c r="F50" t="n">
+        <v>57904.99999999998</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5583.900000000002</v>
+      </c>
+      <c r="C51" t="n">
+        <v>47294.1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>81851.7</v>
+      </c>
+      <c r="E51" t="n">
+        <v>90312.89999999988</v>
+      </c>
+      <c r="F51" t="n">
+        <v>59068.70000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5712.599999999996</v>
+      </c>
+      <c r="C52" t="n">
+        <v>48262.90000000005</v>
+      </c>
+      <c r="D52" t="n">
+        <v>83474.20000000003</v>
+      </c>
+      <c r="E52" t="n">
+        <v>92152.5999999998</v>
+      </c>
+      <c r="F52" t="n">
+        <v>60350.30000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/my_work/data1/YearMeanER56739_腾冲.xlsx
+++ b/my_work/data1/YearMeanER56739_腾冲.xlsx
@@ -470,19 +470,19 @@
         <v>1966</v>
       </c>
       <c r="B2" t="n">
-        <v>5478.500000000002</v>
+        <v>15.00958904109589</v>
       </c>
       <c r="C2" t="n">
-        <v>940.8999999999999</v>
+        <v>10.45444444444444</v>
       </c>
       <c r="D2" t="n">
-        <v>1630.099999999999</v>
+        <v>17.91318681318681</v>
       </c>
       <c r="E2" t="n">
-        <v>1757.800000000001</v>
+        <v>19.10652173913044</v>
       </c>
       <c r="F2" t="n">
-        <v>1149.699999999999</v>
+        <v>12.49673913043478</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>1967</v>
       </c>
       <c r="B3" t="n">
-        <v>5293.299999999997</v>
+        <v>14.54203296703296</v>
       </c>
       <c r="C3" t="n">
-        <v>1858.099999999999</v>
+        <v>10.30727160493827</v>
       </c>
       <c r="D3" t="n">
-        <v>3175.3</v>
+        <v>17.1770679869581</v>
       </c>
       <c r="E3" t="n">
-        <v>3562</v>
+        <v>19.81854914933837</v>
       </c>
       <c r="F3" t="n">
-        <v>2176.399999999999</v>
+        <v>11.41974438604874</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>1968</v>
       </c>
       <c r="B4" t="n">
-        <v>5067.300000000003</v>
+        <v>15.12626865671643</v>
       </c>
       <c r="C4" t="n">
-        <v>2468.900000000001</v>
+        <v>10.3517878600823</v>
       </c>
       <c r="D4" t="n">
-        <v>4712.599999999999</v>
+        <v>17.08216558227426</v>
       </c>
       <c r="E4" t="n">
-        <v>5360.699999999999</v>
+        <v>19.76650596901455</v>
       </c>
       <c r="F4" t="n">
-        <v>3296.899999999998</v>
+        <v>12.30347548245705</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>1969</v>
       </c>
       <c r="B5" t="n">
-        <v>5434.500000000004</v>
+        <v>14.92994505494507</v>
       </c>
       <c r="C5" t="n">
-        <v>3358.2</v>
+        <v>9.996130976223139</v>
       </c>
       <c r="D5" t="n">
-        <v>6352.499999999997</v>
+        <v>18.41091295091416</v>
       </c>
       <c r="E5" t="n">
-        <v>7143.900000000001</v>
+        <v>19.59746202140233</v>
       </c>
       <c r="F5" t="n">
-        <v>4419.000000000001</v>
+        <v>12.33047255959192</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>1970</v>
       </c>
       <c r="B6" t="n">
-        <v>5479.400000000001</v>
+        <v>15.01205479452055</v>
       </c>
       <c r="C6" t="n">
-        <v>4254.099999999998</v>
+        <v>10.06551256640248</v>
       </c>
       <c r="D6" t="n">
-        <v>7991.799999999999</v>
+        <v>18.21660343902103</v>
       </c>
       <c r="E6" t="n">
-        <v>8944.200000000006</v>
+        <v>19.78149415240655</v>
       </c>
       <c r="F6" t="n">
-        <v>5562.900000000003</v>
+        <v>12.56772252782165</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>1971</v>
       </c>
       <c r="B7" t="n">
-        <v>5329.700000000002</v>
+        <v>14.64203296703297</v>
       </c>
       <c r="C7" t="n">
-        <v>5139.899999999994</v>
+        <v>9.954061250737805</v>
       </c>
       <c r="D7" t="n">
-        <v>9590.1</v>
+        <v>17.76391871911012</v>
       </c>
       <c r="E7" t="n">
-        <v>10712.20000000001</v>
+        <v>19.43240754513484</v>
       </c>
       <c r="F7" t="n">
-        <v>6640.500000000003</v>
+        <v>11.97986508272332</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>1972</v>
       </c>
       <c r="B8" t="n">
-        <v>5473.59999999999</v>
+        <v>14.95519125683058</v>
       </c>
       <c r="C8" t="n">
-        <v>6059.09999999999</v>
+        <v>10.21048418956855</v>
       </c>
       <c r="D8" t="n">
-        <v>11206.8</v>
+        <v>17.96114196394627</v>
       </c>
       <c r="E8" t="n">
-        <v>12511.90000000001</v>
+        <v>19.77317834288191</v>
       </c>
       <c r="F8" t="n">
-        <v>7778.499999999995</v>
+        <v>12.49978114220352</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>1973</v>
       </c>
       <c r="B9" t="n">
-        <v>5638.399999999999</v>
+        <v>15.44767123287671</v>
       </c>
       <c r="C9" t="n">
-        <v>7025.499999999995</v>
+        <v>10.85122760210632</v>
       </c>
       <c r="D9" t="n">
-        <v>12869.30000000001</v>
+        <v>18.46660595564777</v>
       </c>
       <c r="E9" t="n">
-        <v>14348.50000000001</v>
+        <v>20.17796932981394</v>
       </c>
       <c r="F9" t="n">
-        <v>8951.399999999994</v>
+        <v>12.88478022980656</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>1974</v>
       </c>
       <c r="B10" t="n">
-        <v>5422.400000000001</v>
+        <v>14.85589041095891</v>
       </c>
       <c r="C10" t="n">
-        <v>7871.199999999997</v>
+        <v>9.517235862245627</v>
       </c>
       <c r="D10" t="n">
-        <v>14470.50000000001</v>
+        <v>17.79853413138075</v>
       </c>
       <c r="E10" t="n">
-        <v>16084.40000000002</v>
+        <v>19.08780401445449</v>
       </c>
       <c r="F10" t="n">
-        <v>10190.99999999999</v>
+        <v>13.6139650024979</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>1975</v>
       </c>
       <c r="B11" t="n">
-        <v>5463.2</v>
+        <v>14.96767123287671</v>
       </c>
       <c r="C11" t="n">
-        <v>8785.299999999997</v>
+        <v>10.26241373180273</v>
       </c>
       <c r="D11" t="n">
-        <v>16121.10000000001</v>
+        <v>18.33404982561957</v>
       </c>
       <c r="E11" t="n">
-        <v>17869.10000000001</v>
+        <v>19.60638917407016</v>
       </c>
       <c r="F11" t="n">
-        <v>11304.79999999999</v>
+        <v>12.25449961959237</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +670,19 @@
         <v>1976</v>
       </c>
       <c r="B12" t="n">
-        <v>5332.400000000001</v>
+        <v>14.56939890710383</v>
       </c>
       <c r="C12" t="n">
-        <v>9664.799999999996</v>
+        <v>9.777608942107721</v>
       </c>
       <c r="D12" t="n">
-        <v>17686.90000000001</v>
+        <v>17.40806648160022</v>
       </c>
       <c r="E12" t="n">
-        <v>19637.40000000001</v>
+        <v>19.43376509971815</v>
       </c>
       <c r="F12" t="n">
-        <v>12423.59999999999</v>
+        <v>12.29407064803905</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +690,19 @@
         <v>1977</v>
       </c>
       <c r="B13" t="n">
-        <v>5336.600000000001</v>
+        <v>14.62082191780822</v>
       </c>
       <c r="C13" t="n">
-        <v>10572.89999999999</v>
+        <v>10.19864009935675</v>
       </c>
       <c r="D13" t="n">
-        <v>19220.39999999999</v>
+        <v>17.04294578551208</v>
       </c>
       <c r="E13" t="n">
-        <v>21421.79999999999</v>
+        <v>19.60688875108388</v>
       </c>
       <c r="F13" t="n">
-        <v>13534.19999999999</v>
+        <v>12.20537033313085</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>1978</v>
       </c>
       <c r="B14" t="n">
-        <v>5496.800000000003</v>
+        <v>15.05972602739727</v>
       </c>
       <c r="C14" t="n">
-        <v>11454.49999999999</v>
+        <v>9.908873778881741</v>
       </c>
       <c r="D14" t="n">
-        <v>20855.7</v>
+        <v>18.15761478885178</v>
       </c>
       <c r="E14" t="n">
-        <v>23243.09999999998</v>
+        <v>20.00985748642482</v>
       </c>
       <c r="F14" t="n">
-        <v>14692.79999999999</v>
+        <v>12.72614532970794</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>1979</v>
       </c>
       <c r="B15" t="n">
-        <v>5581.900000000002</v>
+        <v>15.29287671232877</v>
       </c>
       <c r="C15" t="n">
-        <v>12392.4</v>
+        <v>10.53120970865424</v>
       </c>
       <c r="D15" t="n">
-        <v>22560.8</v>
+        <v>18.93689686581156</v>
       </c>
       <c r="E15" t="n">
-        <v>25048.99999999998</v>
+        <v>19.84684627702635</v>
       </c>
       <c r="F15" t="n">
-        <v>15825.79999999998</v>
+        <v>12.45354505793161</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>1980</v>
       </c>
       <c r="B16" t="n">
-        <v>5516.999999999999</v>
+        <v>15.07377049180328</v>
       </c>
       <c r="C16" t="n">
-        <v>13287.3</v>
+        <v>9.949793513281916</v>
       </c>
       <c r="D16" t="n">
-        <v>24238.09999999999</v>
+        <v>18.6399658996243</v>
       </c>
       <c r="E16" t="n">
-        <v>26867.39999999998</v>
+        <v>19.98094398127202</v>
       </c>
       <c r="F16" t="n">
-        <v>16952.19999999998</v>
+        <v>12.37884288106448</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>1981</v>
       </c>
       <c r="B17" t="n">
-        <v>5557.700000000003</v>
+        <v>15.2684065934066</v>
       </c>
       <c r="C17" t="n">
-        <v>14212.29999999999</v>
+        <v>10.38833103903647</v>
       </c>
       <c r="D17" t="n">
-        <v>25821.49999999999</v>
+        <v>17.80044406555139</v>
       </c>
       <c r="E17" t="n">
-        <v>28683.39999999998</v>
+        <v>19.95631460849209</v>
       </c>
       <c r="F17" t="n">
-        <v>18185.49999999997</v>
+        <v>13.53998742262026</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>1982</v>
       </c>
       <c r="B18" t="n">
-        <v>5345.3</v>
+        <v>14.68489010989011</v>
       </c>
       <c r="C18" t="n">
-        <v>15108.59999999999</v>
+        <v>10.07431478932263</v>
       </c>
       <c r="D18" t="n">
-        <v>27405.49999999999</v>
+        <v>17.60220268203902</v>
       </c>
       <c r="E18" t="n">
-        <v>30478.99999999998</v>
+        <v>19.951168292401</v>
       </c>
       <c r="F18" t="n">
-        <v>19254.89999999998</v>
+        <v>11.77108681981109</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>1983</v>
       </c>
       <c r="B19" t="n">
-        <v>5324.600000000006</v>
+        <v>14.62802197802199</v>
       </c>
       <c r="C19" t="n">
-        <v>15893.89999999999</v>
+        <v>8.83749238654803</v>
       </c>
       <c r="D19" t="n">
-        <v>29008.69999999999</v>
+        <v>17.81101321628614</v>
       </c>
       <c r="E19" t="n">
-        <v>32279.79999999998</v>
+        <v>19.79077356839566</v>
       </c>
       <c r="F19" t="n">
-        <v>20390.19999999996</v>
+        <v>12.60517677823968</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>1984</v>
       </c>
       <c r="B20" t="n">
-        <v>5424.5</v>
+        <v>14.82103825136612</v>
       </c>
       <c r="C20" t="n">
-        <v>16828.3</v>
+        <v>10.36524716908295</v>
       </c>
       <c r="D20" t="n">
-        <v>30632.69999999998</v>
+        <v>18.04187926611303</v>
       </c>
       <c r="E20" t="n">
-        <v>34022.39999999996</v>
+        <v>19.15642145183039</v>
       </c>
       <c r="F20" t="n">
-        <v>21513.69999999995</v>
+        <v>12.34896931280696</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +850,19 @@
         <v>1985</v>
       </c>
       <c r="B21" t="n">
-        <v>5382.799999999997</v>
+        <v>14.74739726027396</v>
       </c>
       <c r="C21" t="n">
-        <v>17729.2</v>
+        <v>10.12516941298981</v>
       </c>
       <c r="D21" t="n">
-        <v>32233.69999999999</v>
+        <v>17.79166900292433</v>
       </c>
       <c r="E21" t="n">
-        <v>35791.19999999995</v>
+        <v>19.43430892882425</v>
       </c>
       <c r="F21" t="n">
-        <v>22625.79999999996</v>
+        <v>12.22227140557399</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +870,19 @@
         <v>1986</v>
       </c>
       <c r="B22" t="n">
-        <v>5425.700000000001</v>
+        <v>14.86493150684932</v>
       </c>
       <c r="C22" t="n">
-        <v>18659.99999999999</v>
+        <v>10.45472410458877</v>
       </c>
       <c r="D22" t="n">
-        <v>33870.99999999999</v>
+        <v>18.18782053849367</v>
       </c>
       <c r="E22" t="n">
-        <v>37551.39999999995</v>
+        <v>19.34385118400896</v>
       </c>
       <c r="F22" t="n">
-        <v>23723.19999999995</v>
+        <v>12.06111164571277</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +890,19 @@
         <v>1987</v>
       </c>
       <c r="B23" t="n">
-        <v>5564.899999999993</v>
+        <v>15.246301369863</v>
       </c>
       <c r="C23" t="n">
-        <v>19597.09999999999</v>
+        <v>10.52838582338432</v>
       </c>
       <c r="D23" t="n">
-        <v>35509.60000000001</v>
+        <v>18.20645956635707</v>
       </c>
       <c r="E23" t="n">
-        <v>39328.19999999995</v>
+        <v>19.52330273026097</v>
       </c>
       <c r="F23" t="n">
-        <v>24935.59999999997</v>
+        <v>13.30935990919253</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +910,19 @@
         <v>1988</v>
       </c>
       <c r="B24" t="n">
-        <v>5715.200000000004</v>
+        <v>15.6153005464481</v>
       </c>
       <c r="C24" t="n">
-        <v>20605.29999999997</v>
+        <v>11.1948174266306</v>
       </c>
       <c r="D24" t="n">
-        <v>37169.8</v>
+        <v>18.44402702820173</v>
       </c>
       <c r="E24" t="n">
-        <v>41090.89999999995</v>
+        <v>19.3719924209811</v>
       </c>
       <c r="F24" t="n">
-        <v>26219.69999999996</v>
+        <v>14.10227565118688</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +930,19 @@
         <v>1989</v>
       </c>
       <c r="B25" t="n">
-        <v>5453.199999999996</v>
+        <v>15.10581717451523</v>
       </c>
       <c r="C25" t="n">
-        <v>21536.89999999998</v>
+        <v>10.47549797140701</v>
       </c>
       <c r="D25" t="n">
-        <v>38835.20000000001</v>
+        <v>18.50378051679342</v>
       </c>
       <c r="E25" t="n">
-        <v>42803.39999999995</v>
+        <v>19.68036355023842</v>
       </c>
       <c r="F25" t="n">
-        <v>27363.39999999998</v>
+        <v>12.58480734403464</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +950,19 @@
         <v>1990</v>
       </c>
       <c r="B26" t="n">
-        <v>5509.099999999998</v>
+        <v>15.09342465753424</v>
       </c>
       <c r="C26" t="n">
-        <v>22441.49999999999</v>
+        <v>10.16750553301563</v>
       </c>
       <c r="D26" t="n">
-        <v>40399.59999999997</v>
+        <v>17.39454703864608</v>
       </c>
       <c r="E26" t="n">
-        <v>44605.09999999996</v>
+        <v>19.7976126472852</v>
       </c>
       <c r="F26" t="n">
-        <v>28601.8</v>
+        <v>13.59766094939168</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +970,19 @@
         <v>1991</v>
       </c>
       <c r="B27" t="n">
-        <v>5587.600000000004</v>
+        <v>15.30849315068494</v>
       </c>
       <c r="C27" t="n">
-        <v>23435.69999999996</v>
+        <v>11.15963895036684</v>
       </c>
       <c r="D27" t="n">
-        <v>42012.09999999998</v>
+        <v>17.91092908833677</v>
       </c>
       <c r="E27" t="n">
-        <v>46399.69999999998</v>
+        <v>19.72171318094875</v>
       </c>
       <c r="F27" t="n">
-        <v>29788.09999999999</v>
+        <v>13.04236587988469</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +990,19 @@
         <v>1992</v>
       </c>
       <c r="B28" t="n">
-        <v>5244.599999999999</v>
+        <v>14.64972067039106</v>
       </c>
       <c r="C28" t="n">
-        <v>24293.19999999998</v>
+        <v>9.5457103181359</v>
       </c>
       <c r="D28" t="n">
-        <v>43548.79999999996</v>
+        <v>18.28954034221574</v>
       </c>
       <c r="E28" t="n">
-        <v>48150.09999999996</v>
+        <v>19.66801903534386</v>
       </c>
       <c r="F28" t="n">
-        <v>30888.09999999998</v>
+        <v>12.09828658565091</v>
       </c>
     </row>
     <row r="29">
@@ -1010,19 +1010,19 @@
         <v>1993</v>
       </c>
       <c r="B29" t="n">
-        <v>5439.900000000003</v>
+        <v>14.98595041322315</v>
       </c>
       <c r="C29" t="n">
-        <v>25193.49999999998</v>
+        <v>10.10939678131262</v>
       </c>
       <c r="D29" t="n">
-        <v>45124.69999999995</v>
+        <v>17.51856637738698</v>
       </c>
       <c r="E29" t="n">
-        <v>49885.99999999999</v>
+        <v>19.50631132261493</v>
       </c>
       <c r="F29" t="n">
-        <v>32115.89999999998</v>
+        <v>13.47715528897446</v>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +1030,19 @@
         <v>1994</v>
       </c>
       <c r="B30" t="n">
-        <v>5661.9</v>
+        <v>15.55467032967033</v>
       </c>
       <c r="C30" t="n">
-        <v>26181.89999999998</v>
+        <v>11.09454885312569</v>
       </c>
       <c r="D30" t="n">
-        <v>46828.39999999995</v>
+        <v>18.91448974041085</v>
       </c>
       <c r="E30" t="n">
-        <v>51717.49999999996</v>
+        <v>20.34072869585291</v>
       </c>
       <c r="F30" t="n">
-        <v>33254.19999999995</v>
+        <v>12.51931690531494</v>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +1050,19 @@
         <v>1995</v>
       </c>
       <c r="B31" t="n">
-        <v>5661.700000000002</v>
+        <v>15.51150684931507</v>
       </c>
       <c r="C31" t="n">
-        <v>27144.59999999995</v>
+        <v>10.8199394317014</v>
       </c>
       <c r="D31" t="n">
-        <v>48510.59999999992</v>
+        <v>18.69356582132318</v>
       </c>
       <c r="E31" t="n">
-        <v>53501.39999999998</v>
+        <v>19.61131226843319</v>
       </c>
       <c r="F31" t="n">
-        <v>34487.09999999995</v>
+        <v>13.53716648810125</v>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +1070,19 @@
         <v>1996</v>
       </c>
       <c r="B32" t="n">
-        <v>5599.299999999997</v>
+        <v>15.3826923076923</v>
       </c>
       <c r="C32" t="n">
-        <v>28119.29999999996</v>
+        <v>10.82988944430441</v>
       </c>
       <c r="D32" t="n">
-        <v>50112.29999999992</v>
+        <v>18.00437295357026</v>
       </c>
       <c r="E32" t="n">
-        <v>55301.99999999992</v>
+        <v>19.78490556813514</v>
       </c>
       <c r="F32" t="n">
-        <v>35709.39999999996</v>
+        <v>13.58062820316595</v>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +1090,19 @@
         <v>1997</v>
       </c>
       <c r="B33" t="n">
-        <v>5421.000000000001</v>
+        <v>14.85205479452055</v>
       </c>
       <c r="C33" t="n">
-        <v>29000.39999999997</v>
+        <v>9.910332104936712</v>
       </c>
       <c r="D33" t="n">
-        <v>51683.89999999994</v>
+        <v>17.4681799225667</v>
       </c>
       <c r="E33" t="n">
-        <v>57080.19999999993</v>
+        <v>19.54331419095799</v>
       </c>
       <c r="F33" t="n">
-        <v>36899.49999999999</v>
+        <v>13.08348508916484</v>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1110,19 @@
         <v>1998</v>
       </c>
       <c r="B34" t="n">
-        <v>5735.900000000001</v>
+        <v>15.71479452054795</v>
       </c>
       <c r="C34" t="n">
-        <v>29956.39999999998</v>
+        <v>10.73233702338818</v>
       </c>
       <c r="D34" t="n">
-        <v>53333.19999999992</v>
+        <v>18.31613384530293</v>
       </c>
       <c r="E34" t="n">
-        <v>58878.29999999994</v>
+        <v>19.75699254555388</v>
       </c>
       <c r="F34" t="n">
-        <v>38231.99999999999</v>
+        <v>14.62590744662135</v>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1130,19 @@
         <v>1999</v>
       </c>
       <c r="B35" t="n">
-        <v>5901.799999999998</v>
+        <v>16.21373626373626</v>
       </c>
       <c r="C35" t="n">
-        <v>31061.99999999997</v>
+        <v>12.54305996655492</v>
       </c>
       <c r="D35" t="n">
-        <v>55050.89999999993</v>
+        <v>19.07710037192641</v>
       </c>
       <c r="E35" t="n">
-        <v>60686.29999999993</v>
+        <v>19.8669238320169</v>
       </c>
       <c r="F35" t="n">
-        <v>39502.49999999999</v>
+        <v>13.96875986355023</v>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1150,19 @@
         <v>2000</v>
       </c>
       <c r="B36" t="n">
-        <v>5666.3</v>
+        <v>15.48169398907104</v>
       </c>
       <c r="C36" t="n">
-        <v>32018.19999999999</v>
+        <v>10.6455281315006</v>
       </c>
       <c r="D36" t="n">
-        <v>56708.5999999999</v>
+        <v>18.42612198210908</v>
       </c>
       <c r="E36" t="n">
-        <v>62501.99999999995</v>
+        <v>19.95181438947845</v>
       </c>
       <c r="F36" t="n">
-        <v>40739.20000000001</v>
+        <v>13.59422565069075</v>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1170,19 @@
         <v>2001</v>
       </c>
       <c r="B37" t="n">
-        <v>5784.200000000005</v>
+        <v>15.89065934065935</v>
       </c>
       <c r="C37" t="n">
-        <v>33032.09999999998</v>
+        <v>11.38383920146112</v>
       </c>
       <c r="D37" t="n">
-        <v>58377.79999999992</v>
+        <v>18.54534199980339</v>
       </c>
       <c r="E37" t="n">
-        <v>64373.39999999996</v>
+        <v>20.55817189553781</v>
       </c>
       <c r="F37" t="n">
-        <v>41968.90000000001</v>
+        <v>13.66257390824934</v>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1190,19 @@
         <v>2002</v>
       </c>
       <c r="B38" t="n">
-        <v>5778.699999999999</v>
+        <v>15.83205479452054</v>
       </c>
       <c r="C38" t="n">
-        <v>34076.59999999999</v>
+        <v>11.73204265779401</v>
       </c>
       <c r="D38" t="n">
-        <v>60026.19999999996</v>
+        <v>18.31808068131652</v>
       </c>
       <c r="E38" t="n">
-        <v>66216.89999999995</v>
+        <v>20.26150186842976</v>
       </c>
       <c r="F38" t="n">
-        <v>43211.20000000002</v>
+        <v>13.65176710769836</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         <v>2003</v>
       </c>
       <c r="B39" t="n">
-        <v>5767.199999999999</v>
+        <v>15.80054794520548</v>
       </c>
       <c r="C39" t="n">
-        <v>35059.8</v>
+        <v>11.05480047397549</v>
       </c>
       <c r="D39" t="n">
-        <v>61689.59999999995</v>
+        <v>18.48041846902546</v>
       </c>
       <c r="E39" t="n">
-        <v>68093.49999999994</v>
+        <v>20.61805980291771</v>
       </c>
       <c r="F39" t="n">
-        <v>44455.20000000005</v>
+        <v>13.67012790334454</v>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1230,19 @@
         <v>2004</v>
       </c>
       <c r="B40" t="n">
-        <v>5692.000000000002</v>
+        <v>15.55191256830602</v>
       </c>
       <c r="C40" t="n">
-        <v>36130.80000000001</v>
+        <v>11.89071209312061</v>
       </c>
       <c r="D40" t="n">
-        <v>63337.29999999997</v>
+        <v>18.30967492823104</v>
       </c>
       <c r="E40" t="n">
-        <v>69905.89999999995</v>
+        <v>19.92410934568389</v>
       </c>
       <c r="F40" t="n">
-        <v>45616.10000000003</v>
+        <v>12.76706660764505</v>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1250,19 @@
         <v>2005</v>
       </c>
       <c r="B41" t="n">
-        <v>5879.900000000002</v>
+        <v>16.15357142857144</v>
       </c>
       <c r="C41" t="n">
-        <v>37156.20000000003</v>
+        <v>11.52545235659023</v>
       </c>
       <c r="D41" t="n">
-        <v>65039.29999999996</v>
+        <v>18.90450192228825</v>
       </c>
       <c r="E41" t="n">
-        <v>71800.49999999997</v>
+        <v>20.81004466680091</v>
       </c>
       <c r="F41" t="n">
-        <v>46874.00000000004</v>
+        <v>13.96337435832577</v>
       </c>
     </row>
     <row r="42">
@@ -1270,19 +1270,19 @@
         <v>2006</v>
       </c>
       <c r="B42" t="n">
-        <v>5848.899999999999</v>
+        <v>16.02438356164383</v>
       </c>
       <c r="C42" t="n">
-        <v>38209.10000000004</v>
+        <v>11.82694947062878</v>
       </c>
       <c r="D42" t="n">
-        <v>66707.69999999997</v>
+        <v>18.54180771343174</v>
       </c>
       <c r="E42" t="n">
-        <v>73692.99999999993</v>
+        <v>20.79684831159567</v>
       </c>
       <c r="F42" t="n">
-        <v>48109.10000000005</v>
+        <v>13.57677580824267</v>
       </c>
     </row>
     <row r="43">
@@ -1290,19 +1290,19 @@
         <v>2007</v>
       </c>
       <c r="B43" t="n">
-        <v>5717.400000000003</v>
+        <v>15.66410958904111</v>
       </c>
       <c r="C43" t="n">
-        <v>39171.40000000003</v>
+        <v>10.82363277189588</v>
       </c>
       <c r="D43" t="n">
-        <v>68387.09999999993</v>
+        <v>18.65870118366409</v>
       </c>
       <c r="E43" t="n">
-        <v>75532.09999999989</v>
+        <v>20.21627009034344</v>
       </c>
       <c r="F43" t="n">
-        <v>49345.70000000004</v>
+        <v>13.58887799791568</v>
       </c>
     </row>
     <row r="44">
@@ -1310,19 +1310,19 @@
         <v>2008</v>
       </c>
       <c r="B44" t="n">
-        <v>5730.899999999995</v>
+        <v>15.65819672131146</v>
       </c>
       <c r="C44" t="n">
-        <v>40138.60000000003</v>
+        <v>10.74751244804281</v>
       </c>
       <c r="D44" t="n">
-        <v>70072.39999999994</v>
+        <v>18.72482089212818</v>
       </c>
       <c r="E44" t="n">
-        <v>77370.39999999988</v>
+        <v>20.20126380532982</v>
       </c>
       <c r="F44" t="n">
-        <v>50585.80000000005</v>
+        <v>13.62705302171648</v>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1330,19 @@
         <v>2009</v>
       </c>
       <c r="B45" t="n">
-        <v>5888.100000000002</v>
+        <v>16.13178082191781</v>
       </c>
       <c r="C45" t="n">
-        <v>41194.60000000003</v>
+        <v>11.85275013831158</v>
       </c>
       <c r="D45" t="n">
-        <v>71780.09999999993</v>
+        <v>18.97170132848493</v>
       </c>
       <c r="E45" t="n">
-        <v>79265.99999999991</v>
+        <v>20.82392678049271</v>
       </c>
       <c r="F45" t="n">
-        <v>51814.60000000005</v>
+        <v>13.50464188067083</v>
       </c>
     </row>
     <row r="46">
@@ -1350,19 +1350,19 @@
         <v>2010</v>
       </c>
       <c r="B46" t="n">
-        <v>5867.300000000002</v>
+        <v>16.07479452054795</v>
       </c>
       <c r="C46" t="n">
-        <v>42256.20000000001</v>
+        <v>11.92725277931457</v>
       </c>
       <c r="D46" t="n">
-        <v>73456.49999999996</v>
+        <v>18.63045825635697</v>
       </c>
       <c r="E46" t="n">
-        <v>81124.90000000004</v>
+        <v>20.43178181283144</v>
       </c>
       <c r="F46" t="n">
-        <v>53085.00000000004</v>
+        <v>13.95548523783337</v>
       </c>
     </row>
     <row r="47">
@@ -1370,19 +1370,19 @@
         <v>2011</v>
       </c>
       <c r="B47" t="n">
-        <v>5711.400000000003</v>
+        <v>15.64767123287672</v>
       </c>
       <c r="C47" t="n">
-        <v>43219.8</v>
+        <v>10.83919169754794</v>
       </c>
       <c r="D47" t="n">
-        <v>75116.29999999992</v>
+        <v>18.44429075006985</v>
       </c>
       <c r="E47" t="n">
-        <v>82982.90000000005</v>
+        <v>20.41773675883513</v>
       </c>
       <c r="F47" t="n">
-        <v>54315.00000000003</v>
+        <v>13.52125527432428</v>
       </c>
     </row>
     <row r="48">
@@ -1390,19 +1390,19 @@
         <v>2012</v>
       </c>
       <c r="B48" t="n">
-        <v>5841.199999999993</v>
+        <v>15.95956284153004</v>
       </c>
       <c r="C48" t="n">
-        <v>44249.69999999998</v>
+        <v>11.43669441425877</v>
       </c>
       <c r="D48" t="n">
-        <v>76844.1999999999</v>
+        <v>19.19059660164912</v>
       </c>
       <c r="E48" t="n">
-        <v>84839.50000000001</v>
+        <v>20.40236670390039</v>
       </c>
       <c r="F48" t="n">
-        <v>55541.80000000005</v>
+        <v>13.48175277472092</v>
       </c>
     </row>
     <row r="49">
@@ -1410,19 +1410,19 @@
         <v>2013</v>
       </c>
       <c r="B49" t="n">
-        <v>5847.299999999997</v>
+        <v>16.01999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>45343.69999999998</v>
+        <v>12.28262993793621</v>
       </c>
       <c r="D49" t="n">
-        <v>78545.29999999994</v>
+        <v>18.90429227034779</v>
       </c>
       <c r="E49" t="n">
-        <v>86685.99999999991</v>
+        <v>20.29241702939023</v>
       </c>
       <c r="F49" t="n">
-        <v>56747.50000000002</v>
+        <v>13.25197557363828</v>
       </c>
     </row>
     <row r="50">
@@ -1430,19 +1430,19 @@
         <v>2014</v>
       </c>
       <c r="B50" t="n">
-        <v>5621</v>
+        <v>15.4</v>
       </c>
       <c r="C50" t="n">
-        <v>46303.90000000003</v>
+        <v>10.80536255486595</v>
       </c>
       <c r="D50" t="n">
-        <v>80217.19999999994</v>
+        <v>18.5802669480258</v>
       </c>
       <c r="E50" t="n">
-        <v>88517.39999999988</v>
+        <v>20.1270914894499</v>
       </c>
       <c r="F50" t="n">
-        <v>57904.99999999998</v>
+        <v>12.72556495188737</v>
       </c>
     </row>
     <row r="51">
@@ -1450,19 +1450,19 @@
         <v>2015</v>
       </c>
       <c r="B51" t="n">
-        <v>5583.900000000002</v>
+        <v>15.29835616438357</v>
       </c>
       <c r="C51" t="n">
-        <v>47294.1</v>
+        <v>11.12228180616518</v>
       </c>
       <c r="D51" t="n">
-        <v>81851.7</v>
+        <v>18.16571721920907</v>
       </c>
       <c r="E51" t="n">
-        <v>90312.89999999988</v>
+        <v>19.73507708140706</v>
       </c>
       <c r="F51" t="n">
-        <v>59068.70000000001</v>
+        <v>12.78723440165094</v>
       </c>
     </row>
     <row r="52">
@@ -1470,19 +1470,19 @@
         <v>2016</v>
       </c>
       <c r="B52" t="n">
-        <v>5712.599999999996</v>
+        <v>15.60819672131146</v>
       </c>
       <c r="C52" t="n">
-        <v>48262.90000000005</v>
+        <v>10.76837672314467</v>
       </c>
       <c r="D52" t="n">
-        <v>83474.20000000003</v>
+        <v>18.02929359581548</v>
       </c>
       <c r="E52" t="n">
-        <v>92152.5999999998</v>
+        <v>20.21125083784139</v>
       </c>
       <c r="F52" t="n">
-        <v>60350.30000000002</v>
+        <v>14.06942646088751</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56739_腾冲.xlsx
+++ b/my_work/data1/YearMeanER56739_腾冲.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,31 @@
           <t>S4</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RHmean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>s1_RH</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>s2_RH</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>s3_RH</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>s4_RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +509,21 @@
       <c r="F2" t="n">
         <v>12.49673913043478</v>
       </c>
+      <c r="G2" t="n">
+        <v>78.64109589041095</v>
+      </c>
+      <c r="H2" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>76.67032967032966</v>
+      </c>
+      <c r="J2" t="n">
+        <v>89.92391304347827</v>
+      </c>
+      <c r="K2" t="n">
+        <v>78.05434782608695</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -504,6 +544,21 @@
       <c r="F3" t="n">
         <v>11.41974438604874</v>
       </c>
+      <c r="G3" t="n">
+        <v>79.90384615384616</v>
+      </c>
+      <c r="H3" t="n">
+        <v>72.60777777777777</v>
+      </c>
+      <c r="I3" t="n">
+        <v>80.82055307330033</v>
+      </c>
+      <c r="J3" t="n">
+        <v>89.8687381852552</v>
+      </c>
+      <c r="K3" t="n">
+        <v>79.58301481127567</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +579,21 @@
       <c r="F4" t="n">
         <v>12.30347548245705</v>
       </c>
+      <c r="G4" t="n">
+        <v>79.70149253731343</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67.7767962962963</v>
+      </c>
+      <c r="I4" t="n">
+        <v>83.00901706673956</v>
+      </c>
+      <c r="J4" t="n">
+        <v>90.24857324114407</v>
+      </c>
+      <c r="K4" t="n">
+        <v>77.16938059577474</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -544,6 +614,21 @@
       <c r="F5" t="n">
         <v>12.33047255959192</v>
       </c>
+      <c r="G5" t="n">
+        <v>76.22527472527473</v>
+      </c>
+      <c r="H5" t="n">
+        <v>62.87529773662551</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75.85565574518598</v>
+      </c>
+      <c r="J5" t="n">
+        <v>89.07878883957765</v>
+      </c>
+      <c r="K5" t="n">
+        <v>80.25184109343233</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -564,6 +649,21 @@
       <c r="F6" t="n">
         <v>12.56772252782165</v>
       </c>
+      <c r="G6" t="n">
+        <v>79.21095890410959</v>
+      </c>
+      <c r="H6" t="n">
+        <v>68.63194775262917</v>
+      </c>
+      <c r="I6" t="n">
+        <v>79.22918303016688</v>
+      </c>
+      <c r="J6" t="n">
+        <v>90.30520422651715</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81.79621566405905</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,6 +684,21 @@
       <c r="F7" t="n">
         <v>11.97986508272332</v>
       </c>
+      <c r="G7" t="n">
+        <v>78.51648351648352</v>
+      </c>
+      <c r="H7" t="n">
+        <v>65.89591053058477</v>
+      </c>
+      <c r="I7" t="n">
+        <v>82.13438662670514</v>
+      </c>
+      <c r="J7" t="n">
+        <v>89.64462178507084</v>
+      </c>
+      <c r="K7" t="n">
+        <v>79.6461122600446</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -604,6 +719,21 @@
       <c r="F8" t="n">
         <v>12.49978114220352</v>
       </c>
+      <c r="G8" t="n">
+        <v>78.10655737704919</v>
+      </c>
+      <c r="H8" t="n">
+        <v>69.10874626956686</v>
+      </c>
+      <c r="I8" t="n">
+        <v>78.01246578710665</v>
+      </c>
+      <c r="J8" t="n">
+        <v>89.20265893244643</v>
+      </c>
+      <c r="K8" t="n">
+        <v>79.45267513326135</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -624,6 +754,21 @@
       <c r="F9" t="n">
         <v>12.88478022980656</v>
       </c>
+      <c r="G9" t="n">
+        <v>78.71780821917808</v>
+      </c>
+      <c r="H9" t="n">
+        <v>66.29009718077296</v>
+      </c>
+      <c r="I9" t="n">
+        <v>81.01112599766051</v>
+      </c>
+      <c r="J9" t="n">
+        <v>88.02394194491789</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82.7331812514485</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -644,6 +789,21 @@
       <c r="F10" t="n">
         <v>13.6139650024979</v>
       </c>
+      <c r="G10" t="n">
+        <v>81.32328767123288</v>
+      </c>
+      <c r="H10" t="n">
+        <v>69.7143344131197</v>
+      </c>
+      <c r="I10" t="n">
+        <v>84.21990248349077</v>
+      </c>
+      <c r="J10" t="n">
+        <v>91.78286893418388</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82.81231718751575</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -664,6 +824,21 @@
       <c r="F11" t="n">
         <v>12.25449961959237</v>
       </c>
+      <c r="G11" t="n">
+        <v>78.07123287671233</v>
+      </c>
+      <c r="H11" t="n">
+        <v>67.49682593792356</v>
+      </c>
+      <c r="I11" t="n">
+        <v>78.40900991740099</v>
+      </c>
+      <c r="J11" t="n">
+        <v>88.09546596667592</v>
+      </c>
+      <c r="K11" t="n">
+        <v>81.62839475203822</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -684,6 +859,21 @@
       <c r="F12" t="n">
         <v>12.29407064803905</v>
       </c>
+      <c r="G12" t="n">
+        <v>80.93989071038251</v>
+      </c>
+      <c r="H12" t="n">
+        <v>74.2362288564607</v>
+      </c>
+      <c r="I12" t="n">
+        <v>82.60889021887253</v>
+      </c>
+      <c r="J12" t="n">
+        <v>89.60973332572473</v>
+      </c>
+      <c r="K12" t="n">
+        <v>80.68074342121781</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -704,6 +894,21 @@
       <c r="F13" t="n">
         <v>12.20537033313085</v>
       </c>
+      <c r="G13" t="n">
+        <v>80.86027397260274</v>
+      </c>
+      <c r="H13" t="n">
+        <v>70.76929143173845</v>
+      </c>
+      <c r="I13" t="n">
+        <v>85.56713066174586</v>
+      </c>
+      <c r="J13" t="n">
+        <v>89.58271449267092</v>
+      </c>
+      <c r="K13" t="n">
+        <v>80.90957329805671</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -724,6 +929,21 @@
       <c r="F14" t="n">
         <v>12.72614532970794</v>
       </c>
+      <c r="G14" t="n">
+        <v>76.28219178082192</v>
+      </c>
+      <c r="H14" t="n">
+        <v>65.70854768257487</v>
+      </c>
+      <c r="I14" t="n">
+        <v>80.23700143584337</v>
+      </c>
+      <c r="J14" t="n">
+        <v>87.66937733144208</v>
+      </c>
+      <c r="K14" t="n">
+        <v>74.87945188367453</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -744,6 +964,21 @@
       <c r="F15" t="n">
         <v>12.45354505793161</v>
       </c>
+      <c r="G15" t="n">
+        <v>75.98082191780821</v>
+      </c>
+      <c r="H15" t="n">
+        <v>61.14120608536194</v>
+      </c>
+      <c r="I15" t="n">
+        <v>74.2993077080862</v>
+      </c>
+      <c r="J15" t="n">
+        <v>89.77901497099393</v>
+      </c>
+      <c r="K15" t="n">
+        <v>81.71608099873559</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -764,6 +999,21 @@
       <c r="F16" t="n">
         <v>12.37884288106448</v>
       </c>
+      <c r="G16" t="n">
+        <v>77.29234972677595</v>
+      </c>
+      <c r="H16" t="n">
+        <v>68.48506819874024</v>
+      </c>
+      <c r="I16" t="n">
+        <v>75.9483440407482</v>
+      </c>
+      <c r="J16" t="n">
+        <v>89.60629364098907</v>
+      </c>
+      <c r="K16" t="n">
+        <v>78.35560957607321</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -784,6 +1034,21 @@
       <c r="F17" t="n">
         <v>13.53998742262026</v>
       </c>
+      <c r="G17" t="n">
+        <v>78.92582417582418</v>
+      </c>
+      <c r="H17" t="n">
+        <v>69.91650075776377</v>
+      </c>
+      <c r="I17" t="n">
+        <v>79.97720382267498</v>
+      </c>
+      <c r="J17" t="n">
+        <v>89.46311188740205</v>
+      </c>
+      <c r="K17" t="n">
+        <v>79.5690827127834</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -804,6 +1069,21 @@
       <c r="F18" t="n">
         <v>11.77108681981109</v>
       </c>
+      <c r="G18" t="n">
+        <v>79.60714285714286</v>
+      </c>
+      <c r="H18" t="n">
+        <v>69.13240556397515</v>
+      </c>
+      <c r="I18" t="n">
+        <v>82.10963960244698</v>
+      </c>
+      <c r="J18" t="n">
+        <v>89.87322100975167</v>
+      </c>
+      <c r="K18" t="n">
+        <v>80.69096829035634</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -824,6 +1104,21 @@
       <c r="F19" t="n">
         <v>12.60517677823968</v>
       </c>
+      <c r="G19" t="n">
+        <v>80.83241758241758</v>
+      </c>
+      <c r="H19" t="n">
+        <v>75.49036006182195</v>
+      </c>
+      <c r="I19" t="n">
+        <v>80.5726334022247</v>
+      </c>
+      <c r="J19" t="n">
+        <v>90.68340457619296</v>
+      </c>
+      <c r="K19" t="n">
+        <v>79.95264800319073</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -844,6 +1139,21 @@
       <c r="F20" t="n">
         <v>12.34896931280696</v>
       </c>
+      <c r="G20" t="n">
+        <v>77.97540983606558</v>
+      </c>
+      <c r="H20" t="n">
+        <v>64.9834105501299</v>
+      </c>
+      <c r="I20" t="n">
+        <v>82.25903992749697</v>
+      </c>
+      <c r="J20" t="n">
+        <v>90.20308048452384</v>
+      </c>
+      <c r="K20" t="n">
+        <v>77.91252878264338</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -864,6 +1174,21 @@
       <c r="F21" t="n">
         <v>12.22227140557399</v>
       </c>
+      <c r="G21" t="n">
+        <v>79.04657534246576</v>
+      </c>
+      <c r="H21" t="n">
+        <v>66.69981567277922</v>
+      </c>
+      <c r="I21" t="n">
+        <v>83.07976966953294</v>
+      </c>
+      <c r="J21" t="n">
+        <v>90.14351174439699</v>
+      </c>
+      <c r="K21" t="n">
+        <v>79.46644053024613</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -884,6 +1209,21 @@
       <c r="F22" t="n">
         <v>12.06111164571277</v>
       </c>
+      <c r="G22" t="n">
+        <v>77.32602739726028</v>
+      </c>
+      <c r="H22" t="n">
+        <v>66.68555350747532</v>
+      </c>
+      <c r="I22" t="n">
+        <v>77.0118656007641</v>
+      </c>
+      <c r="J22" t="n">
+        <v>88.52329904069997</v>
+      </c>
+      <c r="K22" t="n">
+        <v>80.3202873970679</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -904,6 +1244,21 @@
       <c r="F23" t="n">
         <v>13.30935990919253</v>
       </c>
+      <c r="G23" t="n">
+        <v>77.58630136986301</v>
+      </c>
+      <c r="H23" t="n">
+        <v>69.36317281674972</v>
+      </c>
+      <c r="I23" t="n">
+        <v>76.50562489671169</v>
+      </c>
+      <c r="J23" t="n">
+        <v>89.8752532504424</v>
+      </c>
+      <c r="K23" t="n">
+        <v>77.8078292108377</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -924,6 +1279,21 @@
       <c r="F24" t="n">
         <v>14.10227565118688</v>
       </c>
+      <c r="G24" t="n">
+        <v>77.23497267759562</v>
+      </c>
+      <c r="H24" t="n">
+        <v>64.79519970128295</v>
+      </c>
+      <c r="I24" t="n">
+        <v>77.50006181205178</v>
+      </c>
+      <c r="J24" t="n">
+        <v>90.33560057880915</v>
+      </c>
+      <c r="K24" t="n">
+        <v>79.58486770881345</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -944,6 +1314,21 @@
       <c r="F25" t="n">
         <v>12.58480734403464</v>
       </c>
+      <c r="G25" t="n">
+        <v>76.17728531855956</v>
+      </c>
+      <c r="H25" t="n">
+        <v>64.73105777445869</v>
+      </c>
+      <c r="I25" t="n">
+        <v>74.95055012980276</v>
+      </c>
+      <c r="J25" t="n">
+        <v>88.94699546112282</v>
+      </c>
+      <c r="K25" t="n">
+        <v>79.76722682292188</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -964,6 +1349,21 @@
       <c r="F26" t="n">
         <v>13.59766094939168</v>
       </c>
+      <c r="G26" t="n">
+        <v>79.26027397260275</v>
+      </c>
+      <c r="H26" t="n">
+        <v>72.49701175304955</v>
+      </c>
+      <c r="I26" t="n">
+        <v>81.83462142999782</v>
+      </c>
+      <c r="J26" t="n">
+        <v>88.09724995066438</v>
+      </c>
+      <c r="K26" t="n">
+        <v>77.84529594372741</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -984,6 +1384,21 @@
       <c r="F27" t="n">
         <v>13.04236587988469</v>
       </c>
+      <c r="G27" t="n">
+        <v>78.86027397260274</v>
+      </c>
+      <c r="H27" t="n">
+        <v>66.90552235281166</v>
+      </c>
+      <c r="I27" t="n">
+        <v>81.41576507065932</v>
+      </c>
+      <c r="J27" t="n">
+        <v>90.10975271685504</v>
+      </c>
+      <c r="K27" t="n">
+        <v>80.25918799938835</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1004,6 +1419,21 @@
       <c r="F28" t="n">
         <v>12.09828658565091</v>
       </c>
+      <c r="G28" t="n">
+        <v>78.14525139664805</v>
+      </c>
+      <c r="H28" t="n">
+        <v>73.70225848739354</v>
+      </c>
+      <c r="I28" t="n">
+        <v>73.95783253024305</v>
+      </c>
+      <c r="J28" t="n">
+        <v>88.7789972524095</v>
+      </c>
+      <c r="K28" t="n">
+        <v>79.47020856521075</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1024,6 +1454,21 @@
       <c r="F29" t="n">
         <v>13.47715528897446</v>
       </c>
+      <c r="G29" t="n">
+        <v>80.32782369146005</v>
+      </c>
+      <c r="H29" t="n">
+        <v>74.19669176097105</v>
+      </c>
+      <c r="I29" t="n">
+        <v>80.94459156626641</v>
+      </c>
+      <c r="J29" t="n">
+        <v>90.35309996947122</v>
+      </c>
+      <c r="K29" t="n">
+        <v>79.34206748440447</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1044,6 +1489,21 @@
       <c r="F30" t="n">
         <v>12.51931690531494</v>
       </c>
+      <c r="G30" t="n">
+        <v>76.25824175824175</v>
+      </c>
+      <c r="H30" t="n">
+        <v>66.72440768623302</v>
+      </c>
+      <c r="I30" t="n">
+        <v>76.82356694028864</v>
+      </c>
+      <c r="J30" t="n">
+        <v>87.5643197798843</v>
+      </c>
+      <c r="K30" t="n">
+        <v>77.3732833422218</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1064,6 +1524,21 @@
       <c r="F31" t="n">
         <v>13.53716648810125</v>
       </c>
+      <c r="G31" t="n">
+        <v>77.45479452054795</v>
+      </c>
+      <c r="H31" t="n">
+        <v>65.23027119651371</v>
+      </c>
+      <c r="I31" t="n">
+        <v>76.70135787846471</v>
+      </c>
+      <c r="J31" t="n">
+        <v>90.11482956282484</v>
+      </c>
+      <c r="K31" t="n">
+        <v>80.85188351458937</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1084,6 +1559,21 @@
       <c r="F32" t="n">
         <v>13.58062820316595</v>
       </c>
+      <c r="G32" t="n">
+        <v>77.36813186813187</v>
+      </c>
+      <c r="H32" t="n">
+        <v>68.65088210106059</v>
+      </c>
+      <c r="I32" t="n">
+        <v>78.71890397642738</v>
+      </c>
+      <c r="J32" t="n">
+        <v>88.34907423437853</v>
+      </c>
+      <c r="K32" t="n">
+        <v>77.08628443422626</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1104,6 +1594,21 @@
       <c r="F33" t="n">
         <v>13.08348508916484</v>
       </c>
+      <c r="G33" t="n">
+        <v>76.7013698630137</v>
+      </c>
+      <c r="H33" t="n">
+        <v>66.61834313445624</v>
+      </c>
+      <c r="I33" t="n">
+        <v>76.5024055382025</v>
+      </c>
+      <c r="J33" t="n">
+        <v>88.2429247199389</v>
+      </c>
+      <c r="K33" t="n">
+        <v>78.62050309167637</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1124,6 +1629,21 @@
       <c r="F34" t="n">
         <v>14.62590744662135</v>
       </c>
+      <c r="G34" t="n">
+        <v>77.92602739726027</v>
+      </c>
+      <c r="H34" t="n">
+        <v>69.49575936816062</v>
+      </c>
+      <c r="I34" t="n">
+        <v>80.95057588503519</v>
+      </c>
+      <c r="J34" t="n">
+        <v>88.91568396434717</v>
+      </c>
+      <c r="K34" t="n">
+        <v>75.56109242490952</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1144,6 +1664,21 @@
       <c r="F35" t="n">
         <v>13.96875986355023</v>
       </c>
+      <c r="G35" t="n">
+        <v>74.45604395604396</v>
+      </c>
+      <c r="H35" t="n">
+        <v>55.46624448728271</v>
+      </c>
+      <c r="I35" t="n">
+        <v>76.91154478994544</v>
+      </c>
+      <c r="J35" t="n">
+        <v>89.65125743439508</v>
+      </c>
+      <c r="K35" t="n">
+        <v>78.62566404809684</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1164,6 +1699,21 @@
       <c r="F36" t="n">
         <v>13.59422565069075</v>
       </c>
+      <c r="G36" t="n">
+        <v>77.65846994535519</v>
+      </c>
+      <c r="H36" t="n">
+        <v>67.68644224711299</v>
+      </c>
+      <c r="I36" t="n">
+        <v>79.73529170098841</v>
+      </c>
+      <c r="J36" t="n">
+        <v>88.7136006242869</v>
+      </c>
+      <c r="K36" t="n">
+        <v>77.68071373965323</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1184,6 +1734,21 @@
       <c r="F37" t="n">
         <v>13.66257390824934</v>
       </c>
+      <c r="G37" t="n">
+        <v>75.88186813186813</v>
+      </c>
+      <c r="H37" t="n">
+        <v>62.97429380274571</v>
+      </c>
+      <c r="I37" t="n">
+        <v>76.32676144726361</v>
+      </c>
+      <c r="J37" t="n">
+        <v>87.14906087635094</v>
+      </c>
+      <c r="K37" t="n">
+        <v>80.26022762351268</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1204,6 +1769,21 @@
       <c r="F38" t="n">
         <v>13.65176710769836</v>
       </c>
+      <c r="G38" t="n">
+        <v>75.94520547945206</v>
+      </c>
+      <c r="H38" t="n">
+        <v>65.22193659780828</v>
+      </c>
+      <c r="I38" t="n">
+        <v>79.35523913678311</v>
+      </c>
+      <c r="J38" t="n">
+        <v>85.87118544430815</v>
+      </c>
+      <c r="K38" t="n">
+        <v>76.47021986547297</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1224,6 +1804,21 @@
       <c r="F39" t="n">
         <v>13.67012790334454</v>
       </c>
+      <c r="G39" t="n">
+        <v>75.8958904109589</v>
+      </c>
+      <c r="H39" t="n">
+        <v>65.20246596219786</v>
+      </c>
+      <c r="I39" t="n">
+        <v>78.04785977073388</v>
+      </c>
+      <c r="J39" t="n">
+        <v>86.03120853743813</v>
+      </c>
+      <c r="K39" t="n">
+        <v>77.42902412897253</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1244,6 +1839,21 @@
       <c r="F40" t="n">
         <v>12.76706660764505</v>
       </c>
+      <c r="G40" t="n">
+        <v>76.17486338797814</v>
+      </c>
+      <c r="H40" t="n">
+        <v>62.9033238017824</v>
+      </c>
+      <c r="I40" t="n">
+        <v>80.63788856890916</v>
+      </c>
+      <c r="J40" t="n">
+        <v>87.82642617975476</v>
+      </c>
+      <c r="K40" t="n">
+        <v>76.56988069705405</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1264,6 +1874,21 @@
       <c r="F41" t="n">
         <v>13.96337435832577</v>
       </c>
+      <c r="G41" t="n">
+        <v>74.4478021978022</v>
+      </c>
+      <c r="H41" t="n">
+        <v>69.1989258200198</v>
+      </c>
+      <c r="I41" t="n">
+        <v>70.56744932493307</v>
+      </c>
+      <c r="J41" t="n">
+        <v>84.18289593673647</v>
+      </c>
+      <c r="K41" t="n">
+        <v>77.06120748018741</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1284,6 +1909,21 @@
       <c r="F42" t="n">
         <v>13.57677580824267</v>
       </c>
+      <c r="G42" t="n">
+        <v>75.05753424657534</v>
+      </c>
+      <c r="H42" t="n">
+        <v>63.82443250911133</v>
+      </c>
+      <c r="I42" t="n">
+        <v>77.3029390035707</v>
+      </c>
+      <c r="J42" t="n">
+        <v>85.59981408626888</v>
+      </c>
+      <c r="K42" t="n">
+        <v>76.55501312478465</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1304,6 +1944,21 @@
       <c r="F43" t="n">
         <v>13.58887799791568</v>
       </c>
+      <c r="G43" t="n">
+        <v>77.17260273972603</v>
+      </c>
+      <c r="H43" t="n">
+        <v>65.84249369454568</v>
+      </c>
+      <c r="I43" t="n">
+        <v>80.17915317586342</v>
+      </c>
+      <c r="J43" t="n">
+        <v>88.54999797919857</v>
+      </c>
+      <c r="K43" t="n">
+        <v>77.2016849252694</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1324,6 +1979,21 @@
       <c r="F44" t="n">
         <v>13.62705302171648</v>
       </c>
+      <c r="G44" t="n">
+        <v>74.03551912568307</v>
+      </c>
+      <c r="H44" t="n">
+        <v>66.78947795268732</v>
+      </c>
+      <c r="I44" t="n">
+        <v>73.89207860632817</v>
+      </c>
+      <c r="J44" t="n">
+        <v>83.86467389107824</v>
+      </c>
+      <c r="K44" t="n">
+        <v>74.90436614049206</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1344,6 +2014,21 @@
       <c r="F45" t="n">
         <v>13.50464188067083</v>
       </c>
+      <c r="G45" t="n">
+        <v>69.89041095890411</v>
+      </c>
+      <c r="H45" t="n">
+        <v>61.05321642169652</v>
+      </c>
+      <c r="I45" t="n">
+        <v>72.25156130336624</v>
+      </c>
+      <c r="J45" t="n">
+        <v>79.7050508031639</v>
+      </c>
+      <c r="K45" t="n">
+        <v>69.64026484935317</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1364,6 +2049,21 @@
       <c r="F46" t="n">
         <v>13.95548523783337</v>
       </c>
+      <c r="G46" t="n">
+        <v>70.98904109589041</v>
+      </c>
+      <c r="H46" t="n">
+        <v>55.66725796024107</v>
+      </c>
+      <c r="I46" t="n">
+        <v>74.15661056377326</v>
+      </c>
+      <c r="J46" t="n">
+        <v>82.58375055220831</v>
+      </c>
+      <c r="K46" t="n">
+        <v>74.32217679184079</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1384,6 +2084,21 @@
       <c r="F47" t="n">
         <v>13.52125527432428</v>
       </c>
+      <c r="G47" t="n">
+        <v>71.33972602739726</v>
+      </c>
+      <c r="H47" t="n">
+        <v>62.14074731066934</v>
+      </c>
+      <c r="I47" t="n">
+        <v>72.80391879740409</v>
+      </c>
+      <c r="J47" t="n">
+        <v>80.46286685382836</v>
+      </c>
+      <c r="K47" t="n">
+        <v>72.88393670425913</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1404,6 +2119,21 @@
       <c r="F48" t="n">
         <v>13.48175277472092</v>
       </c>
+      <c r="G48" t="n">
+        <v>71.85519125683061</v>
+      </c>
+      <c r="H48" t="n">
+        <v>62.00154667374362</v>
+      </c>
+      <c r="I48" t="n">
+        <v>72.19564745931214</v>
+      </c>
+      <c r="J48" t="n">
+        <v>84.48329203101987</v>
+      </c>
+      <c r="K48" t="n">
+        <v>71.77047757287238</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1424,6 +2154,21 @@
       <c r="F49" t="n">
         <v>13.25197557363828</v>
       </c>
+      <c r="G49" t="n">
+        <v>71.34520547945205</v>
+      </c>
+      <c r="H49" t="n">
+        <v>57.21112829637494</v>
+      </c>
+      <c r="I49" t="n">
+        <v>73.3537983237287</v>
+      </c>
+      <c r="J49" t="n">
+        <v>85.14655752207631</v>
+      </c>
+      <c r="K49" t="n">
+        <v>72.54098345187904</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1444,6 +2189,21 @@
       <c r="F50" t="n">
         <v>12.72556495188737</v>
       </c>
+      <c r="G50" t="n">
+        <v>77.63287671232877</v>
+      </c>
+      <c r="H50" t="n">
+        <v>68.11345698107084</v>
+      </c>
+      <c r="I50" t="n">
+        <v>75.91597580575527</v>
+      </c>
+      <c r="J50" t="n">
+        <v>89.2407234513269</v>
+      </c>
+      <c r="K50" t="n">
+        <v>80.1689237331726</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1464,6 +2224,21 @@
       <c r="F51" t="n">
         <v>12.78723440165094</v>
       </c>
+      <c r="G51" t="n">
+        <v>80.75616438356164</v>
+      </c>
+      <c r="H51" t="n">
+        <v>70.26792729978968</v>
+      </c>
+      <c r="I51" t="n">
+        <v>81.80127445940391</v>
+      </c>
+      <c r="J51" t="n">
+        <v>91.99174699403616</v>
+      </c>
+      <c r="K51" t="n">
+        <v>82.15401004057796</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1483,6 +2258,21 @@
       </c>
       <c r="F52" t="n">
         <v>14.06942646088751</v>
+      </c>
+      <c r="G52" t="n">
+        <v>82.19125683060109</v>
+      </c>
+      <c r="H52" t="n">
+        <v>75.9589882120856</v>
+      </c>
+      <c r="I52" t="n">
+        <v>84.36045356548794</v>
+      </c>
+      <c r="J52" t="n">
+        <v>89.30425811950039</v>
+      </c>
+      <c r="K52" t="n">
+        <v>82.64297837000629</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56739_腾冲.xlsx
+++ b/my_work/data1/YearMeanER56739_腾冲.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,1786 +492,1751 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B2" t="n">
-        <v>15.00958904109589</v>
+        <v>14.54203296703296</v>
       </c>
       <c r="C2" t="n">
-        <v>10.45444444444444</v>
+        <v>10.19111111111111</v>
       </c>
       <c r="D2" t="n">
-        <v>17.91318681318681</v>
+        <v>16.98021978021978</v>
       </c>
       <c r="E2" t="n">
-        <v>19.10652173913044</v>
+        <v>19.61086956521739</v>
       </c>
       <c r="F2" t="n">
-        <v>12.49673913043478</v>
+        <v>11.28241758241758</v>
       </c>
       <c r="G2" t="n">
-        <v>78.64109589041095</v>
+        <v>79.90384615384616</v>
       </c>
       <c r="H2" t="n">
-        <v>69.7</v>
+        <v>71.83333333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>76.67032967032966</v>
+        <v>79.97802197802197</v>
       </c>
       <c r="J2" t="n">
-        <v>89.92391304347827</v>
+        <v>88.89130434782609</v>
       </c>
       <c r="K2" t="n">
-        <v>78.05434782608695</v>
+        <v>78.72527472527473</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B3" t="n">
-        <v>14.54203296703296</v>
+        <v>15.12626865671643</v>
       </c>
       <c r="C3" t="n">
-        <v>10.30727160493827</v>
+        <v>10.34985185185185</v>
       </c>
       <c r="D3" t="n">
-        <v>17.1770679869581</v>
+        <v>17.08000241516725</v>
       </c>
       <c r="E3" t="n">
-        <v>19.81854914933837</v>
+        <v>19.76424858223063</v>
       </c>
       <c r="F3" t="n">
-        <v>11.41974438604874</v>
+        <v>12.30198279980889</v>
       </c>
       <c r="G3" t="n">
-        <v>79.90384615384616</v>
+        <v>79.70149253731343</v>
       </c>
       <c r="H3" t="n">
-        <v>72.60777777777777</v>
+        <v>67.76388888888889</v>
       </c>
       <c r="I3" t="n">
-        <v>80.82055307330033</v>
+        <v>82.99975848327497</v>
       </c>
       <c r="J3" t="n">
-        <v>89.8687381852552</v>
+        <v>90.23794896030246</v>
       </c>
       <c r="K3" t="n">
-        <v>79.58301481127567</v>
+        <v>77.16005733397039</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B4" t="n">
-        <v>15.12626865671643</v>
+        <v>14.92994505494507</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3517878600823</v>
+        <v>9.996109465020577</v>
       </c>
       <c r="D4" t="n">
-        <v>17.08216558227426</v>
+        <v>18.41088891572408</v>
       </c>
       <c r="E4" t="n">
-        <v>19.76650596901455</v>
+        <v>19.59743748458946</v>
       </c>
       <c r="F4" t="n">
-        <v>12.30347548245705</v>
+        <v>12.33045633478053</v>
       </c>
       <c r="G4" t="n">
-        <v>79.70149253731343</v>
+        <v>76.22527472527473</v>
       </c>
       <c r="H4" t="n">
-        <v>67.7767962962963</v>
+        <v>62.87515432098765</v>
       </c>
       <c r="I4" t="n">
-        <v>83.00901706673956</v>
+        <v>75.85555287203638</v>
       </c>
       <c r="J4" t="n">
-        <v>90.24857324114407</v>
+        <v>89.07867335826415</v>
       </c>
       <c r="K4" t="n">
-        <v>77.16938059577474</v>
+        <v>80.2517397536301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B5" t="n">
-        <v>14.92994505494507</v>
+        <v>15.01205479452055</v>
       </c>
       <c r="C5" t="n">
-        <v>9.996130976223139</v>
+        <v>10.06551232738911</v>
       </c>
       <c r="D5" t="n">
-        <v>18.41091295091416</v>
+        <v>18.21660317489807</v>
       </c>
       <c r="E5" t="n">
-        <v>19.59746202140233</v>
+        <v>19.78149388570206</v>
       </c>
       <c r="F5" t="n">
-        <v>12.33047255959192</v>
+        <v>12.567722351465</v>
       </c>
       <c r="G5" t="n">
-        <v>76.22527472527473</v>
+        <v>79.21095890410959</v>
       </c>
       <c r="H5" t="n">
-        <v>62.87529773662551</v>
+        <v>68.63194615912208</v>
       </c>
       <c r="I5" t="n">
-        <v>75.85565574518598</v>
+        <v>79.2291818996927</v>
       </c>
       <c r="J5" t="n">
-        <v>89.07878883957765</v>
+        <v>90.30520297128548</v>
       </c>
       <c r="K5" t="n">
-        <v>80.25184109343233</v>
+        <v>81.79621456253946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B6" t="n">
-        <v>15.01205479452055</v>
+        <v>14.64203296703297</v>
       </c>
       <c r="C6" t="n">
-        <v>10.06551256640248</v>
+        <v>9.9540612480821</v>
       </c>
       <c r="D6" t="n">
-        <v>18.21660343902103</v>
+        <v>17.76391871620767</v>
       </c>
       <c r="E6" t="n">
-        <v>19.78149415240655</v>
+        <v>19.43240754223588</v>
       </c>
       <c r="F6" t="n">
-        <v>12.56772252782165</v>
+        <v>11.97986508078533</v>
       </c>
       <c r="G6" t="n">
-        <v>79.21095890410959</v>
+        <v>78.51648351648352</v>
       </c>
       <c r="H6" t="n">
-        <v>68.63194775262917</v>
+        <v>65.89591051287913</v>
       </c>
       <c r="I6" t="n">
-        <v>79.22918303016688</v>
+        <v>82.13438661428233</v>
       </c>
       <c r="J6" t="n">
-        <v>90.30520422651715</v>
+        <v>89.64462177142701</v>
       </c>
       <c r="K6" t="n">
-        <v>81.79621566405905</v>
+        <v>79.64611224794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B7" t="n">
-        <v>14.64203296703297</v>
+        <v>14.95519125683058</v>
       </c>
       <c r="C7" t="n">
-        <v>9.954061250737805</v>
+        <v>10.21048418953936</v>
       </c>
       <c r="D7" t="n">
-        <v>17.76391871911012</v>
+        <v>17.96114196391437</v>
       </c>
       <c r="E7" t="n">
-        <v>19.43240754513484</v>
+        <v>19.7731783428504</v>
       </c>
       <c r="F7" t="n">
-        <v>11.97986508272332</v>
+        <v>12.49978114218245</v>
       </c>
       <c r="G7" t="n">
-        <v>78.51648351648352</v>
+        <v>78.10655737704919</v>
       </c>
       <c r="H7" t="n">
-        <v>65.89591053058477</v>
+        <v>69.1087462693723</v>
       </c>
       <c r="I7" t="n">
-        <v>82.13438662670514</v>
+        <v>78.01246578697014</v>
       </c>
       <c r="J7" t="n">
-        <v>89.64462178507084</v>
+        <v>89.20265893229812</v>
       </c>
       <c r="K7" t="n">
-        <v>79.6461122600446</v>
+        <v>79.45267513312977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B8" t="n">
-        <v>14.95519125683058</v>
+        <v>15.44767123287671</v>
       </c>
       <c r="C8" t="n">
-        <v>10.21048418956855</v>
+        <v>10.85122760210599</v>
       </c>
       <c r="D8" t="n">
-        <v>17.96114196394627</v>
+        <v>18.46660595564742</v>
       </c>
       <c r="E8" t="n">
-        <v>19.77317834288191</v>
+        <v>20.1779693298136</v>
       </c>
       <c r="F8" t="n">
-        <v>12.49978114220352</v>
+        <v>12.88478022980633</v>
       </c>
       <c r="G8" t="n">
-        <v>78.10655737704919</v>
+        <v>78.71780821917808</v>
       </c>
       <c r="H8" t="n">
-        <v>69.10874626956686</v>
+        <v>66.2900971807708</v>
       </c>
       <c r="I8" t="n">
-        <v>78.01246578710665</v>
+        <v>81.01112599765901</v>
       </c>
       <c r="J8" t="n">
-        <v>89.20265893244643</v>
+        <v>88.02394194491627</v>
       </c>
       <c r="K8" t="n">
-        <v>79.45267513326135</v>
+        <v>82.73318125144706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B9" t="n">
-        <v>15.44767123287671</v>
+        <v>14.85589041095891</v>
       </c>
       <c r="C9" t="n">
-        <v>10.85122760210632</v>
+        <v>9.517235862245624</v>
       </c>
       <c r="D9" t="n">
-        <v>18.46660595564777</v>
+        <v>17.79853413138075</v>
       </c>
       <c r="E9" t="n">
-        <v>20.17796932981394</v>
+        <v>19.08780401445449</v>
       </c>
       <c r="F9" t="n">
-        <v>12.88478022980656</v>
+        <v>13.6139650024979</v>
       </c>
       <c r="G9" t="n">
-        <v>78.71780821917808</v>
+        <v>81.32328767123288</v>
       </c>
       <c r="H9" t="n">
-        <v>66.29009718077296</v>
+        <v>69.71433441311967</v>
       </c>
       <c r="I9" t="n">
-        <v>81.01112599766051</v>
+        <v>84.21990248349076</v>
       </c>
       <c r="J9" t="n">
-        <v>88.02394194491789</v>
+        <v>91.78286893418388</v>
       </c>
       <c r="K9" t="n">
-        <v>82.7331812514485</v>
+        <v>82.81231718751573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B10" t="n">
-        <v>14.85589041095891</v>
+        <v>14.96767123287671</v>
       </c>
       <c r="C10" t="n">
-        <v>9.517235862245627</v>
+        <v>10.26241373180273</v>
       </c>
       <c r="D10" t="n">
-        <v>17.79853413138075</v>
+        <v>18.33404982561957</v>
       </c>
       <c r="E10" t="n">
-        <v>19.08780401445449</v>
+        <v>19.60638917407016</v>
       </c>
       <c r="F10" t="n">
-        <v>13.6139650024979</v>
+        <v>12.25449961959237</v>
       </c>
       <c r="G10" t="n">
-        <v>81.32328767123288</v>
+        <v>78.07123287671233</v>
       </c>
       <c r="H10" t="n">
-        <v>69.7143344131197</v>
+        <v>67.49682593792356</v>
       </c>
       <c r="I10" t="n">
-        <v>84.21990248349077</v>
+        <v>78.40900991740099</v>
       </c>
       <c r="J10" t="n">
-        <v>91.78286893418388</v>
+        <v>88.09546596667592</v>
       </c>
       <c r="K10" t="n">
-        <v>82.81231718751575</v>
+        <v>81.62839475203822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B11" t="n">
-        <v>14.96767123287671</v>
+        <v>14.56939890710383</v>
       </c>
       <c r="C11" t="n">
-        <v>10.26241373180273</v>
+        <v>9.777608942107721</v>
       </c>
       <c r="D11" t="n">
-        <v>18.33404982561957</v>
+        <v>17.40806648160022</v>
       </c>
       <c r="E11" t="n">
-        <v>19.60638917407016</v>
+        <v>19.43376509971815</v>
       </c>
       <c r="F11" t="n">
-        <v>12.25449961959237</v>
+        <v>12.29407064803905</v>
       </c>
       <c r="G11" t="n">
-        <v>78.07123287671233</v>
+        <v>80.93989071038251</v>
       </c>
       <c r="H11" t="n">
-        <v>67.49682593792356</v>
+        <v>74.2362288564607</v>
       </c>
       <c r="I11" t="n">
-        <v>78.40900991740099</v>
+        <v>82.60889021887253</v>
       </c>
       <c r="J11" t="n">
-        <v>88.09546596667592</v>
+        <v>89.60973332572473</v>
       </c>
       <c r="K11" t="n">
-        <v>81.62839475203822</v>
+        <v>80.68074342121781</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B12" t="n">
-        <v>14.56939890710383</v>
+        <v>14.62082191780822</v>
       </c>
       <c r="C12" t="n">
-        <v>9.777608942107721</v>
+        <v>10.19864009935675</v>
       </c>
       <c r="D12" t="n">
-        <v>17.40806648160022</v>
+        <v>17.04294578551208</v>
       </c>
       <c r="E12" t="n">
-        <v>19.43376509971815</v>
+        <v>19.60688875108388</v>
       </c>
       <c r="F12" t="n">
-        <v>12.29407064803905</v>
+        <v>12.20537033313085</v>
       </c>
       <c r="G12" t="n">
-        <v>80.93989071038251</v>
+        <v>80.86027397260274</v>
       </c>
       <c r="H12" t="n">
-        <v>74.2362288564607</v>
+        <v>70.76929143173845</v>
       </c>
       <c r="I12" t="n">
-        <v>82.60889021887253</v>
+        <v>85.56713066174586</v>
       </c>
       <c r="J12" t="n">
-        <v>89.60973332572473</v>
+        <v>89.58271449267092</v>
       </c>
       <c r="K12" t="n">
-        <v>80.68074342121781</v>
+        <v>80.90957329805671</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B13" t="n">
-        <v>14.62082191780822</v>
+        <v>15.05972602739727</v>
       </c>
       <c r="C13" t="n">
-        <v>10.19864009935675</v>
+        <v>9.908873778881741</v>
       </c>
       <c r="D13" t="n">
-        <v>17.04294578551208</v>
+        <v>18.15761478885178</v>
       </c>
       <c r="E13" t="n">
-        <v>19.60688875108388</v>
+        <v>20.00985748642482</v>
       </c>
       <c r="F13" t="n">
-        <v>12.20537033313085</v>
+        <v>12.72614532970794</v>
       </c>
       <c r="G13" t="n">
-        <v>80.86027397260274</v>
+        <v>76.28219178082192</v>
       </c>
       <c r="H13" t="n">
-        <v>70.76929143173845</v>
+        <v>65.70854768257487</v>
       </c>
       <c r="I13" t="n">
-        <v>85.56713066174586</v>
+        <v>80.23700143584337</v>
       </c>
       <c r="J13" t="n">
-        <v>89.58271449267092</v>
+        <v>87.66937733144208</v>
       </c>
       <c r="K13" t="n">
-        <v>80.90957329805671</v>
+        <v>74.87945188367453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B14" t="n">
-        <v>15.05972602739727</v>
+        <v>15.29287671232877</v>
       </c>
       <c r="C14" t="n">
-        <v>9.908873778881741</v>
+        <v>10.53120970865424</v>
       </c>
       <c r="D14" t="n">
-        <v>18.15761478885178</v>
+        <v>18.93689686581156</v>
       </c>
       <c r="E14" t="n">
-        <v>20.00985748642482</v>
+        <v>19.84684627702635</v>
       </c>
       <c r="F14" t="n">
-        <v>12.72614532970794</v>
+        <v>12.45354505793161</v>
       </c>
       <c r="G14" t="n">
-        <v>76.28219178082192</v>
+        <v>75.98082191780821</v>
       </c>
       <c r="H14" t="n">
-        <v>65.70854768257487</v>
+        <v>61.14120608536194</v>
       </c>
       <c r="I14" t="n">
-        <v>80.23700143584337</v>
+        <v>74.2993077080862</v>
       </c>
       <c r="J14" t="n">
-        <v>87.66937733144208</v>
+        <v>89.77901497099393</v>
       </c>
       <c r="K14" t="n">
-        <v>74.87945188367453</v>
+        <v>81.71608099873559</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B15" t="n">
-        <v>15.29287671232877</v>
+        <v>15.07377049180328</v>
       </c>
       <c r="C15" t="n">
-        <v>10.53120970865424</v>
+        <v>9.949793513281916</v>
       </c>
       <c r="D15" t="n">
-        <v>18.93689686581156</v>
+        <v>18.6399658996243</v>
       </c>
       <c r="E15" t="n">
-        <v>19.84684627702635</v>
+        <v>19.98094398127202</v>
       </c>
       <c r="F15" t="n">
-        <v>12.45354505793161</v>
+        <v>12.37884288106448</v>
       </c>
       <c r="G15" t="n">
-        <v>75.98082191780821</v>
+        <v>77.29234972677595</v>
       </c>
       <c r="H15" t="n">
-        <v>61.14120608536194</v>
+        <v>68.48506819874024</v>
       </c>
       <c r="I15" t="n">
-        <v>74.2993077080862</v>
+        <v>75.9483440407482</v>
       </c>
       <c r="J15" t="n">
-        <v>89.77901497099393</v>
+        <v>89.60629364098907</v>
       </c>
       <c r="K15" t="n">
-        <v>81.71608099873559</v>
+        <v>78.35560957607321</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B16" t="n">
-        <v>15.07377049180328</v>
+        <v>15.2684065934066</v>
       </c>
       <c r="C16" t="n">
-        <v>9.949793513281916</v>
+        <v>10.38833103903647</v>
       </c>
       <c r="D16" t="n">
-        <v>18.6399658996243</v>
+        <v>17.80044406555139</v>
       </c>
       <c r="E16" t="n">
-        <v>19.98094398127202</v>
+        <v>19.95631460849209</v>
       </c>
       <c r="F16" t="n">
-        <v>12.37884288106448</v>
+        <v>13.53998742262026</v>
       </c>
       <c r="G16" t="n">
-        <v>77.29234972677595</v>
+        <v>78.92582417582418</v>
       </c>
       <c r="H16" t="n">
-        <v>68.48506819874024</v>
+        <v>69.91650075776377</v>
       </c>
       <c r="I16" t="n">
-        <v>75.9483440407482</v>
+        <v>79.97720382267498</v>
       </c>
       <c r="J16" t="n">
-        <v>89.60629364098907</v>
+        <v>89.46311188740205</v>
       </c>
       <c r="K16" t="n">
-        <v>78.35560957607321</v>
+        <v>79.5690827127834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B17" t="n">
-        <v>15.2684065934066</v>
+        <v>14.68489010989011</v>
       </c>
       <c r="C17" t="n">
-        <v>10.38833103903647</v>
+        <v>10.07431478932263</v>
       </c>
       <c r="D17" t="n">
-        <v>17.80044406555139</v>
+        <v>17.60220268203902</v>
       </c>
       <c r="E17" t="n">
-        <v>19.95631460849209</v>
+        <v>19.951168292401</v>
       </c>
       <c r="F17" t="n">
-        <v>13.53998742262026</v>
+        <v>11.77108681981109</v>
       </c>
       <c r="G17" t="n">
-        <v>78.92582417582418</v>
+        <v>79.60714285714286</v>
       </c>
       <c r="H17" t="n">
-        <v>69.91650075776377</v>
+        <v>69.13240556397515</v>
       </c>
       <c r="I17" t="n">
-        <v>79.97720382267498</v>
+        <v>82.10963960244698</v>
       </c>
       <c r="J17" t="n">
-        <v>89.46311188740205</v>
+        <v>89.87322100975167</v>
       </c>
       <c r="K17" t="n">
-        <v>79.5690827127834</v>
+        <v>80.69096829035634</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B18" t="n">
-        <v>14.68489010989011</v>
+        <v>14.62802197802199</v>
       </c>
       <c r="C18" t="n">
-        <v>10.07431478932263</v>
+        <v>8.83749238654803</v>
       </c>
       <c r="D18" t="n">
-        <v>17.60220268203902</v>
+        <v>17.81101321628614</v>
       </c>
       <c r="E18" t="n">
-        <v>19.951168292401</v>
+        <v>19.79077356839566</v>
       </c>
       <c r="F18" t="n">
-        <v>11.77108681981109</v>
+        <v>12.60517677823968</v>
       </c>
       <c r="G18" t="n">
-        <v>79.60714285714286</v>
+        <v>80.83241758241758</v>
       </c>
       <c r="H18" t="n">
-        <v>69.13240556397515</v>
+        <v>75.49036006182195</v>
       </c>
       <c r="I18" t="n">
-        <v>82.10963960244698</v>
+        <v>80.5726334022247</v>
       </c>
       <c r="J18" t="n">
-        <v>89.87322100975167</v>
+        <v>90.68340457619296</v>
       </c>
       <c r="K18" t="n">
-        <v>80.69096829035634</v>
+        <v>79.95264800319073</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B19" t="n">
-        <v>14.62802197802199</v>
+        <v>14.82103825136612</v>
       </c>
       <c r="C19" t="n">
-        <v>8.83749238654803</v>
+        <v>10.36524716908295</v>
       </c>
       <c r="D19" t="n">
-        <v>17.81101321628614</v>
+        <v>18.04187926611303</v>
       </c>
       <c r="E19" t="n">
-        <v>19.79077356839566</v>
+        <v>19.15642145183039</v>
       </c>
       <c r="F19" t="n">
-        <v>12.60517677823968</v>
+        <v>12.34896931280696</v>
       </c>
       <c r="G19" t="n">
-        <v>80.83241758241758</v>
+        <v>77.97540983606558</v>
       </c>
       <c r="H19" t="n">
-        <v>75.49036006182195</v>
+        <v>64.9834105501299</v>
       </c>
       <c r="I19" t="n">
-        <v>80.5726334022247</v>
+        <v>82.25903992749697</v>
       </c>
       <c r="J19" t="n">
-        <v>90.68340457619296</v>
+        <v>90.20308048452384</v>
       </c>
       <c r="K19" t="n">
-        <v>79.95264800319073</v>
+        <v>77.91252878264338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B20" t="n">
-        <v>14.82103825136612</v>
+        <v>14.74739726027396</v>
       </c>
       <c r="C20" t="n">
-        <v>10.36524716908295</v>
+        <v>10.12516941298981</v>
       </c>
       <c r="D20" t="n">
-        <v>18.04187926611303</v>
+        <v>17.79166900292433</v>
       </c>
       <c r="E20" t="n">
-        <v>19.15642145183039</v>
+        <v>19.43430892882425</v>
       </c>
       <c r="F20" t="n">
-        <v>12.34896931280696</v>
+        <v>12.22227140557399</v>
       </c>
       <c r="G20" t="n">
-        <v>77.97540983606558</v>
+        <v>79.04657534246576</v>
       </c>
       <c r="H20" t="n">
-        <v>64.9834105501299</v>
+        <v>66.69981567277922</v>
       </c>
       <c r="I20" t="n">
-        <v>82.25903992749697</v>
+        <v>83.07976966953294</v>
       </c>
       <c r="J20" t="n">
-        <v>90.20308048452384</v>
+        <v>90.14351174439699</v>
       </c>
       <c r="K20" t="n">
-        <v>77.91252878264338</v>
+        <v>79.46644053024613</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B21" t="n">
-        <v>14.74739726027396</v>
+        <v>14.86493150684932</v>
       </c>
       <c r="C21" t="n">
-        <v>10.12516941298981</v>
+        <v>10.45472410458877</v>
       </c>
       <c r="D21" t="n">
-        <v>17.79166900292433</v>
+        <v>18.18782053849367</v>
       </c>
       <c r="E21" t="n">
-        <v>19.43430892882425</v>
+        <v>19.34385118400896</v>
       </c>
       <c r="F21" t="n">
-        <v>12.22227140557399</v>
+        <v>12.06111164571277</v>
       </c>
       <c r="G21" t="n">
-        <v>79.04657534246576</v>
+        <v>77.32602739726028</v>
       </c>
       <c r="H21" t="n">
-        <v>66.69981567277922</v>
+        <v>66.68555350747532</v>
       </c>
       <c r="I21" t="n">
-        <v>83.07976966953294</v>
+        <v>77.0118656007641</v>
       </c>
       <c r="J21" t="n">
-        <v>90.14351174439699</v>
+        <v>88.52329904069997</v>
       </c>
       <c r="K21" t="n">
-        <v>79.46644053024613</v>
+        <v>80.3202873970679</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B22" t="n">
-        <v>14.86493150684932</v>
+        <v>15.246301369863</v>
       </c>
       <c r="C22" t="n">
-        <v>10.45472410458877</v>
+        <v>10.52838582338432</v>
       </c>
       <c r="D22" t="n">
-        <v>18.18782053849367</v>
+        <v>18.20645956635707</v>
       </c>
       <c r="E22" t="n">
-        <v>19.34385118400896</v>
+        <v>19.52330273026097</v>
       </c>
       <c r="F22" t="n">
-        <v>12.06111164571277</v>
+        <v>13.30935990919253</v>
       </c>
       <c r="G22" t="n">
-        <v>77.32602739726028</v>
+        <v>77.58630136986301</v>
       </c>
       <c r="H22" t="n">
-        <v>66.68555350747532</v>
+        <v>69.36317281674972</v>
       </c>
       <c r="I22" t="n">
-        <v>77.0118656007641</v>
+        <v>76.50562489671169</v>
       </c>
       <c r="J22" t="n">
-        <v>88.52329904069997</v>
+        <v>89.8752532504424</v>
       </c>
       <c r="K22" t="n">
-        <v>80.3202873970679</v>
+        <v>77.8078292108377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B23" t="n">
-        <v>15.246301369863</v>
+        <v>15.6153005464481</v>
       </c>
       <c r="C23" t="n">
-        <v>10.52838582338432</v>
+        <v>11.1948174266306</v>
       </c>
       <c r="D23" t="n">
-        <v>18.20645956635707</v>
+        <v>18.44402702820173</v>
       </c>
       <c r="E23" t="n">
-        <v>19.52330273026097</v>
+        <v>19.3719924209811</v>
       </c>
       <c r="F23" t="n">
-        <v>13.30935990919253</v>
+        <v>14.10227565118688</v>
       </c>
       <c r="G23" t="n">
-        <v>77.58630136986301</v>
+        <v>77.23497267759562</v>
       </c>
       <c r="H23" t="n">
-        <v>69.36317281674972</v>
+        <v>64.79519970128295</v>
       </c>
       <c r="I23" t="n">
-        <v>76.50562489671169</v>
+        <v>77.50006181205178</v>
       </c>
       <c r="J23" t="n">
-        <v>89.8752532504424</v>
+        <v>90.33560057880915</v>
       </c>
       <c r="K23" t="n">
-        <v>77.8078292108377</v>
+        <v>79.58486770881345</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B24" t="n">
-        <v>15.6153005464481</v>
+        <v>15.10581717451523</v>
       </c>
       <c r="C24" t="n">
-        <v>11.1948174266306</v>
+        <v>10.47549797140701</v>
       </c>
       <c r="D24" t="n">
-        <v>18.44402702820173</v>
+        <v>18.50378051679342</v>
       </c>
       <c r="E24" t="n">
-        <v>19.3719924209811</v>
+        <v>19.68036355023842</v>
       </c>
       <c r="F24" t="n">
-        <v>14.10227565118688</v>
+        <v>12.58480734403464</v>
       </c>
       <c r="G24" t="n">
-        <v>77.23497267759562</v>
+        <v>76.17728531855956</v>
       </c>
       <c r="H24" t="n">
-        <v>64.79519970128295</v>
+        <v>64.73105777445869</v>
       </c>
       <c r="I24" t="n">
-        <v>77.50006181205178</v>
+        <v>74.95055012980276</v>
       </c>
       <c r="J24" t="n">
-        <v>90.33560057880915</v>
+        <v>88.94699546112282</v>
       </c>
       <c r="K24" t="n">
-        <v>79.58486770881345</v>
+        <v>79.76722682292188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B25" t="n">
-        <v>15.10581717451523</v>
+        <v>15.09342465753424</v>
       </c>
       <c r="C25" t="n">
-        <v>10.47549797140701</v>
+        <v>10.16750553301563</v>
       </c>
       <c r="D25" t="n">
-        <v>18.50378051679342</v>
+        <v>17.39454703864608</v>
       </c>
       <c r="E25" t="n">
-        <v>19.68036355023842</v>
+        <v>19.7976126472852</v>
       </c>
       <c r="F25" t="n">
-        <v>12.58480734403464</v>
+        <v>13.59766094939168</v>
       </c>
       <c r="G25" t="n">
-        <v>76.17728531855956</v>
+        <v>79.26027397260275</v>
       </c>
       <c r="H25" t="n">
-        <v>64.73105777445869</v>
+        <v>72.49701175304955</v>
       </c>
       <c r="I25" t="n">
-        <v>74.95055012980276</v>
+        <v>81.83462142999782</v>
       </c>
       <c r="J25" t="n">
-        <v>88.94699546112282</v>
+        <v>88.09724995066438</v>
       </c>
       <c r="K25" t="n">
-        <v>79.76722682292188</v>
+        <v>77.84529594372741</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B26" t="n">
-        <v>15.09342465753424</v>
+        <v>15.30849315068494</v>
       </c>
       <c r="C26" t="n">
-        <v>10.16750553301563</v>
+        <v>11.15963895036684</v>
       </c>
       <c r="D26" t="n">
-        <v>17.39454703864608</v>
+        <v>17.91092908833677</v>
       </c>
       <c r="E26" t="n">
-        <v>19.7976126472852</v>
+        <v>19.72171318094875</v>
       </c>
       <c r="F26" t="n">
-        <v>13.59766094939168</v>
+        <v>13.04236587988469</v>
       </c>
       <c r="G26" t="n">
-        <v>79.26027397260275</v>
+        <v>78.86027397260274</v>
       </c>
       <c r="H26" t="n">
-        <v>72.49701175304955</v>
+        <v>66.90552235281166</v>
       </c>
       <c r="I26" t="n">
-        <v>81.83462142999782</v>
+        <v>81.41576507065932</v>
       </c>
       <c r="J26" t="n">
-        <v>88.09724995066438</v>
+        <v>90.10975271685504</v>
       </c>
       <c r="K26" t="n">
-        <v>77.84529594372741</v>
+        <v>80.25918799938835</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B27" t="n">
-        <v>15.30849315068494</v>
+        <v>14.64972067039106</v>
       </c>
       <c r="C27" t="n">
-        <v>11.15963895036684</v>
+        <v>9.5457103181359</v>
       </c>
       <c r="D27" t="n">
-        <v>17.91092908833677</v>
+        <v>18.28954034221574</v>
       </c>
       <c r="E27" t="n">
-        <v>19.72171318094875</v>
+        <v>19.66801903534386</v>
       </c>
       <c r="F27" t="n">
-        <v>13.04236587988469</v>
+        <v>12.09828658565091</v>
       </c>
       <c r="G27" t="n">
-        <v>78.86027397260274</v>
+        <v>78.14525139664805</v>
       </c>
       <c r="H27" t="n">
-        <v>66.90552235281166</v>
+        <v>73.70225848739354</v>
       </c>
       <c r="I27" t="n">
-        <v>81.41576507065932</v>
+        <v>73.95783253024305</v>
       </c>
       <c r="J27" t="n">
-        <v>90.10975271685504</v>
+        <v>88.7789972524095</v>
       </c>
       <c r="K27" t="n">
-        <v>80.25918799938835</v>
+        <v>79.47020856521075</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B28" t="n">
-        <v>14.64972067039106</v>
+        <v>14.98595041322315</v>
       </c>
       <c r="C28" t="n">
-        <v>9.5457103181359</v>
+        <v>10.10939678131262</v>
       </c>
       <c r="D28" t="n">
-        <v>18.28954034221574</v>
+        <v>17.51856637738698</v>
       </c>
       <c r="E28" t="n">
-        <v>19.66801903534386</v>
+        <v>19.50631132261493</v>
       </c>
       <c r="F28" t="n">
-        <v>12.09828658565091</v>
+        <v>13.47715528897446</v>
       </c>
       <c r="G28" t="n">
-        <v>78.14525139664805</v>
+        <v>80.32782369146005</v>
       </c>
       <c r="H28" t="n">
-        <v>73.70225848739354</v>
+        <v>74.19669176097105</v>
       </c>
       <c r="I28" t="n">
-        <v>73.95783253024305</v>
+        <v>80.94459156626641</v>
       </c>
       <c r="J28" t="n">
-        <v>88.7789972524095</v>
+        <v>90.35309996947122</v>
       </c>
       <c r="K28" t="n">
-        <v>79.47020856521075</v>
+        <v>79.34206748440447</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B29" t="n">
-        <v>14.98595041322315</v>
+        <v>15.55467032967033</v>
       </c>
       <c r="C29" t="n">
-        <v>10.10939678131262</v>
+        <v>11.09454885312569</v>
       </c>
       <c r="D29" t="n">
-        <v>17.51856637738698</v>
+        <v>18.91448974041085</v>
       </c>
       <c r="E29" t="n">
-        <v>19.50631132261493</v>
+        <v>20.34072869585291</v>
       </c>
       <c r="F29" t="n">
-        <v>13.47715528897446</v>
+        <v>12.51931690531494</v>
       </c>
       <c r="G29" t="n">
-        <v>80.32782369146005</v>
+        <v>76.25824175824175</v>
       </c>
       <c r="H29" t="n">
-        <v>74.19669176097105</v>
+        <v>66.72440768623302</v>
       </c>
       <c r="I29" t="n">
-        <v>80.94459156626641</v>
+        <v>76.82356694028864</v>
       </c>
       <c r="J29" t="n">
-        <v>90.35309996947122</v>
+        <v>87.5643197798843</v>
       </c>
       <c r="K29" t="n">
-        <v>79.34206748440447</v>
+        <v>77.3732833422218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B30" t="n">
-        <v>15.55467032967033</v>
+        <v>15.51150684931507</v>
       </c>
       <c r="C30" t="n">
-        <v>11.09454885312569</v>
+        <v>10.8199394317014</v>
       </c>
       <c r="D30" t="n">
-        <v>18.91448974041085</v>
+        <v>18.69356582132318</v>
       </c>
       <c r="E30" t="n">
-        <v>20.34072869585291</v>
+        <v>19.61131226843319</v>
       </c>
       <c r="F30" t="n">
-        <v>12.51931690531494</v>
+        <v>13.53716648810125</v>
       </c>
       <c r="G30" t="n">
-        <v>76.25824175824175</v>
+        <v>77.45479452054795</v>
       </c>
       <c r="H30" t="n">
-        <v>66.72440768623302</v>
+        <v>65.23027119651371</v>
       </c>
       <c r="I30" t="n">
-        <v>76.82356694028864</v>
+        <v>76.70135787846471</v>
       </c>
       <c r="J30" t="n">
-        <v>87.5643197798843</v>
+        <v>90.11482956282484</v>
       </c>
       <c r="K30" t="n">
-        <v>77.3732833422218</v>
+        <v>80.85188351458937</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B31" t="n">
-        <v>15.51150684931507</v>
+        <v>15.3826923076923</v>
       </c>
       <c r="C31" t="n">
-        <v>10.8199394317014</v>
+        <v>10.82988944430441</v>
       </c>
       <c r="D31" t="n">
-        <v>18.69356582132318</v>
+        <v>18.00437295357026</v>
       </c>
       <c r="E31" t="n">
-        <v>19.61131226843319</v>
+        <v>19.78490556813514</v>
       </c>
       <c r="F31" t="n">
-        <v>13.53716648810125</v>
+        <v>13.58062820316595</v>
       </c>
       <c r="G31" t="n">
-        <v>77.45479452054795</v>
+        <v>77.36813186813187</v>
       </c>
       <c r="H31" t="n">
-        <v>65.23027119651371</v>
+        <v>68.65088210106059</v>
       </c>
       <c r="I31" t="n">
-        <v>76.70135787846471</v>
+        <v>78.71890397642738</v>
       </c>
       <c r="J31" t="n">
-        <v>90.11482956282484</v>
+        <v>88.34907423437853</v>
       </c>
       <c r="K31" t="n">
-        <v>80.85188351458937</v>
+        <v>77.08628443422626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B32" t="n">
-        <v>15.3826923076923</v>
+        <v>14.85205479452055</v>
       </c>
       <c r="C32" t="n">
-        <v>10.82988944430441</v>
+        <v>9.910332104936712</v>
       </c>
       <c r="D32" t="n">
-        <v>18.00437295357026</v>
+        <v>17.4681799225667</v>
       </c>
       <c r="E32" t="n">
-        <v>19.78490556813514</v>
+        <v>19.54331419095799</v>
       </c>
       <c r="F32" t="n">
-        <v>13.58062820316595</v>
+        <v>13.08348508916484</v>
       </c>
       <c r="G32" t="n">
-        <v>77.36813186813187</v>
+        <v>76.7013698630137</v>
       </c>
       <c r="H32" t="n">
-        <v>68.65088210106059</v>
+        <v>66.61834313445624</v>
       </c>
       <c r="I32" t="n">
-        <v>78.71890397642738</v>
+        <v>76.5024055382025</v>
       </c>
       <c r="J32" t="n">
-        <v>88.34907423437853</v>
+        <v>88.2429247199389</v>
       </c>
       <c r="K32" t="n">
-        <v>77.08628443422626</v>
+        <v>78.62050309167637</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B33" t="n">
-        <v>14.85205479452055</v>
+        <v>15.71479452054795</v>
       </c>
       <c r="C33" t="n">
-        <v>9.910332104936712</v>
+        <v>10.73233702338818</v>
       </c>
       <c r="D33" t="n">
-        <v>17.4681799225667</v>
+        <v>18.31613384530293</v>
       </c>
       <c r="E33" t="n">
-        <v>19.54331419095799</v>
+        <v>19.75699254555388</v>
       </c>
       <c r="F33" t="n">
-        <v>13.08348508916484</v>
+        <v>14.62590744662135</v>
       </c>
       <c r="G33" t="n">
-        <v>76.7013698630137</v>
+        <v>77.92602739726027</v>
       </c>
       <c r="H33" t="n">
-        <v>66.61834313445624</v>
+        <v>69.49575936816062</v>
       </c>
       <c r="I33" t="n">
-        <v>76.5024055382025</v>
+        <v>80.95057588503519</v>
       </c>
       <c r="J33" t="n">
-        <v>88.2429247199389</v>
+        <v>88.91568396434717</v>
       </c>
       <c r="K33" t="n">
-        <v>78.62050309167637</v>
+        <v>75.56109242490952</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B34" t="n">
-        <v>15.71479452054795</v>
+        <v>16.21373626373626</v>
       </c>
       <c r="C34" t="n">
-        <v>10.73233702338818</v>
+        <v>12.54305996655492</v>
       </c>
       <c r="D34" t="n">
-        <v>18.31613384530293</v>
+        <v>19.07710037192641</v>
       </c>
       <c r="E34" t="n">
-        <v>19.75699254555388</v>
+        <v>19.8669238320169</v>
       </c>
       <c r="F34" t="n">
-        <v>14.62590744662135</v>
+        <v>13.96875986355023</v>
       </c>
       <c r="G34" t="n">
-        <v>77.92602739726027</v>
+        <v>74.45604395604396</v>
       </c>
       <c r="H34" t="n">
-        <v>69.49575936816062</v>
+        <v>55.46624448728271</v>
       </c>
       <c r="I34" t="n">
-        <v>80.95057588503519</v>
+        <v>76.91154478994544</v>
       </c>
       <c r="J34" t="n">
-        <v>88.91568396434717</v>
+        <v>89.65125743439508</v>
       </c>
       <c r="K34" t="n">
-        <v>75.56109242490952</v>
+        <v>78.62566404809684</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B35" t="n">
-        <v>16.21373626373626</v>
+        <v>15.48169398907104</v>
       </c>
       <c r="C35" t="n">
-        <v>12.54305996655492</v>
+        <v>10.6455281315006</v>
       </c>
       <c r="D35" t="n">
-        <v>19.07710037192641</v>
+        <v>18.42612198210908</v>
       </c>
       <c r="E35" t="n">
-        <v>19.8669238320169</v>
+        <v>19.95181438947845</v>
       </c>
       <c r="F35" t="n">
-        <v>13.96875986355023</v>
+        <v>13.59422565069075</v>
       </c>
       <c r="G35" t="n">
-        <v>74.45604395604396</v>
+        <v>77.65846994535519</v>
       </c>
       <c r="H35" t="n">
-        <v>55.46624448728271</v>
+        <v>67.68644224711299</v>
       </c>
       <c r="I35" t="n">
-        <v>76.91154478994544</v>
+        <v>79.73529170098841</v>
       </c>
       <c r="J35" t="n">
-        <v>89.65125743439508</v>
+        <v>88.7136006242869</v>
       </c>
       <c r="K35" t="n">
-        <v>78.62566404809684</v>
+        <v>77.68071373965323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B36" t="n">
-        <v>15.48169398907104</v>
+        <v>15.89065934065935</v>
       </c>
       <c r="C36" t="n">
-        <v>10.6455281315006</v>
+        <v>11.38383920146112</v>
       </c>
       <c r="D36" t="n">
-        <v>18.42612198210908</v>
+        <v>18.54534199980339</v>
       </c>
       <c r="E36" t="n">
-        <v>19.95181438947845</v>
+        <v>20.55817189553781</v>
       </c>
       <c r="F36" t="n">
-        <v>13.59422565069075</v>
+        <v>13.66257390824934</v>
       </c>
       <c r="G36" t="n">
-        <v>77.65846994535519</v>
+        <v>75.88186813186813</v>
       </c>
       <c r="H36" t="n">
-        <v>67.68644224711299</v>
+        <v>62.97429380274571</v>
       </c>
       <c r="I36" t="n">
-        <v>79.73529170098841</v>
+        <v>76.32676144726361</v>
       </c>
       <c r="J36" t="n">
-        <v>88.7136006242869</v>
+        <v>87.14906087635094</v>
       </c>
       <c r="K36" t="n">
-        <v>77.68071373965323</v>
+        <v>80.26022762351268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B37" t="n">
-        <v>15.89065934065935</v>
+        <v>15.83205479452054</v>
       </c>
       <c r="C37" t="n">
-        <v>11.38383920146112</v>
+        <v>11.73204265779401</v>
       </c>
       <c r="D37" t="n">
-        <v>18.54534199980339</v>
+        <v>18.31808068131652</v>
       </c>
       <c r="E37" t="n">
-        <v>20.55817189553781</v>
+        <v>20.26150186842976</v>
       </c>
       <c r="F37" t="n">
-        <v>13.66257390824934</v>
+        <v>13.65176710769836</v>
       </c>
       <c r="G37" t="n">
-        <v>75.88186813186813</v>
+        <v>75.94520547945206</v>
       </c>
       <c r="H37" t="n">
-        <v>62.97429380274571</v>
+        <v>65.22193659780828</v>
       </c>
       <c r="I37" t="n">
-        <v>76.32676144726361</v>
+        <v>79.35523913678311</v>
       </c>
       <c r="J37" t="n">
-        <v>87.14906087635094</v>
+        <v>85.87118544430815</v>
       </c>
       <c r="K37" t="n">
-        <v>80.26022762351268</v>
+        <v>76.47021986547297</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B38" t="n">
-        <v>15.83205479452054</v>
+        <v>15.80054794520548</v>
       </c>
       <c r="C38" t="n">
-        <v>11.73204265779401</v>
+        <v>11.05480047397549</v>
       </c>
       <c r="D38" t="n">
-        <v>18.31808068131652</v>
+        <v>18.48041846902546</v>
       </c>
       <c r="E38" t="n">
-        <v>20.26150186842976</v>
+        <v>20.61805980291771</v>
       </c>
       <c r="F38" t="n">
-        <v>13.65176710769836</v>
+        <v>13.67012790334454</v>
       </c>
       <c r="G38" t="n">
-        <v>75.94520547945206</v>
+        <v>75.8958904109589</v>
       </c>
       <c r="H38" t="n">
-        <v>65.22193659780828</v>
+        <v>65.20246596219786</v>
       </c>
       <c r="I38" t="n">
-        <v>79.35523913678311</v>
+        <v>78.04785977073388</v>
       </c>
       <c r="J38" t="n">
-        <v>85.87118544430815</v>
+        <v>86.03120853743813</v>
       </c>
       <c r="K38" t="n">
-        <v>76.47021986547297</v>
+        <v>77.42902412897253</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B39" t="n">
-        <v>15.80054794520548</v>
+        <v>15.55191256830602</v>
       </c>
       <c r="C39" t="n">
-        <v>11.05480047397549</v>
+        <v>11.89071209312061</v>
       </c>
       <c r="D39" t="n">
-        <v>18.48041846902546</v>
+        <v>18.30967492823104</v>
       </c>
       <c r="E39" t="n">
-        <v>20.61805980291771</v>
+        <v>19.92410934568389</v>
       </c>
       <c r="F39" t="n">
-        <v>13.67012790334454</v>
+        <v>12.76706660764505</v>
       </c>
       <c r="G39" t="n">
-        <v>75.8958904109589</v>
+        <v>76.17486338797814</v>
       </c>
       <c r="H39" t="n">
-        <v>65.20246596219786</v>
+        <v>62.9033238017824</v>
       </c>
       <c r="I39" t="n">
-        <v>78.04785977073388</v>
+        <v>80.63788856890916</v>
       </c>
       <c r="J39" t="n">
-        <v>86.03120853743813</v>
+        <v>87.82642617975476</v>
       </c>
       <c r="K39" t="n">
-        <v>77.42902412897253</v>
+        <v>76.56988069705405</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B40" t="n">
-        <v>15.55191256830602</v>
+        <v>16.15357142857144</v>
       </c>
       <c r="C40" t="n">
-        <v>11.89071209312061</v>
+        <v>11.52545235659023</v>
       </c>
       <c r="D40" t="n">
-        <v>18.30967492823104</v>
+        <v>18.90450192228825</v>
       </c>
       <c r="E40" t="n">
-        <v>19.92410934568389</v>
+        <v>20.81004466680091</v>
       </c>
       <c r="F40" t="n">
-        <v>12.76706660764505</v>
+        <v>13.96337435832577</v>
       </c>
       <c r="G40" t="n">
-        <v>76.17486338797814</v>
+        <v>74.4478021978022</v>
       </c>
       <c r="H40" t="n">
-        <v>62.9033238017824</v>
+        <v>69.1989258200198</v>
       </c>
       <c r="I40" t="n">
-        <v>80.63788856890916</v>
+        <v>70.56744932493307</v>
       </c>
       <c r="J40" t="n">
-        <v>87.82642617975476</v>
+        <v>84.18289593673647</v>
       </c>
       <c r="K40" t="n">
-        <v>76.56988069705405</v>
+        <v>77.06120748018741</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B41" t="n">
-        <v>16.15357142857144</v>
+        <v>16.02438356164383</v>
       </c>
       <c r="C41" t="n">
-        <v>11.52545235659023</v>
+        <v>11.82694947062878</v>
       </c>
       <c r="D41" t="n">
-        <v>18.90450192228825</v>
+        <v>18.54180771343174</v>
       </c>
       <c r="E41" t="n">
-        <v>20.81004466680091</v>
+        <v>20.79684831159567</v>
       </c>
       <c r="F41" t="n">
-        <v>13.96337435832577</v>
+        <v>13.57677580824267</v>
       </c>
       <c r="G41" t="n">
-        <v>74.4478021978022</v>
+        <v>75.05753424657534</v>
       </c>
       <c r="H41" t="n">
-        <v>69.1989258200198</v>
+        <v>63.82443250911133</v>
       </c>
       <c r="I41" t="n">
-        <v>70.56744932493307</v>
+        <v>77.3029390035707</v>
       </c>
       <c r="J41" t="n">
-        <v>84.18289593673647</v>
+        <v>85.59981408626888</v>
       </c>
       <c r="K41" t="n">
-        <v>77.06120748018741</v>
+        <v>76.55501312478465</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B42" t="n">
-        <v>16.02438356164383</v>
+        <v>15.66410958904111</v>
       </c>
       <c r="C42" t="n">
-        <v>11.82694947062878</v>
+        <v>10.82363277189588</v>
       </c>
       <c r="D42" t="n">
-        <v>18.54180771343174</v>
+        <v>18.65870118366409</v>
       </c>
       <c r="E42" t="n">
-        <v>20.79684831159567</v>
+        <v>20.21627009034344</v>
       </c>
       <c r="F42" t="n">
-        <v>13.57677580824267</v>
+        <v>13.58887799791568</v>
       </c>
       <c r="G42" t="n">
-        <v>75.05753424657534</v>
+        <v>77.17260273972603</v>
       </c>
       <c r="H42" t="n">
-        <v>63.82443250911133</v>
+        <v>65.84249369454568</v>
       </c>
       <c r="I42" t="n">
-        <v>77.3029390035707</v>
+        <v>80.17915317586342</v>
       </c>
       <c r="J42" t="n">
-        <v>85.59981408626888</v>
+        <v>88.54999797919857</v>
       </c>
       <c r="K42" t="n">
-        <v>76.55501312478465</v>
+        <v>77.2016849252694</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B43" t="n">
-        <v>15.66410958904111</v>
+        <v>15.65819672131146</v>
       </c>
       <c r="C43" t="n">
-        <v>10.82363277189588</v>
+        <v>10.74751244804281</v>
       </c>
       <c r="D43" t="n">
-        <v>18.65870118366409</v>
+        <v>18.72482089212818</v>
       </c>
       <c r="E43" t="n">
-        <v>20.21627009034344</v>
+        <v>20.20126380532982</v>
       </c>
       <c r="F43" t="n">
-        <v>13.58887799791568</v>
+        <v>13.62705302171648</v>
       </c>
       <c r="G43" t="n">
-        <v>77.17260273972603</v>
+        <v>74.03551912568307</v>
       </c>
       <c r="H43" t="n">
-        <v>65.84249369454568</v>
+        <v>66.78947795268732</v>
       </c>
       <c r="I43" t="n">
-        <v>80.17915317586342</v>
+        <v>73.89207860632817</v>
       </c>
       <c r="J43" t="n">
-        <v>88.54999797919857</v>
+        <v>83.86467389107824</v>
       </c>
       <c r="K43" t="n">
-        <v>77.2016849252694</v>
+        <v>74.90436614049206</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B44" t="n">
-        <v>15.65819672131146</v>
+        <v>16.13178082191781</v>
       </c>
       <c r="C44" t="n">
-        <v>10.74751244804281</v>
+        <v>11.85275013831158</v>
       </c>
       <c r="D44" t="n">
-        <v>18.72482089212818</v>
+        <v>18.97170132848493</v>
       </c>
       <c r="E44" t="n">
-        <v>20.20126380532982</v>
+        <v>20.82392678049271</v>
       </c>
       <c r="F44" t="n">
-        <v>13.62705302171648</v>
+        <v>13.50464188067083</v>
       </c>
       <c r="G44" t="n">
-        <v>74.03551912568307</v>
+        <v>69.89041095890411</v>
       </c>
       <c r="H44" t="n">
-        <v>66.78947795268732</v>
+        <v>61.05321642169652</v>
       </c>
       <c r="I44" t="n">
-        <v>73.89207860632817</v>
+        <v>72.25156130336624</v>
       </c>
       <c r="J44" t="n">
-        <v>83.86467389107824</v>
+        <v>79.7050508031639</v>
       </c>
       <c r="K44" t="n">
-        <v>74.90436614049206</v>
+        <v>69.64026484935317</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B45" t="n">
-        <v>16.13178082191781</v>
+        <v>16.07479452054795</v>
       </c>
       <c r="C45" t="n">
-        <v>11.85275013831158</v>
+        <v>11.92725277931457</v>
       </c>
       <c r="D45" t="n">
-        <v>18.97170132848493</v>
+        <v>18.63045825635697</v>
       </c>
       <c r="E45" t="n">
-        <v>20.82392678049271</v>
+        <v>20.43178181283144</v>
       </c>
       <c r="F45" t="n">
-        <v>13.50464188067083</v>
+        <v>13.95548523783337</v>
       </c>
       <c r="G45" t="n">
-        <v>69.89041095890411</v>
+        <v>70.98904109589041</v>
       </c>
       <c r="H45" t="n">
-        <v>61.05321642169652</v>
+        <v>55.66725796024107</v>
       </c>
       <c r="I45" t="n">
-        <v>72.25156130336624</v>
+        <v>74.15661056377326</v>
       </c>
       <c r="J45" t="n">
-        <v>79.7050508031639</v>
+        <v>82.58375055220831</v>
       </c>
       <c r="K45" t="n">
-        <v>69.64026484935317</v>
+        <v>74.32217679184079</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B46" t="n">
-        <v>16.07479452054795</v>
+        <v>15.64767123287672</v>
       </c>
       <c r="C46" t="n">
-        <v>11.92725277931457</v>
+        <v>10.83919169754794</v>
       </c>
       <c r="D46" t="n">
-        <v>18.63045825635697</v>
+        <v>18.44429075006985</v>
       </c>
       <c r="E46" t="n">
-        <v>20.43178181283144</v>
+        <v>20.41773675883513</v>
       </c>
       <c r="F46" t="n">
-        <v>13.95548523783337</v>
+        <v>13.52125527432428</v>
       </c>
       <c r="G46" t="n">
-        <v>70.98904109589041</v>
+        <v>71.33972602739726</v>
       </c>
       <c r="H46" t="n">
-        <v>55.66725796024107</v>
+        <v>62.14074731066934</v>
       </c>
       <c r="I46" t="n">
-        <v>74.15661056377326</v>
+        <v>72.80391879740409</v>
       </c>
       <c r="J46" t="n">
-        <v>82.58375055220831</v>
+        <v>80.46286685382836</v>
       </c>
       <c r="K46" t="n">
-        <v>74.32217679184079</v>
+        <v>72.88393670425913</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B47" t="n">
-        <v>15.64767123287672</v>
+        <v>15.95956284153004</v>
       </c>
       <c r="C47" t="n">
-        <v>10.83919169754794</v>
+        <v>11.43669441425877</v>
       </c>
       <c r="D47" t="n">
-        <v>18.44429075006985</v>
+        <v>19.19059660164912</v>
       </c>
       <c r="E47" t="n">
-        <v>20.41773675883513</v>
+        <v>20.40236670390039</v>
       </c>
       <c r="F47" t="n">
-        <v>13.52125527432428</v>
+        <v>13.48175277472092</v>
       </c>
       <c r="G47" t="n">
-        <v>71.33972602739726</v>
+        <v>71.85519125683061</v>
       </c>
       <c r="H47" t="n">
-        <v>62.14074731066934</v>
+        <v>62.00154667374362</v>
       </c>
       <c r="I47" t="n">
-        <v>72.80391879740409</v>
+        <v>72.19564745931214</v>
       </c>
       <c r="J47" t="n">
-        <v>80.46286685382836</v>
+        <v>84.48329203101987</v>
       </c>
       <c r="K47" t="n">
-        <v>72.88393670425913</v>
+        <v>71.77047757287238</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B48" t="n">
-        <v>15.95956284153004</v>
+        <v>16.01999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>11.43669441425877</v>
+        <v>12.28262993793621</v>
       </c>
       <c r="D48" t="n">
-        <v>19.19059660164912</v>
+        <v>18.90429227034779</v>
       </c>
       <c r="E48" t="n">
-        <v>20.40236670390039</v>
+        <v>20.29241702939023</v>
       </c>
       <c r="F48" t="n">
-        <v>13.48175277472092</v>
+        <v>13.25197557363828</v>
       </c>
       <c r="G48" t="n">
-        <v>71.85519125683061</v>
+        <v>71.34520547945205</v>
       </c>
       <c r="H48" t="n">
-        <v>62.00154667374362</v>
+        <v>57.21112829637494</v>
       </c>
       <c r="I48" t="n">
-        <v>72.19564745931214</v>
+        <v>73.3537983237287</v>
       </c>
       <c r="J48" t="n">
-        <v>84.48329203101987</v>
+        <v>85.14655752207631</v>
       </c>
       <c r="K48" t="n">
-        <v>71.77047757287238</v>
+        <v>72.54098345187904</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B49" t="n">
-        <v>16.01999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="C49" t="n">
-        <v>12.28262993793621</v>
+        <v>10.80536255486595</v>
       </c>
       <c r="D49" t="n">
-        <v>18.90429227034779</v>
+        <v>18.5802669480258</v>
       </c>
       <c r="E49" t="n">
-        <v>20.29241702939023</v>
+        <v>20.1270914894499</v>
       </c>
       <c r="F49" t="n">
-        <v>13.25197557363828</v>
+        <v>12.72556495188737</v>
       </c>
       <c r="G49" t="n">
-        <v>71.34520547945205</v>
+        <v>77.63287671232877</v>
       </c>
       <c r="H49" t="n">
-        <v>57.21112829637494</v>
+        <v>68.11345698107084</v>
       </c>
       <c r="I49" t="n">
-        <v>73.3537983237287</v>
+        <v>75.91597580575527</v>
       </c>
       <c r="J49" t="n">
-        <v>85.14655752207631</v>
+        <v>89.2407234513269</v>
       </c>
       <c r="K49" t="n">
-        <v>72.54098345187904</v>
+        <v>80.1689237331726</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B50" t="n">
-        <v>15.4</v>
+        <v>15.29835616438357</v>
       </c>
       <c r="C50" t="n">
-        <v>10.80536255486595</v>
+        <v>11.12228180616518</v>
       </c>
       <c r="D50" t="n">
-        <v>18.5802669480258</v>
+        <v>18.16571721920907</v>
       </c>
       <c r="E50" t="n">
-        <v>20.1270914894499</v>
+        <v>19.73507708140706</v>
       </c>
       <c r="F50" t="n">
-        <v>12.72556495188737</v>
+        <v>12.78723440165094</v>
       </c>
       <c r="G50" t="n">
-        <v>77.63287671232877</v>
+        <v>80.75616438356164</v>
       </c>
       <c r="H50" t="n">
-        <v>68.11345698107084</v>
+        <v>70.26792729978968</v>
       </c>
       <c r="I50" t="n">
-        <v>75.91597580575527</v>
+        <v>81.80127445940391</v>
       </c>
       <c r="J50" t="n">
-        <v>89.2407234513269</v>
+        <v>91.99174699403616</v>
       </c>
       <c r="K50" t="n">
-        <v>80.1689237331726</v>
+        <v>82.15401004057796</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B51" t="n">
-        <v>15.29835616438357</v>
+        <v>15.60819672131146</v>
       </c>
       <c r="C51" t="n">
-        <v>11.12228180616518</v>
+        <v>10.76837672314467</v>
       </c>
       <c r="D51" t="n">
-        <v>18.16571721920907</v>
+        <v>18.02929359581548</v>
       </c>
       <c r="E51" t="n">
-        <v>19.73507708140706</v>
+        <v>20.21125083784139</v>
       </c>
       <c r="F51" t="n">
-        <v>12.78723440165094</v>
+        <v>14.06942646088751</v>
       </c>
       <c r="G51" t="n">
-        <v>80.75616438356164</v>
+        <v>82.19125683060109</v>
       </c>
       <c r="H51" t="n">
-        <v>70.26792729978968</v>
+        <v>75.9589882120856</v>
       </c>
       <c r="I51" t="n">
-        <v>81.80127445940391</v>
+        <v>84.36045356548794</v>
       </c>
       <c r="J51" t="n">
-        <v>91.99174699403616</v>
+        <v>89.30425811950039</v>
       </c>
       <c r="K51" t="n">
-        <v>82.15401004057796</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B52" t="n">
-        <v>15.60819672131146</v>
-      </c>
-      <c r="C52" t="n">
-        <v>10.76837672314467</v>
-      </c>
-      <c r="D52" t="n">
-        <v>18.02929359581548</v>
-      </c>
-      <c r="E52" t="n">
-        <v>20.21125083784139</v>
-      </c>
-      <c r="F52" t="n">
-        <v>14.06942646088751</v>
-      </c>
-      <c r="G52" t="n">
-        <v>82.19125683060109</v>
-      </c>
-      <c r="H52" t="n">
-        <v>75.9589882120856</v>
-      </c>
-      <c r="I52" t="n">
-        <v>84.36045356548794</v>
-      </c>
-      <c r="J52" t="n">
-        <v>89.30425811950039</v>
-      </c>
-      <c r="K52" t="n">
         <v>82.64297837000629</v>
       </c>
     </row>

--- a/my_work/data1/YearMeanER56739_腾冲.xlsx
+++ b/my_work/data1/YearMeanER56739_腾冲.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,41 @@
           <t>s4_RH</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ETOmean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>s1_ET0</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>s2_ET0</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>s3_ET0</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>s4_ET0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ET0_PMT_G</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ET0_ET0_PMT_CF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -510,19 +545,40 @@
         <v>11.28241758241758</v>
       </c>
       <c r="G2" t="n">
-        <v>79.90384615384616</v>
+        <v>0.2195160608622147</v>
       </c>
       <c r="H2" t="n">
-        <v>71.83333333333333</v>
+        <v>0.7981481481481481</v>
       </c>
       <c r="I2" t="n">
-        <v>79.97802197802197</v>
+        <v>0.8788793623958459</v>
       </c>
       <c r="J2" t="n">
-        <v>88.89130434782609</v>
+        <v>0.9662098298676749</v>
       </c>
       <c r="K2" t="n">
-        <v>78.72527472527473</v>
+        <v>0.8651129090689531</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.749448491680156</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7981481481481481</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8788793623958459</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9662098298676749</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8651129090689531</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>593.4339738523321</v>
+      </c>
+      <c r="R2" t="n">
+        <v>598.1328700475053</v>
       </c>
     </row>
     <row r="3">
@@ -545,19 +601,40 @@
         <v>12.30198279980889</v>
       </c>
       <c r="G3" t="n">
-        <v>79.70149253731343</v>
+        <v>0.237914903096458</v>
       </c>
       <c r="H3" t="n">
-        <v>67.76388888888889</v>
+        <v>1.109666152263375</v>
       </c>
       <c r="I3" t="n">
-        <v>82.99975848327497</v>
+        <v>0.9025333751192363</v>
       </c>
       <c r="J3" t="n">
-        <v>90.23794896030246</v>
+        <v>0.9704591457738502</v>
       </c>
       <c r="K3" t="n">
-        <v>77.16005733397039</v>
+        <v>0.829497295948614</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.718910136434304</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.109666152263375</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9025333751192363</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9704591457738502</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.829497295948614</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>562.1425045695828</v>
+      </c>
+      <c r="R3" t="n">
+        <v>566.6265118471263</v>
       </c>
     </row>
     <row r="4">
@@ -580,19 +657,40 @@
         <v>12.33045633478053</v>
       </c>
       <c r="G4" t="n">
-        <v>76.22527472527473</v>
+        <v>0.2094100953991064</v>
       </c>
       <c r="H4" t="n">
-        <v>62.87515432098765</v>
+        <v>0.6903839094015141</v>
       </c>
       <c r="I4" t="n">
-        <v>75.85555287203638</v>
+        <v>0.8327040164660642</v>
       </c>
       <c r="J4" t="n">
-        <v>89.07867335826415</v>
+        <v>0.9576997234340471</v>
       </c>
       <c r="K4" t="n">
-        <v>80.2517397536301</v>
+        <v>0.8632832581871395</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.914022780515282</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6903839094015141</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8327040164660642</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9576997234340471</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8632832581871395</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>626.1601140862217</v>
+      </c>
+      <c r="R4" t="n">
+        <v>640.7134552375469</v>
       </c>
     </row>
     <row r="5">
@@ -615,19 +713,40 @@
         <v>12.567722351465</v>
       </c>
       <c r="G5" t="n">
-        <v>79.21095890410959</v>
+        <v>0.2170163257646838</v>
       </c>
       <c r="H5" t="n">
-        <v>68.63194615912208</v>
+        <v>0.7549000473962224</v>
       </c>
       <c r="I5" t="n">
-        <v>79.2291818996927</v>
+        <v>0.8615907141669443</v>
       </c>
       <c r="J5" t="n">
-        <v>90.30520297128548</v>
+        <v>0.9711670250145835</v>
       </c>
       <c r="K5" t="n">
-        <v>81.79621456253946</v>
+        <v>0.8797097451864587</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.801099413764709</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7549000473962224</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8615907141669443</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9711670250145835</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.8797097451864587</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>591.3337653377331</v>
+      </c>
+      <c r="R5" t="n">
+        <v>598.2239968470197</v>
       </c>
     </row>
     <row r="6">
@@ -650,19 +769,40 @@
         <v>11.97986508078533</v>
       </c>
       <c r="G6" t="n">
-        <v>78.51648351648352</v>
+        <v>0.2157046250452844</v>
       </c>
       <c r="H6" t="n">
-        <v>65.89591051287913</v>
+        <v>0.7237969012404193</v>
       </c>
       <c r="I6" t="n">
-        <v>82.13438661428233</v>
+        <v>0.8931121350940909</v>
       </c>
       <c r="J6" t="n">
-        <v>89.64462177142701</v>
+        <v>0.9638434743649592</v>
       </c>
       <c r="K6" t="n">
-        <v>79.64611224794</v>
+        <v>0.8654606581023048</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.882359770892294</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7237969012404193</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8931121350940909</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9638434743649592</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8654606581023048</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>583.1414083171441</v>
+      </c>
+      <c r="R6" t="n">
+        <v>591.6796638041926</v>
       </c>
     </row>
     <row r="7">
@@ -685,19 +825,40 @@
         <v>12.49978114218245</v>
       </c>
       <c r="G7" t="n">
-        <v>78.10655737704919</v>
+        <v>0.213405894472812</v>
       </c>
       <c r="H7" t="n">
-        <v>69.1087462693723</v>
+        <v>0.7515666944694167</v>
       </c>
       <c r="I7" t="n">
-        <v>78.01246578697014</v>
+        <v>0.84746928053799</v>
       </c>
       <c r="J7" t="n">
-        <v>89.20265893229812</v>
+        <v>0.9591167111855345</v>
       </c>
       <c r="K7" t="n">
-        <v>79.45267513312977</v>
+        <v>0.8543083011174507</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.030103121122335</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7515666944694167</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.84746928053799</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9591167111855345</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8543083011174507</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>592.5940087246853</v>
+      </c>
+      <c r="R7" t="n">
+        <v>602.0485039753362</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +881,40 @@
         <v>12.88478022980633</v>
       </c>
       <c r="G8" t="n">
-        <v>78.71780821917808</v>
+        <v>0.2156652279977482</v>
       </c>
       <c r="H8" t="n">
-        <v>66.2900971807708</v>
+        <v>0.7281174773696876</v>
       </c>
       <c r="I8" t="n">
-        <v>81.01112599765901</v>
+        <v>0.8809138351987124</v>
       </c>
       <c r="J8" t="n">
-        <v>88.02394194491627</v>
+        <v>0.9463562283448944</v>
       </c>
       <c r="K8" t="n">
-        <v>82.73318125144706</v>
+        <v>0.8899875127955007</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.969412863711016</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7281174773696876</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.8809138351987124</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9463562283448944</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8899875127955007</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>602.0154085331982</v>
+      </c>
+      <c r="R8" t="n">
+        <v>611.409517213473</v>
       </c>
     </row>
     <row r="9">
@@ -755,19 +937,40 @@
         <v>13.6139650024979</v>
       </c>
       <c r="G9" t="n">
-        <v>81.32328767123288</v>
+        <v>0.2228035278663914</v>
       </c>
       <c r="H9" t="n">
-        <v>69.71433441311967</v>
+        <v>0.7665096441330086</v>
       </c>
       <c r="I9" t="n">
-        <v>84.21990248349076</v>
+        <v>0.915817040675667</v>
       </c>
       <c r="J9" t="n">
-        <v>91.78286893418388</v>
+        <v>0.9873518851876589</v>
       </c>
       <c r="K9" t="n">
-        <v>82.81231718751573</v>
+        <v>0.8904643179953681</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.725093770708244</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7665096441330086</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.915817040675667</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9873518851876589</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8904643179953681</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>581.5892762581209</v>
+      </c>
+      <c r="R9" t="n">
+        <v>583.6486606537383</v>
       </c>
     </row>
     <row r="10">
@@ -790,19 +993,40 @@
         <v>12.25449961959237</v>
       </c>
       <c r="G10" t="n">
-        <v>78.07123287671233</v>
+        <v>0.2138937887033215</v>
       </c>
       <c r="H10" t="n">
-        <v>67.49682593792356</v>
+        <v>0.7414526555116214</v>
       </c>
       <c r="I10" t="n">
-        <v>78.40900991740099</v>
+        <v>0.8515778066707734</v>
       </c>
       <c r="J10" t="n">
-        <v>88.09546596667592</v>
+        <v>0.9468321540507074</v>
       </c>
       <c r="K10" t="n">
-        <v>81.62839475203822</v>
+        <v>0.8775863024950373</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.869189238664209</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7414526555116214</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.8515778066707734</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9468321540507074</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8775863024950373</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>596.0134296837806</v>
+      </c>
+      <c r="R10" t="n">
+        <v>606.1744175948323</v>
       </c>
     </row>
     <row r="11">
@@ -825,19 +1049,40 @@
         <v>12.29407064803905</v>
       </c>
       <c r="G11" t="n">
-        <v>80.93989071038251</v>
+        <v>0.2211472423780943</v>
       </c>
       <c r="H11" t="n">
-        <v>74.2362288564607</v>
+        <v>0.8077214651196125</v>
       </c>
       <c r="I11" t="n">
-        <v>82.60889021887253</v>
+        <v>0.8984242939025081</v>
       </c>
       <c r="J11" t="n">
-        <v>89.60973332572473</v>
+        <v>0.9637224518140419</v>
       </c>
       <c r="K11" t="n">
-        <v>80.68074342121781</v>
+        <v>0.8674241004610698</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.762799016645715</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8077214651196125</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8984242939025081</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9637224518140419</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8674241004610698</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>568.4294283158841</v>
+      </c>
+      <c r="R11" t="n">
+        <v>571.1242094279563</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +1105,40 @@
         <v>12.20537033313085</v>
       </c>
       <c r="G12" t="n">
-        <v>80.86027397260274</v>
+        <v>0.221534997185213</v>
       </c>
       <c r="H12" t="n">
-        <v>70.76929143173845</v>
+        <v>0.777260212526558</v>
       </c>
       <c r="I12" t="n">
-        <v>85.56713066174586</v>
+        <v>0.9304309170744962</v>
       </c>
       <c r="J12" t="n">
-        <v>89.58271449267092</v>
+        <v>0.9632518575675583</v>
       </c>
       <c r="K12" t="n">
-        <v>80.90957329805671</v>
+        <v>0.870022143679166</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.542520028390147</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.777260212526558</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9304309170744962</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9632518575675583</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.870022143679166</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>567.2987540815817</v>
+      </c>
+      <c r="R12" t="n">
+        <v>570.0553918935025</v>
       </c>
     </row>
     <row r="13">
@@ -895,19 +1161,40 @@
         <v>12.72614532970794</v>
       </c>
       <c r="G13" t="n">
-        <v>76.28219178082192</v>
+        <v>0.2089923062488272</v>
       </c>
       <c r="H13" t="n">
-        <v>65.70854768257487</v>
+        <v>0.7214539827422871</v>
       </c>
       <c r="I13" t="n">
-        <v>80.23700143584337</v>
+        <v>0.8715047012337972</v>
       </c>
       <c r="J13" t="n">
-        <v>87.66937733144208</v>
+        <v>0.9424578511173874</v>
       </c>
       <c r="K13" t="n">
-        <v>74.87945188367453</v>
+        <v>0.804450616982949</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.900825949120674</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7214539827422871</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8715047012337972</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9424578511173874</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.804450616982949</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>621.5242044925545</v>
+      </c>
+      <c r="R13" t="n">
+        <v>634.0165773967963</v>
       </c>
     </row>
     <row r="14">
@@ -930,19 +1217,40 @@
         <v>12.45354505793161</v>
       </c>
       <c r="G14" t="n">
-        <v>75.98082191780821</v>
+        <v>0.2081666353912554</v>
       </c>
       <c r="H14" t="n">
-        <v>61.14120608536194</v>
+        <v>0.6713236362941657</v>
       </c>
       <c r="I14" t="n">
-        <v>74.2993077080862</v>
+        <v>0.8068918614540797</v>
       </c>
       <c r="J14" t="n">
-        <v>89.77901497099393</v>
+        <v>0.9656122941695555</v>
       </c>
       <c r="K14" t="n">
-        <v>81.71608099873559</v>
+        <v>0.8794664993640103</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.867295161325466</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6713236362941657</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8068918614540797</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.9656122941695555</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.8794664993640103</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>619.3054574376305</v>
+      </c>
+      <c r="R14" t="n">
+        <v>635.4260754251096</v>
       </c>
     </row>
     <row r="15">
@@ -965,19 +1273,40 @@
         <v>12.37884288106448</v>
       </c>
       <c r="G15" t="n">
-        <v>77.29234972677595</v>
+        <v>0.2111812834064917</v>
       </c>
       <c r="H15" t="n">
-        <v>68.48506819874024</v>
+        <v>0.7452809230330025</v>
       </c>
       <c r="I15" t="n">
-        <v>75.9483440407482</v>
+        <v>0.8257223634659405</v>
       </c>
       <c r="J15" t="n">
-        <v>89.60629364098907</v>
+        <v>0.9634883757436401</v>
       </c>
       <c r="K15" t="n">
-        <v>78.35560957607321</v>
+        <v>0.8421407687262953</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.810388524457037</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7452809230330025</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8257223634659405</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9634883757436401</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8421407687262953</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>613.2384505729269</v>
+      </c>
+      <c r="R15" t="n">
+        <v>624.779500045613</v>
       </c>
     </row>
     <row r="16">
@@ -1000,19 +1329,40 @@
         <v>13.53998742262026</v>
       </c>
       <c r="G16" t="n">
-        <v>78.92582417582418</v>
+        <v>0.2168291872962202</v>
       </c>
       <c r="H16" t="n">
-        <v>69.91650075776377</v>
+        <v>0.7684870717188929</v>
       </c>
       <c r="I16" t="n">
-        <v>79.97720382267498</v>
+        <v>0.879361200291786</v>
       </c>
       <c r="J16" t="n">
-        <v>89.46311188740205</v>
+        <v>0.9619522079839016</v>
       </c>
       <c r="K16" t="n">
-        <v>79.5690827127834</v>
+        <v>0.8557233153082144</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.680541515433387</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.7684870717188929</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.879361200291786</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9619522079839016</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8557233153082144</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>604.8928488621191</v>
+      </c>
+      <c r="R16" t="n">
+        <v>611.9641279269432</v>
       </c>
     </row>
     <row r="17">
@@ -1035,19 +1385,40 @@
         <v>11.77108681981109</v>
       </c>
       <c r="G17" t="n">
-        <v>79.60714285714286</v>
+        <v>0.2187009419152277</v>
       </c>
       <c r="H17" t="n">
-        <v>69.13240556397515</v>
+        <v>0.759601047786632</v>
       </c>
       <c r="I17" t="n">
-        <v>82.10963960244698</v>
+        <v>0.8927520059413467</v>
       </c>
       <c r="J17" t="n">
-        <v>89.87322100975167</v>
+        <v>0.9769305581702674</v>
       </c>
       <c r="K17" t="n">
-        <v>80.69096829035634</v>
+        <v>0.867775959748973</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.571793320968218</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.759601047786632</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8927520059413467</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.9769305581702674</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.867775959748973</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>583.6329658736655</v>
+      </c>
+      <c r="R17" t="n">
+        <v>589.5951999269528</v>
       </c>
     </row>
     <row r="18">
@@ -1070,19 +1441,40 @@
         <v>12.60517677823968</v>
       </c>
       <c r="G18" t="n">
-        <v>80.83241758241758</v>
+        <v>0.222067081270378</v>
       </c>
       <c r="H18" t="n">
-        <v>75.49036006182195</v>
+        <v>0.830340691487381</v>
       </c>
       <c r="I18" t="n">
-        <v>80.5726334022247</v>
+        <v>0.8756059355157519</v>
       </c>
       <c r="J18" t="n">
-        <v>90.68340457619296</v>
+        <v>0.9751863103211449</v>
       </c>
       <c r="K18" t="n">
-        <v>79.95264800319073</v>
+        <v>0.8689612095108983</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.461294882736885</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.830340691487381</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.8756059355157519</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.9751863103211449</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8689612095108983</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>574.9608857536233</v>
+      </c>
+      <c r="R18" t="n">
+        <v>577.9328077739831</v>
       </c>
     </row>
     <row r="19">
@@ -1105,19 +1497,40 @@
         <v>12.34896931280696</v>
       </c>
       <c r="G19" t="n">
-        <v>77.97540983606558</v>
+        <v>0.2130475678581027</v>
       </c>
       <c r="H19" t="n">
-        <v>64.9834105501299</v>
+        <v>0.7050875909541707</v>
       </c>
       <c r="I19" t="n">
-        <v>82.25903992749697</v>
+        <v>0.8943214111744373</v>
       </c>
       <c r="J19" t="n">
-        <v>90.20308048452384</v>
+        <v>0.9698694690820323</v>
       </c>
       <c r="K19" t="n">
-        <v>77.91252878264338</v>
+        <v>0.8375317770805187</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.500805031056446</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7050875909541707</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8943214111744373</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.9698694690820323</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8375317770805187</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>578.4118478108477</v>
+      </c>
+      <c r="R19" t="n">
+        <v>587.9933495955713</v>
       </c>
     </row>
     <row r="20">
@@ -1140,19 +1553,40 @@
         <v>12.22227140557399</v>
       </c>
       <c r="G20" t="n">
-        <v>79.04657534246576</v>
+        <v>0.216565959842372</v>
       </c>
       <c r="H20" t="n">
-        <v>66.69981567277922</v>
+        <v>0.7331734676038215</v>
       </c>
       <c r="I20" t="n">
-        <v>83.07976966953294</v>
+        <v>0.9031390316883438</v>
       </c>
       <c r="J20" t="n">
-        <v>90.14351174439699</v>
+        <v>0.9692781036707327</v>
       </c>
       <c r="K20" t="n">
-        <v>79.46644053024613</v>
+        <v>0.8546594437354773</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.474465904868441</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7331734676038215</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.9031390316883438</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.9692781036707327</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8546594437354773</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>588.0602774473045</v>
+      </c>
+      <c r="R20" t="n">
+        <v>594.7212724504385</v>
       </c>
     </row>
     <row r="21">
@@ -1175,19 +1609,40 @@
         <v>12.06111164571277</v>
       </c>
       <c r="G21" t="n">
-        <v>77.32602739726028</v>
+        <v>0.2118521298555076</v>
       </c>
       <c r="H21" t="n">
-        <v>66.68555350747532</v>
+        <v>0.7328065646256301</v>
       </c>
       <c r="I21" t="n">
-        <v>77.0118656007641</v>
+        <v>0.8363607220180761</v>
       </c>
       <c r="J21" t="n">
-        <v>88.52329904069997</v>
+        <v>0.9516740640481652</v>
       </c>
       <c r="K21" t="n">
-        <v>80.3202873970679</v>
+        <v>0.8637588208227476</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.679651498565127</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7328065646256301</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8363607220180761</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.9516740640481652</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8637588208227476</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>598.0455731299792</v>
+      </c>
+      <c r="R21" t="n">
+        <v>610.4837542224163</v>
       </c>
     </row>
     <row r="22">
@@ -1210,19 +1665,40 @@
         <v>13.30935990919253</v>
       </c>
       <c r="G22" t="n">
-        <v>77.58630136986301</v>
+        <v>0.2125652092325014</v>
       </c>
       <c r="H22" t="n">
-        <v>69.36317281674972</v>
+        <v>0.7625596057487191</v>
       </c>
       <c r="I22" t="n">
-        <v>76.50562489671169</v>
+        <v>0.8315223234780845</v>
       </c>
       <c r="J22" t="n">
-        <v>89.8752532504424</v>
+        <v>0.9665585626257147</v>
       </c>
       <c r="K22" t="n">
-        <v>77.8078292108377</v>
+        <v>0.8363496879514204</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.73617049322719</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7625596057487191</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8315223234780845</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.9665585626257147</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8363496879514204</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>576.6858495536088</v>
+      </c>
+      <c r="R22" t="n">
+        <v>588.4043722907462</v>
       </c>
     </row>
     <row r="23">
@@ -1245,19 +1721,40 @@
         <v>14.10227565118688</v>
       </c>
       <c r="G23" t="n">
-        <v>77.23497267759562</v>
+        <v>0.2110245155125564</v>
       </c>
       <c r="H23" t="n">
-        <v>64.79519970128295</v>
+        <v>0.7037510638335647</v>
       </c>
       <c r="I23" t="n">
-        <v>77.50006181205178</v>
+        <v>0.8425107501900108</v>
       </c>
       <c r="J23" t="n">
-        <v>90.33560057880915</v>
+        <v>0.9714043665598566</v>
       </c>
       <c r="K23" t="n">
-        <v>79.58486770881345</v>
+        <v>0.8559589260028299</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.748375084669415</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7037510638335647</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8425107501900108</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.9714043665598566</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8559589260028299</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>587.0400175180848</v>
+      </c>
+      <c r="R23" t="n">
+        <v>600.0919209022351</v>
       </c>
     </row>
     <row r="24">
@@ -1280,19 +1777,40 @@
         <v>12.58480734403464</v>
       </c>
       <c r="G24" t="n">
-        <v>76.17728531855956</v>
+        <v>0.2110174108547356</v>
       </c>
       <c r="H24" t="n">
-        <v>64.73105777445869</v>
+        <v>0.7113214507486215</v>
       </c>
       <c r="I24" t="n">
-        <v>74.95055012980276</v>
+        <v>0.8143753786680582</v>
       </c>
       <c r="J24" t="n">
-        <v>88.94699546112282</v>
+        <v>0.9992215139936157</v>
       </c>
       <c r="K24" t="n">
-        <v>79.76722682292188</v>
+        <v>0.8577334545044899</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.900065892260021</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7113214507486215</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.8143753786680582</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.9992215139936157</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8577334545044899</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>586.954113080666</v>
+      </c>
+      <c r="R24" t="n">
+        <v>601.2470608782546</v>
       </c>
     </row>
     <row r="25">
@@ -1315,19 +1833,40 @@
         <v>13.59766094939168</v>
       </c>
       <c r="G25" t="n">
-        <v>79.26027397260275</v>
+        <v>0.2171514355413774</v>
       </c>
       <c r="H25" t="n">
-        <v>72.49701175304955</v>
+        <v>0.7976186816605862</v>
       </c>
       <c r="I25" t="n">
-        <v>81.83462142999782</v>
+        <v>0.8903289911096085</v>
       </c>
       <c r="J25" t="n">
-        <v>88.09724995066438</v>
+        <v>0.947187998761105</v>
       </c>
       <c r="K25" t="n">
-        <v>77.84529594372741</v>
+        <v>0.8368215658618271</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.549518158331745</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7976186816605862</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.8903289911096085</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.947187998761105</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8368215658618271</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>569.2725717809705</v>
+      </c>
+      <c r="R25" t="n">
+        <v>575.5666458895098</v>
       </c>
     </row>
     <row r="26">
@@ -1350,19 +1889,40 @@
         <v>13.04236587988469</v>
       </c>
       <c r="G26" t="n">
-        <v>78.86027397260274</v>
+        <v>0.2160555451304185</v>
       </c>
       <c r="H26" t="n">
-        <v>66.90552235281166</v>
+        <v>0.7345429158866248</v>
       </c>
       <c r="I26" t="n">
-        <v>81.41576507065932</v>
+        <v>0.884904036830227</v>
       </c>
       <c r="J26" t="n">
-        <v>90.10975271685504</v>
+        <v>0.969157276464882</v>
       </c>
       <c r="K26" t="n">
-        <v>80.25918799938835</v>
+        <v>0.8632841235309384</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.68094412433098</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7345429158866248</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.884904036830227</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.969157276464882</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8632841235309384</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>574.3103775230845</v>
+      </c>
+      <c r="R26" t="n">
+        <v>583.1727159976363</v>
       </c>
     </row>
     <row r="27">
@@ -1385,19 +1945,40 @@
         <v>12.09828658565091</v>
       </c>
       <c r="G27" t="n">
-        <v>78.14525139664805</v>
+        <v>0.2182828251303018</v>
       </c>
       <c r="H27" t="n">
-        <v>73.70225848739354</v>
+        <v>0.8019242293099731</v>
       </c>
       <c r="I27" t="n">
-        <v>73.95783253024305</v>
+        <v>0.858946007479146</v>
       </c>
       <c r="J27" t="n">
-        <v>88.7789972524095</v>
+        <v>0.9754282910217857</v>
       </c>
       <c r="K27" t="n">
-        <v>79.47020856521075</v>
+        <v>0.8544261914134607</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.803434331036453</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8019242293099731</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.858946007479146</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.9754282910217857</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8544261914134607</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>581.6670371469372</v>
+      </c>
+      <c r="R27" t="n">
+        <v>592.0053830678643</v>
       </c>
     </row>
     <row r="28">
@@ -1420,19 +2001,40 @@
         <v>13.47715528897446</v>
       </c>
       <c r="G28" t="n">
-        <v>80.32782369146005</v>
+        <v>0.22128877049989</v>
       </c>
       <c r="H28" t="n">
-        <v>74.19669176097105</v>
+        <v>0.8154076449665815</v>
       </c>
       <c r="I28" t="n">
-        <v>80.94459156626641</v>
+        <v>0.8806737043844317</v>
       </c>
       <c r="J28" t="n">
-        <v>90.35309996947122</v>
+        <v>0.9930833862087681</v>
       </c>
       <c r="K28" t="n">
-        <v>79.34206748440447</v>
+        <v>0.8531255229432201</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.753238651618411</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8154076449665815</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8806737043844317</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9930833862087681</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8531255229432201</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>574.8911016321204</v>
+      </c>
+      <c r="R28" t="n">
+        <v>579.9665265874834</v>
       </c>
     </row>
     <row r="29">
@@ -1455,19 +2057,40 @@
         <v>12.51931690531494</v>
       </c>
       <c r="G29" t="n">
-        <v>76.25824175824175</v>
+        <v>0.2095006641709938</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72440768623302</v>
+        <v>0.7323228898327119</v>
       </c>
       <c r="I29" t="n">
-        <v>76.82356694028864</v>
+        <v>0.8345466337041885</v>
       </c>
       <c r="J29" t="n">
-        <v>87.5643197798843</v>
+        <v>0.9514543030293695</v>
       </c>
       <c r="K29" t="n">
-        <v>77.3732833422218</v>
+        <v>0.8317406811818222</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.075277751036564</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.7323228898327119</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8345466337041885</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.9514543030293695</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8317406811818222</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>620.5753570513041</v>
+      </c>
+      <c r="R29" t="n">
+        <v>634.0607375680415</v>
       </c>
     </row>
     <row r="30">
@@ -1490,19 +2113,40 @@
         <v>13.53716648810125</v>
       </c>
       <c r="G30" t="n">
-        <v>77.45479452054795</v>
+        <v>0.2122049164946519</v>
       </c>
       <c r="H30" t="n">
-        <v>65.23027119651371</v>
+        <v>0.716633620109856</v>
       </c>
       <c r="I30" t="n">
-        <v>76.70135787846471</v>
+        <v>0.8336957549370492</v>
       </c>
       <c r="J30" t="n">
-        <v>90.11482956282484</v>
+        <v>0.9692759279658588</v>
       </c>
       <c r="K30" t="n">
-        <v>80.85188351458937</v>
+        <v>0.8697816328782114</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.862207407153265</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.716633620109856</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.8336957549370492</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.9692759279658588</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8697816328782114</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>593.8064731878014</v>
+      </c>
+      <c r="R30" t="n">
+        <v>606.4725886067522</v>
       </c>
     </row>
     <row r="31">
@@ -1525,19 +2169,40 @@
         <v>13.58062820316595</v>
       </c>
       <c r="G31" t="n">
-        <v>77.36813186813187</v>
+        <v>0.2125498128245381</v>
       </c>
       <c r="H31" t="n">
-        <v>68.65088210106059</v>
+        <v>0.7466147365801364</v>
       </c>
       <c r="I31" t="n">
-        <v>78.71890397642738</v>
+        <v>0.8652881105870293</v>
       </c>
       <c r="J31" t="n">
-        <v>88.34907423437853</v>
+        <v>0.9497837046228694</v>
       </c>
       <c r="K31" t="n">
-        <v>77.08628443422626</v>
+        <v>0.8374435190958676</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.870084488238925</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7466147365801364</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.8652881105870293</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.9497837046228694</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8374435190958676</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>593.3979697889215</v>
+      </c>
+      <c r="R31" t="n">
+        <v>604.4831505923522</v>
       </c>
     </row>
     <row r="32">
@@ -1560,19 +2225,40 @@
         <v>13.08348508916484</v>
       </c>
       <c r="G32" t="n">
-        <v>76.7013698630137</v>
+        <v>0.2101407393507224</v>
       </c>
       <c r="H32" t="n">
-        <v>66.61834313445624</v>
+        <v>0.7318205697205654</v>
       </c>
       <c r="I32" t="n">
-        <v>76.5024055382025</v>
+        <v>0.8312842999771268</v>
       </c>
       <c r="J32" t="n">
-        <v>88.2429247199389</v>
+        <v>0.9488362220823042</v>
       </c>
       <c r="K32" t="n">
-        <v>78.62050309167637</v>
+        <v>0.8455620798108573</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.714546302961692</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.7318205697205654</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8312842999771268</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.9488362220823042</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8455620798108573</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>586.4763570970488</v>
+      </c>
+      <c r="R32" t="n">
+        <v>599.4871342479086</v>
       </c>
     </row>
     <row r="33">
@@ -1595,19 +2281,40 @@
         <v>14.62590744662135</v>
       </c>
       <c r="G33" t="n">
-        <v>77.92602739726027</v>
+        <v>0.2134959654719459</v>
       </c>
       <c r="H33" t="n">
-        <v>69.49575936816062</v>
+        <v>0.7640409655024347</v>
       </c>
       <c r="I33" t="n">
-        <v>80.95057588503519</v>
+        <v>0.8804288472768961</v>
       </c>
       <c r="J33" t="n">
-        <v>88.91568396434717</v>
+        <v>0.9561612519165976</v>
       </c>
       <c r="K33" t="n">
-        <v>75.56109242490952</v>
+        <v>0.8121273112098074</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.712941544772485</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7640409655024347</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8804288472768961</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.9561612519165976</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8121273112098074</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>583.9389027103476</v>
+      </c>
+      <c r="R33" t="n">
+        <v>594.7110494096003</v>
       </c>
     </row>
     <row r="34">
@@ -1630,19 +2337,40 @@
         <v>13.96875986355023</v>
       </c>
       <c r="G34" t="n">
-        <v>74.45604395604396</v>
+        <v>0.2045495713078131</v>
       </c>
       <c r="H34" t="n">
-        <v>55.46624448728271</v>
+        <v>0.6145390785210835</v>
       </c>
       <c r="I34" t="n">
-        <v>76.91154478994544</v>
+        <v>0.835512671035778</v>
       </c>
       <c r="J34" t="n">
-        <v>89.65125743439508</v>
+        <v>0.9640779963671925</v>
       </c>
       <c r="K34" t="n">
-        <v>78.62566404809684</v>
+        <v>0.8457953836615324</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.800480112443323</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.6145390785210835</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.835512671035778</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.9640779963671925</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8457953836615324</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>613.4927201287007</v>
+      </c>
+      <c r="R34" t="n">
+        <v>633.3588613176726</v>
       </c>
     </row>
     <row r="35">
@@ -1665,19 +2393,40 @@
         <v>13.59422565069075</v>
       </c>
       <c r="G35" t="n">
-        <v>77.65846994535519</v>
+        <v>0.2121816118725552</v>
       </c>
       <c r="H35" t="n">
-        <v>67.68644224711299</v>
+        <v>0.7371832555341772</v>
       </c>
       <c r="I35" t="n">
-        <v>79.73529170098841</v>
+        <v>0.8670251796487182</v>
       </c>
       <c r="J35" t="n">
-        <v>88.7136006242869</v>
+        <v>0.9538001037330303</v>
       </c>
       <c r="K35" t="n">
-        <v>77.68071373965323</v>
+        <v>0.835166091137011</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.722052408580987</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7371832555341772</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8670251796487182</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.9538001037330303</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.835166091137011</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>574.8819501181335</v>
+      </c>
+      <c r="R35" t="n">
+        <v>585.4436314956276</v>
       </c>
     </row>
     <row r="36">
@@ -1700,19 +2449,40 @@
         <v>13.66257390824934</v>
       </c>
       <c r="G36" t="n">
-        <v>75.88186813186813</v>
+        <v>0.2084666706919454</v>
       </c>
       <c r="H36" t="n">
-        <v>62.97429380274571</v>
+        <v>0.6914490349698191</v>
       </c>
       <c r="I36" t="n">
-        <v>76.32676144726361</v>
+        <v>0.8292316175799599</v>
       </c>
       <c r="J36" t="n">
-        <v>87.14906087635094</v>
+        <v>0.9369038043600818</v>
       </c>
       <c r="K36" t="n">
-        <v>80.26022762351268</v>
+        <v>0.8727007808345776</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.768240020335483</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.6914490349698191</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.8292316175799599</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.9369038043600818</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8727007808345776</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>599.5727897354478</v>
+      </c>
+      <c r="R36" t="n">
+        <v>615.4781016579381</v>
       </c>
     </row>
     <row r="37">
@@ -1735,19 +2505,40 @@
         <v>13.65176710769836</v>
       </c>
       <c r="G37" t="n">
-        <v>75.94520547945206</v>
+        <v>0.2080690561080878</v>
       </c>
       <c r="H37" t="n">
-        <v>65.22193659780828</v>
+        <v>0.7169989443253049</v>
       </c>
       <c r="I37" t="n">
-        <v>79.35523913678311</v>
+        <v>0.8629186368334235</v>
       </c>
       <c r="J37" t="n">
-        <v>85.87118544430815</v>
+        <v>0.9231967041356759</v>
       </c>
       <c r="K37" t="n">
-        <v>76.47021986547297</v>
+        <v>0.8218186083153161</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.757431272799915</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7169989443253049</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.8629186368334235</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.9231967041356759</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8218186083153161</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>603.9112923134121</v>
+      </c>
+      <c r="R37" t="n">
+        <v>618.9005516067369</v>
       </c>
     </row>
     <row r="38">
@@ -1770,19 +2561,40 @@
         <v>13.67012790334454</v>
       </c>
       <c r="G38" t="n">
-        <v>75.8958904109589</v>
+        <v>0.2079339463313943</v>
       </c>
       <c r="H38" t="n">
-        <v>65.20246596219786</v>
+        <v>0.716508271474608</v>
       </c>
       <c r="I38" t="n">
-        <v>78.04785977073388</v>
+        <v>0.848190184595681</v>
       </c>
       <c r="J38" t="n">
-        <v>86.03120853743813</v>
+        <v>0.9250854438450066</v>
       </c>
       <c r="K38" t="n">
-        <v>77.42902412897253</v>
+        <v>0.8326821619338748</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.692946954663576</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.716508271474608</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.848190184595681</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.9250854438450066</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8326821619338748</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>605.8071693618397</v>
+      </c>
+      <c r="R38" t="n">
+        <v>620.853271489585</v>
       </c>
     </row>
     <row r="39">
@@ -1805,19 +2617,40 @@
         <v>12.76706660764505</v>
       </c>
       <c r="G39" t="n">
-        <v>76.17486338797814</v>
+        <v>0.2081280420436561</v>
       </c>
       <c r="H39" t="n">
-        <v>62.9033238017824</v>
+        <v>0.6834580978470565</v>
       </c>
       <c r="I39" t="n">
-        <v>80.63788856890916</v>
+        <v>0.8768081379283413</v>
       </c>
       <c r="J39" t="n">
-        <v>87.82642617975476</v>
+        <v>0.9445799959172786</v>
       </c>
       <c r="K39" t="n">
-        <v>76.56988069705405</v>
+        <v>0.8232316495938012</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.840481604612617</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6834580978470565</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8768081379283413</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.9445799959172786</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8232316495938012</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>616.3442032845895</v>
+      </c>
+      <c r="R39" t="n">
+        <v>631.3112718580384</v>
       </c>
     </row>
     <row r="40">
@@ -1840,19 +2673,40 @@
         <v>13.96337435832577</v>
       </c>
       <c r="G40" t="n">
-        <v>74.4478021978022</v>
+        <v>0.2045269291148412</v>
       </c>
       <c r="H40" t="n">
-        <v>69.1989258200198</v>
+        <v>0.7611954886540551</v>
       </c>
       <c r="I40" t="n">
-        <v>70.56744932493307</v>
+        <v>0.7658346586327652</v>
       </c>
       <c r="J40" t="n">
-        <v>84.18289593673647</v>
+        <v>0.9047666091677596</v>
       </c>
       <c r="K40" t="n">
-        <v>77.06120748018741</v>
+        <v>0.8376794145211441</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.96262479918001</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7611954886540551</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7658346586327652</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.9047666091677596</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8376794145211441</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>639.4484663168415</v>
+      </c>
+      <c r="R40" t="n">
+        <v>659.4671376001282</v>
       </c>
     </row>
     <row r="41">
@@ -1875,19 +2729,40 @@
         <v>13.57677580824267</v>
       </c>
       <c r="G41" t="n">
-        <v>75.05753424657534</v>
+        <v>0.2056370801276037</v>
       </c>
       <c r="H41" t="n">
-        <v>63.82443250911133</v>
+        <v>0.700711258702303</v>
       </c>
       <c r="I41" t="n">
-        <v>77.3029390035707</v>
+        <v>0.8410537175049672</v>
       </c>
       <c r="J41" t="n">
-        <v>85.59981408626888</v>
+        <v>0.9205936633517449</v>
       </c>
       <c r="K41" t="n">
-        <v>76.55501312478465</v>
+        <v>0.8231140925584263</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.9896739255263</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.700711258702303</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8410537175049672</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.9205936633517449</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8231140925584263</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>641.9076186184174</v>
+      </c>
+      <c r="R41" t="n">
+        <v>658.9264303125334</v>
       </c>
     </row>
     <row r="42">
@@ -1910,19 +2785,40 @@
         <v>13.58887799791568</v>
       </c>
       <c r="G42" t="n">
-        <v>77.17260273972603</v>
+        <v>0.2114317883280165</v>
       </c>
       <c r="H42" t="n">
-        <v>65.84249369454568</v>
+        <v>0.7237902112665066</v>
       </c>
       <c r="I42" t="n">
-        <v>80.17915317586342</v>
+        <v>0.8718561832770807</v>
       </c>
       <c r="J42" t="n">
-        <v>88.54999797919857</v>
+        <v>0.9524953442418894</v>
       </c>
       <c r="K42" t="n">
-        <v>77.2016849252694</v>
+        <v>0.8302012185837143</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.822169430377802</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7237902112665066</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.8718561832770807</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.9524953442418894</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8302012185837143</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>616.2311654469357</v>
+      </c>
+      <c r="R42" t="n">
+        <v>629.9901318863641</v>
       </c>
     </row>
     <row r="43">
@@ -1945,19 +2841,40 @@
         <v>13.62705302171648</v>
       </c>
       <c r="G43" t="n">
-        <v>74.03551912568307</v>
+        <v>0.2022828391412106</v>
       </c>
       <c r="H43" t="n">
-        <v>66.78947795268732</v>
+        <v>0.726086679170543</v>
       </c>
       <c r="I43" t="n">
-        <v>73.89207860632817</v>
+        <v>0.8024238444853613</v>
       </c>
       <c r="J43" t="n">
-        <v>83.86467389107824</v>
+        <v>0.9012231209055106</v>
       </c>
       <c r="K43" t="n">
-        <v>74.90436614049206</v>
+        <v>0.8051547969303618</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.865142928503761</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.726086679170543</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8024238444853613</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.9012231209055106</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8051547969303618</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>631.1341112734406</v>
+      </c>
+      <c r="R43" t="n">
+        <v>650.9957326116834</v>
       </c>
     </row>
     <row r="44">
@@ -1980,19 +2897,40 @@
         <v>13.50464188067083</v>
       </c>
       <c r="G44" t="n">
-        <v>69.89041095890411</v>
+        <v>0.1914805779696003</v>
       </c>
       <c r="H44" t="n">
-        <v>61.05321642169652</v>
+        <v>0.6702130971208853</v>
       </c>
       <c r="I44" t="n">
-        <v>72.25156130336624</v>
+        <v>0.7851470141099487</v>
       </c>
       <c r="J44" t="n">
-        <v>79.7050508031639</v>
+        <v>0.8565573278734528</v>
       </c>
       <c r="K44" t="n">
-        <v>69.64026484935317</v>
+        <v>0.7482047678162723</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.1017882248557</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6702130971208853</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.7851470141099487</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8565573278734528</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7482047678162723</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>653.713617106318</v>
+      </c>
+      <c r="R44" t="n">
+        <v>683.8417101166365</v>
       </c>
     </row>
     <row r="45">
@@ -2015,19 +2953,40 @@
         <v>13.95548523783337</v>
       </c>
       <c r="G45" t="n">
-        <v>70.98904109589041</v>
+        <v>0.1944905235503847</v>
       </c>
       <c r="H45" t="n">
-        <v>55.66725796024107</v>
+        <v>0.6110703966786569</v>
       </c>
       <c r="I45" t="n">
-        <v>74.15661056377326</v>
+        <v>0.806277641228609</v>
       </c>
       <c r="J45" t="n">
-        <v>82.58375055220831</v>
+        <v>0.8883337142400606</v>
       </c>
       <c r="K45" t="n">
-        <v>74.32217679184079</v>
+        <v>0.7997103266502619</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.879589028282891</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6110703966786569</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.806277641228609</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8883337142400606</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7997103266502619</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>643.7818270862857</v>
+      </c>
+      <c r="R45" t="n">
+        <v>670.0432731131189</v>
       </c>
     </row>
     <row r="46">
@@ -2050,19 +3009,40 @@
         <v>13.52125527432428</v>
       </c>
       <c r="G46" t="n">
-        <v>71.33972602739726</v>
+        <v>0.19545130418465</v>
       </c>
       <c r="H46" t="n">
-        <v>62.14074731066934</v>
+        <v>0.6836556877032937</v>
       </c>
       <c r="I46" t="n">
-        <v>72.80391879740409</v>
+        <v>0.7911853976139631</v>
       </c>
       <c r="J46" t="n">
-        <v>80.46286685382836</v>
+        <v>0.8649442738320225</v>
       </c>
       <c r="K46" t="n">
-        <v>72.88393670425913</v>
+        <v>0.7835302115225248</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.97000141407357</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6836556877032937</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.7911853976139631</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.8649442738320225</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.7835302115225248</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>635.4809662545001</v>
+      </c>
+      <c r="R46" t="n">
+        <v>660.6161940282731</v>
       </c>
     </row>
     <row r="47">
@@ -2085,19 +3065,40 @@
         <v>13.48175277472092</v>
       </c>
       <c r="G47" t="n">
-        <v>71.85519125683061</v>
+        <v>0.1963256591716683</v>
       </c>
       <c r="H47" t="n">
-        <v>62.00154667374362</v>
+        <v>0.673914219984024</v>
       </c>
       <c r="I47" t="n">
-        <v>72.19564745931214</v>
+        <v>0.784662623523441</v>
       </c>
       <c r="J47" t="n">
-        <v>84.48329203101987</v>
+        <v>0.9088923610909536</v>
       </c>
       <c r="K47" t="n">
-        <v>71.77047757287238</v>
+        <v>0.7715954076336865</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.043426151921222</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.673914219984024</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.784662623523441</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.9088923610909536</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7715954076336865</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>639.0242021653038</v>
+      </c>
+      <c r="R47" t="n">
+        <v>665.0277871244216</v>
       </c>
     </row>
     <row r="48">
@@ -2120,19 +3121,40 @@
         <v>13.25197557363828</v>
       </c>
       <c r="G48" t="n">
-        <v>71.34520547945205</v>
+        <v>0.1954663163820604</v>
       </c>
       <c r="H48" t="n">
-        <v>57.21112829637494</v>
+        <v>0.6281078906444425</v>
       </c>
       <c r="I48" t="n">
-        <v>73.3537983237287</v>
+        <v>0.7974622222706828</v>
       </c>
       <c r="J48" t="n">
-        <v>85.14655752207631</v>
+        <v>0.9156319579821705</v>
       </c>
       <c r="K48" t="n">
-        <v>72.54098345187904</v>
+        <v>0.7801006138241533</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.060387905703198</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6281078906444425</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.7974622222706828</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.9156319579821705</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7801006138241533</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>647.8208644841716</v>
+      </c>
+      <c r="R48" t="n">
+        <v>674.2390317684823</v>
       </c>
     </row>
     <row r="49">
@@ -2155,19 +3177,40 @@
         <v>12.72556495188737</v>
       </c>
       <c r="G49" t="n">
-        <v>77.63287671232877</v>
+        <v>0.2126928129104898</v>
       </c>
       <c r="H49" t="n">
-        <v>68.11345698107084</v>
+        <v>0.7498306306037833</v>
       </c>
       <c r="I49" t="n">
-        <v>75.91597580575527</v>
+        <v>0.8254797080331205</v>
       </c>
       <c r="J49" t="n">
-        <v>89.2407234513269</v>
+        <v>0.96005619470203</v>
       </c>
       <c r="K49" t="n">
-        <v>80.1689237331726</v>
+        <v>0.8629229797511606</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.145717226809</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7498306306037833</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.8254797080331205</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.96005619470203</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8629229797511606</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>628.957230482663</v>
+      </c>
+      <c r="R49" t="n">
+        <v>640.658812922686</v>
       </c>
     </row>
     <row r="50">
@@ -2190,19 +3233,40 @@
         <v>12.78723440165094</v>
       </c>
       <c r="G50" t="n">
-        <v>80.75616438356164</v>
+        <v>0.2212497654344155</v>
       </c>
       <c r="H50" t="n">
-        <v>70.26792729978968</v>
+        <v>0.7724382506951364</v>
       </c>
       <c r="I50" t="n">
-        <v>81.80127445940391</v>
+        <v>0.8898472986001731</v>
       </c>
       <c r="J50" t="n">
-        <v>91.99174699403616</v>
+        <v>0.9894801578679939</v>
       </c>
       <c r="K50" t="n">
-        <v>82.15401004057796</v>
+        <v>0.8836085684049801</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.954776691604247</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7724382506951364</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.8898472986001731</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.9894801578679939</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8836085684049801</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>612.0965671083139</v>
+      </c>
+      <c r="R50" t="n">
+        <v>616.983629561342</v>
       </c>
     </row>
     <row r="51">
@@ -2225,19 +3289,40 @@
         <v>14.06942646088751</v>
       </c>
       <c r="G51" t="n">
-        <v>82.19125683060109</v>
+        <v>0.2245662754934456</v>
       </c>
       <c r="H51" t="n">
-        <v>75.9589882120856</v>
+        <v>0.8263219947169055</v>
       </c>
       <c r="I51" t="n">
-        <v>84.36045356548794</v>
+        <v>0.9172672198162783</v>
       </c>
       <c r="J51" t="n">
-        <v>89.30425811950039</v>
+        <v>0.9599467722303719</v>
       </c>
       <c r="K51" t="n">
-        <v>82.64297837000629</v>
+        <v>0.8886913526191406</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2.868291124553256</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8263219947169055</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.9172672198162783</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.9599467722303719</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8886913526191406</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>621.885646915768</v>
+      </c>
+      <c r="R51" t="n">
+        <v>622.5096805984847</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56739_腾冲.xlsx
+++ b/my_work/data1/YearMeanER56739_腾冲.xlsx
@@ -563,22 +563,22 @@
         <v>2.749448491680156</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7981481481481481</v>
+        <v>3.34520681300867</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8788793623958459</v>
+        <v>2.938410353186093</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9662098298676749</v>
+        <v>2.545674991973935</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8651129090689531</v>
+        <v>2.151063582266716</v>
       </c>
       <c r="Q2" t="n">
-        <v>593.4339738523321</v>
+        <v>1.630313114978934</v>
       </c>
       <c r="R2" t="n">
-        <v>598.1328700475053</v>
+        <v>1.643222170460179</v>
       </c>
     </row>
     <row r="3">
@@ -619,22 +619,22 @@
         <v>2.718910136434304</v>
       </c>
       <c r="M3" t="n">
-        <v>1.109666152263375</v>
+        <v>3.29310411871595</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9025333751192363</v>
+        <v>2.596089870664305</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9704591457738502</v>
+        <v>2.649197696574956</v>
       </c>
       <c r="P3" t="n">
-        <v>0.829497295948614</v>
+        <v>2.315540233910379</v>
       </c>
       <c r="Q3" t="n">
-        <v>562.1425045695828</v>
+        <v>1.678037327073381</v>
       </c>
       <c r="R3" t="n">
-        <v>566.6265118471263</v>
+        <v>1.691422423424257</v>
       </c>
     </row>
     <row r="4">
@@ -675,22 +675,22 @@
         <v>2.914022780515282</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6903839094015141</v>
+        <v>3.767765873763431</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8327040164660642</v>
+        <v>2.805403708117477</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9576997234340471</v>
+        <v>2.682478737611918</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8632832581871395</v>
+        <v>2.505849567553529</v>
       </c>
       <c r="Q4" t="n">
-        <v>626.1601140862217</v>
+        <v>1.720220093643466</v>
       </c>
       <c r="R4" t="n">
-        <v>640.7134552375469</v>
+        <v>1.760201800103151</v>
       </c>
     </row>
     <row r="5">
@@ -731,22 +731,22 @@
         <v>2.801099413764709</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7549000473962224</v>
+        <v>3.5349440911606</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8615907141669443</v>
+        <v>2.894635552147142</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9711670250145835</v>
+        <v>2.489287128632587</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8797097451864587</v>
+        <v>2.401292533569865</v>
       </c>
       <c r="Q5" t="n">
-        <v>591.3337653377331</v>
+        <v>1.620092507774611</v>
       </c>
       <c r="R5" t="n">
-        <v>598.2239968470197</v>
+        <v>1.638969854375397</v>
       </c>
     </row>
     <row r="6">
@@ -787,22 +787,22 @@
         <v>2.882359770892294</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7237969012404193</v>
+        <v>3.851532712742213</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8931121350940909</v>
+        <v>2.883080639121343</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9638434743649592</v>
+        <v>2.63857217118708</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8654606581023048</v>
+        <v>2.260479912578004</v>
       </c>
       <c r="Q6" t="n">
-        <v>583.1414083171441</v>
+        <v>1.60203683603611</v>
       </c>
       <c r="R6" t="n">
-        <v>591.6796638041926</v>
+        <v>1.62549358187965</v>
       </c>
     </row>
     <row r="7">
@@ -843,22 +843,22 @@
         <v>3.030103121122335</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7515666944694167</v>
+        <v>3.793082795849979</v>
       </c>
       <c r="N7" t="n">
-        <v>0.84746928053799</v>
+        <v>3.211689389802839</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9591167111855345</v>
+        <v>2.905218511954005</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8543083011174507</v>
+        <v>2.327884418665148</v>
       </c>
       <c r="Q7" t="n">
-        <v>592.5940087246853</v>
+        <v>1.619109313455424</v>
       </c>
       <c r="R7" t="n">
-        <v>602.0485039753362</v>
+        <v>1.644941267692175</v>
       </c>
     </row>
     <row r="8">
@@ -899,22 +899,22 @@
         <v>2.969412863711016</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7281174773696876</v>
+        <v>3.81703571841627</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8809138351987124</v>
+        <v>3.133312831151159</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9463562283448944</v>
+        <v>2.650264296984254</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8899875127955007</v>
+        <v>2.394082808722463</v>
       </c>
       <c r="Q8" t="n">
-        <v>602.0154085331982</v>
+        <v>1.649357283652598</v>
       </c>
       <c r="R8" t="n">
-        <v>611.409517213473</v>
+        <v>1.675094567708145</v>
       </c>
     </row>
     <row r="9">
@@ -955,22 +955,22 @@
         <v>2.725093770708244</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7665096441330086</v>
+        <v>3.487100800512053</v>
       </c>
       <c r="N9" t="n">
-        <v>0.915817040675667</v>
+        <v>2.600123414072604</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9873518851876589</v>
+        <v>2.517160103231263</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8904643179953681</v>
+        <v>2.417419164754994</v>
       </c>
       <c r="Q9" t="n">
-        <v>581.5892762581209</v>
+        <v>1.593395277419509</v>
       </c>
       <c r="R9" t="n">
-        <v>583.6486606537383</v>
+        <v>1.599037426448598</v>
       </c>
     </row>
     <row r="10">
@@ -1011,22 +1011,22 @@
         <v>2.869189238664209</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7414526555116214</v>
+        <v>3.796704361936376</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8515778066707734</v>
+        <v>2.977193573956419</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9468321540507074</v>
+        <v>2.518225748808207</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8775863024950373</v>
+        <v>2.287985803903588</v>
       </c>
       <c r="Q10" t="n">
-        <v>596.0134296837806</v>
+        <v>1.63291350598296</v>
       </c>
       <c r="R10" t="n">
-        <v>606.1744175948323</v>
+        <v>1.660751829026938</v>
       </c>
     </row>
     <row r="11">
@@ -1067,22 +1067,22 @@
         <v>2.762799016645715</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8077214651196125</v>
+        <v>3.521268831706958</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8984242939025081</v>
+        <v>2.951900333309365</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9637224518140419</v>
+        <v>2.578631018440817</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8674241004610698</v>
+        <v>2.116236963970557</v>
       </c>
       <c r="Q11" t="n">
-        <v>568.4294283158841</v>
+        <v>1.553085869715531</v>
       </c>
       <c r="R11" t="n">
-        <v>571.1242094279563</v>
+        <v>1.560448659639225</v>
       </c>
     </row>
     <row r="12">
@@ -1123,22 +1123,22 @@
         <v>2.542520028390147</v>
       </c>
       <c r="M12" t="n">
-        <v>0.777260212526558</v>
+        <v>3.19717333171441</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9304309170744962</v>
+        <v>2.413052718694731</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9632518575675583</v>
+        <v>2.51180187227887</v>
       </c>
       <c r="P12" t="n">
-        <v>0.870022143679166</v>
+        <v>2.160812005497924</v>
       </c>
       <c r="Q12" t="n">
-        <v>567.2987540815817</v>
+        <v>1.554243161867347</v>
       </c>
       <c r="R12" t="n">
-        <v>570.0553918935025</v>
+        <v>1.561795594228774</v>
       </c>
     </row>
     <row r="13">
@@ -1179,22 +1179,22 @@
         <v>2.900825949120674</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7214539827422871</v>
+        <v>3.553734723486928</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8715047012337972</v>
+        <v>3.096644438163248</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9424578511173874</v>
+        <v>2.685961149639374</v>
       </c>
       <c r="P13" t="n">
-        <v>0.804450616982949</v>
+        <v>2.364744042980369</v>
       </c>
       <c r="Q13" t="n">
-        <v>621.5242044925545</v>
+        <v>1.702806039705629</v>
       </c>
       <c r="R13" t="n">
-        <v>634.0165773967963</v>
+        <v>1.737031718895332</v>
       </c>
     </row>
     <row r="14">
@@ -1235,22 +1235,22 @@
         <v>2.867295161325466</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6713236362941657</v>
+        <v>3.870371212182666</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8068918614540797</v>
+        <v>2.990467629568519</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9656122941695555</v>
+        <v>2.439359099279023</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8794664993640103</v>
+        <v>2.27872185291739</v>
       </c>
       <c r="Q14" t="n">
-        <v>619.3054574376305</v>
+        <v>1.696727280651043</v>
       </c>
       <c r="R14" t="n">
-        <v>635.4260754251096</v>
+        <v>1.740893357329067</v>
       </c>
     </row>
     <row r="15">
@@ -1291,22 +1291,22 @@
         <v>2.810388524457037</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7452809230330025</v>
+        <v>3.64930280812619</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8257223634659405</v>
+        <v>2.873498840384305</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9634883757436401</v>
+        <v>2.593585280099133</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8421407687262953</v>
+        <v>2.242495687837772</v>
       </c>
       <c r="Q15" t="n">
-        <v>613.2384505729269</v>
+        <v>1.675514892275757</v>
       </c>
       <c r="R15" t="n">
-        <v>624.779500045613</v>
+        <v>1.707047814332276</v>
       </c>
     </row>
     <row r="16">
@@ -1347,22 +1347,22 @@
         <v>2.680541515433387</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7684870717188929</v>
+        <v>3.226380887874561</v>
       </c>
       <c r="N16" t="n">
-        <v>0.879361200291786</v>
+        <v>2.736677059872041</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9619522079839016</v>
+        <v>2.647158029718819</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8557233153082144</v>
+        <v>2.225777326633028</v>
       </c>
       <c r="Q16" t="n">
-        <v>604.8928488621191</v>
+        <v>1.661793540829998</v>
       </c>
       <c r="R16" t="n">
-        <v>611.9641279269432</v>
+        <v>1.681220131667426</v>
       </c>
     </row>
     <row r="17">
@@ -1403,22 +1403,22 @@
         <v>2.571793320968218</v>
       </c>
       <c r="M17" t="n">
-        <v>0.759601047786632</v>
+        <v>3.319373112583567</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8927520059413467</v>
+        <v>2.529858854256014</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9769305581702674</v>
+        <v>2.592005873327907</v>
       </c>
       <c r="P17" t="n">
-        <v>0.867775959748973</v>
+        <v>1.950654362086411</v>
       </c>
       <c r="Q17" t="n">
-        <v>583.6329658736655</v>
+        <v>1.603387268883697</v>
       </c>
       <c r="R17" t="n">
-        <v>589.5951999269528</v>
+        <v>1.619767032766354</v>
       </c>
     </row>
     <row r="18">
@@ -1459,22 +1459,22 @@
         <v>2.461294882736885</v>
       </c>
       <c r="M18" t="n">
-        <v>0.830340691487381</v>
+        <v>3.061849637955018</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8756059355157519</v>
+        <v>2.53772269975043</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9751863103211449</v>
+        <v>2.495866083952209</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8689612095108983</v>
+        <v>1.842907424830648</v>
       </c>
       <c r="Q18" t="n">
-        <v>574.9608857536233</v>
+        <v>1.579562872949515</v>
       </c>
       <c r="R18" t="n">
-        <v>577.9328077739831</v>
+        <v>1.587727493884569</v>
       </c>
     </row>
     <row r="19">
@@ -1515,22 +1515,22 @@
         <v>2.500805031056446</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7050875909541707</v>
+        <v>3.122345818077003</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8943214111744373</v>
+        <v>2.427354507855712</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9698694690820323</v>
+        <v>2.344829638149008</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8375317770805187</v>
+        <v>2.21187978193163</v>
       </c>
       <c r="Q19" t="n">
-        <v>578.4118478108477</v>
+        <v>1.580360239920349</v>
       </c>
       <c r="R19" t="n">
-        <v>587.9933495955713</v>
+        <v>1.606539206545277</v>
       </c>
     </row>
     <row r="20">
@@ -1571,22 +1571,22 @@
         <v>2.474465904868441</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7331734676038215</v>
+        <v>2.999545349136596</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9031390316883438</v>
+        <v>2.573741529306127</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9692781036707327</v>
+        <v>2.401243651121262</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8546594437354773</v>
+        <v>2.022565555046986</v>
       </c>
       <c r="Q20" t="n">
-        <v>588.0602774473045</v>
+        <v>1.611124047800834</v>
       </c>
       <c r="R20" t="n">
-        <v>594.7212724504385</v>
+        <v>1.629373349179284</v>
       </c>
     </row>
     <row r="21">
@@ -1627,22 +1627,22 @@
         <v>2.679651498565127</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7328065646256301</v>
+        <v>3.417427038834949</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8363607220180761</v>
+        <v>2.84914135463406</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9516740640481652</v>
+        <v>2.37302598314756</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8637588208227476</v>
+        <v>2.173335959947835</v>
       </c>
       <c r="Q21" t="n">
-        <v>598.0455731299792</v>
+        <v>1.638481022273915</v>
       </c>
       <c r="R21" t="n">
-        <v>610.4837542224163</v>
+        <v>1.672558230746346</v>
       </c>
     </row>
     <row r="22">
@@ -1683,22 +1683,22 @@
         <v>2.73617049322719</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7625596057487191</v>
+        <v>3.654198617100263</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8315223234780845</v>
+        <v>2.443946842837974</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9665585626257147</v>
+        <v>2.613049500999519</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8363496879514204</v>
+        <v>2.341091927324599</v>
       </c>
       <c r="Q22" t="n">
-        <v>576.6858495536088</v>
+        <v>1.579961231653723</v>
       </c>
       <c r="R22" t="n">
-        <v>588.4043722907462</v>
+        <v>1.612066773399305</v>
       </c>
     </row>
     <row r="23">
@@ -1739,22 +1739,22 @@
         <v>2.748375084669415</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7037510638335647</v>
+        <v>3.435090139995062</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8425107501900108</v>
+        <v>2.7759044751873</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9714043665598566</v>
+        <v>2.463531288132177</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8559589260028299</v>
+        <v>2.432579297367724</v>
       </c>
       <c r="Q23" t="n">
-        <v>587.0400175180848</v>
+        <v>1.603934474093128</v>
       </c>
       <c r="R23" t="n">
-        <v>600.0919209022351</v>
+        <v>1.639595412301189</v>
       </c>
     </row>
     <row r="24">
@@ -1795,22 +1795,22 @@
         <v>2.900065892260021</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7113214507486215</v>
+        <v>3.924267032832302</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8143753786680582</v>
+        <v>2.92541900753654</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9992215139936157</v>
+        <v>2.501293857382314</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8577334545044899</v>
+        <v>2.345505125562934</v>
       </c>
       <c r="Q24" t="n">
-        <v>586.954113080666</v>
+        <v>1.625911670583563</v>
       </c>
       <c r="R24" t="n">
-        <v>601.2470608782546</v>
+        <v>1.665504323762478</v>
       </c>
     </row>
     <row r="25">
@@ -1851,22 +1851,22 @@
         <v>2.549518158331745</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7976186816605862</v>
+        <v>2.947695473642415</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8903289911096085</v>
+        <v>2.739126033504044</v>
       </c>
       <c r="O25" t="n">
-        <v>0.947187998761105</v>
+        <v>2.539923837784144</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8368215658618271</v>
+        <v>2.088332943539657</v>
       </c>
       <c r="Q25" t="n">
-        <v>569.2725717809705</v>
+        <v>1.5596508815917</v>
       </c>
       <c r="R25" t="n">
-        <v>575.5666458895098</v>
+        <v>1.576894920245232</v>
       </c>
     </row>
     <row r="26">
@@ -1907,22 +1907,22 @@
         <v>2.68094412433098</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7345429158866248</v>
+        <v>3.577809811038203</v>
       </c>
       <c r="N26" t="n">
-        <v>0.884904036830227</v>
+        <v>2.480416064956683</v>
       </c>
       <c r="O26" t="n">
-        <v>0.969157276464882</v>
+        <v>2.518730834786613</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8632841235309384</v>
+        <v>2.247759967912959</v>
       </c>
       <c r="Q26" t="n">
-        <v>574.3103775230845</v>
+        <v>1.573453089104341</v>
       </c>
       <c r="R26" t="n">
-        <v>583.1727159976363</v>
+        <v>1.597733468486675</v>
       </c>
     </row>
     <row r="27">
@@ -1963,22 +1963,22 @@
         <v>2.803434331036453</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8019242293099731</v>
+        <v>3.671286580113842</v>
       </c>
       <c r="N27" t="n">
-        <v>0.858946007479146</v>
+        <v>3.306029557148057</v>
       </c>
       <c r="O27" t="n">
-        <v>0.9754282910217857</v>
+        <v>2.457026592075422</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8544261914134607</v>
+        <v>1.930183596085665</v>
       </c>
       <c r="Q27" t="n">
-        <v>581.6670371469372</v>
+        <v>1.624768260186976</v>
       </c>
       <c r="R27" t="n">
-        <v>592.0053830678643</v>
+        <v>1.653646321418615</v>
       </c>
     </row>
     <row r="28">
@@ -2019,22 +2019,22 @@
         <v>2.753238651618411</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8154076449665815</v>
+        <v>3.541904404606252</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8806737043844317</v>
+        <v>2.816712838516843</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9930833862087681</v>
+        <v>2.632325011053206</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8531255229432201</v>
+        <v>2.128004939020518</v>
       </c>
       <c r="Q28" t="n">
-        <v>574.8911016321204</v>
+        <v>1.583722043063692</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9665265874834</v>
+        <v>1.597703929993067</v>
       </c>
     </row>
     <row r="29">
@@ -2075,22 +2075,22 @@
         <v>3.075277751036564</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7323228898327119</v>
+        <v>3.801323862030817</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8345466337041885</v>
+        <v>3.322499686895272</v>
       </c>
       <c r="O29" t="n">
-        <v>0.9514543030293695</v>
+        <v>2.783629081374061</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8317406811818222</v>
+        <v>2.501561503901791</v>
       </c>
       <c r="Q29" t="n">
-        <v>620.5753570513041</v>
+        <v>1.70487735453655</v>
       </c>
       <c r="R29" t="n">
-        <v>634.0607375680415</v>
+        <v>1.741925103208905</v>
       </c>
     </row>
     <row r="30">
@@ -2131,22 +2131,22 @@
         <v>2.862207407153265</v>
       </c>
       <c r="M30" t="n">
-        <v>0.716633620109856</v>
+        <v>3.897534569922238</v>
       </c>
       <c r="N30" t="n">
-        <v>0.8336957549370492</v>
+        <v>2.857591664393456</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9692759279658588</v>
+        <v>2.504026305981794</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8697816328782114</v>
+        <v>2.308630114930625</v>
       </c>
       <c r="Q30" t="n">
-        <v>593.8064731878014</v>
+        <v>1.626867049829593</v>
       </c>
       <c r="R30" t="n">
-        <v>606.4725886067522</v>
+        <v>1.66156873590891</v>
       </c>
     </row>
     <row r="31">
@@ -2187,22 +2187,22 @@
         <v>2.870084488238925</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7466147365801364</v>
+        <v>3.526391042592059</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8652881105870293</v>
+        <v>2.976542203318333</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9497837046228694</v>
+        <v>2.762992994743177</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8374435190958676</v>
+        <v>2.333141213482109</v>
       </c>
       <c r="Q31" t="n">
-        <v>593.3979697889215</v>
+        <v>1.630214202716817</v>
       </c>
       <c r="R31" t="n">
-        <v>604.4831505923522</v>
+        <v>1.660667996132836</v>
       </c>
     </row>
     <row r="32">
@@ -2243,22 +2243,22 @@
         <v>2.714546302961692</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7318205697205654</v>
+        <v>3.408245740729203</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8312842999771268</v>
+        <v>2.920159289690133</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9488362220823042</v>
+        <v>2.584929248979891</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8455620798108573</v>
+        <v>2.055184928660052</v>
       </c>
       <c r="Q32" t="n">
-        <v>586.4763570970488</v>
+        <v>1.606784539991915</v>
       </c>
       <c r="R32" t="n">
-        <v>599.4871342479086</v>
+        <v>1.642430504788791</v>
       </c>
     </row>
     <row r="33">
@@ -2299,22 +2299,22 @@
         <v>2.712941544772485</v>
       </c>
       <c r="M33" t="n">
-        <v>0.7640409655024347</v>
+        <v>3.403569009663167</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8804288472768961</v>
+        <v>2.468875076409975</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9561612519165976</v>
+        <v>2.919599169898558</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8121273112098074</v>
+        <v>2.16937558522798</v>
       </c>
       <c r="Q33" t="n">
-        <v>583.9389027103476</v>
+        <v>1.599832610165336</v>
       </c>
       <c r="R33" t="n">
-        <v>594.7110494096003</v>
+        <v>1.62934534084822</v>
       </c>
     </row>
     <row r="34">
@@ -2355,22 +2355,22 @@
         <v>2.800480112443323</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6145390785210835</v>
+        <v>3.509310393278616</v>
       </c>
       <c r="N34" t="n">
-        <v>0.835512671035778</v>
+        <v>2.889077276218905</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9640779963671925</v>
+        <v>2.590998511800164</v>
       </c>
       <c r="P34" t="n">
-        <v>0.8457953836615324</v>
+        <v>2.326810666625121</v>
       </c>
       <c r="Q34" t="n">
-        <v>613.4927201287007</v>
+        <v>1.685419560793134</v>
       </c>
       <c r="R34" t="n">
-        <v>633.3588613176726</v>
+        <v>1.739996871751848</v>
       </c>
     </row>
     <row r="35">
@@ -2411,22 +2411,22 @@
         <v>2.722052408580987</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7371832555341772</v>
+        <v>3.20560224394395</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8670251796487182</v>
+        <v>2.908056971164183</v>
       </c>
       <c r="O35" t="n">
-        <v>0.9538001037330303</v>
+        <v>2.648361854516389</v>
       </c>
       <c r="P35" t="n">
-        <v>0.835166091137011</v>
+        <v>2.2431846355783</v>
       </c>
       <c r="Q35" t="n">
-        <v>574.8819501181335</v>
+        <v>1.570715710705283</v>
       </c>
       <c r="R35" t="n">
-        <v>585.4436314956276</v>
+        <v>1.599572763649256</v>
       </c>
     </row>
     <row r="36">
@@ -2467,22 +2467,22 @@
         <v>2.768240020335483</v>
       </c>
       <c r="M36" t="n">
-        <v>0.6914490349698191</v>
+        <v>3.513981028943502</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8292316175799599</v>
+        <v>3.059113695347655</v>
       </c>
       <c r="O36" t="n">
-        <v>0.9369038043600818</v>
+        <v>2.286349117466235</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8727007808345776</v>
+        <v>2.312760421117458</v>
       </c>
       <c r="Q36" t="n">
-        <v>599.5727897354478</v>
+        <v>1.647177993778703</v>
       </c>
       <c r="R36" t="n">
-        <v>615.4781016579381</v>
+        <v>1.690873905653676</v>
       </c>
     </row>
     <row r="37">
@@ -2523,22 +2523,22 @@
         <v>2.757431272799915</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7169989443253049</v>
+        <v>3.26106827268065</v>
       </c>
       <c r="N37" t="n">
-        <v>0.8629186368334235</v>
+        <v>2.957283135433468</v>
       </c>
       <c r="O37" t="n">
-        <v>0.9231967041356759</v>
+        <v>2.743650568356043</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8218186083153161</v>
+        <v>2.176378750754942</v>
       </c>
       <c r="Q37" t="n">
-        <v>603.9112923134121</v>
+        <v>1.65455148579017</v>
       </c>
       <c r="R37" t="n">
-        <v>618.9005516067369</v>
+        <v>1.695617949607499</v>
       </c>
     </row>
     <row r="38">
@@ -2579,22 +2579,22 @@
         <v>2.692946954663576</v>
       </c>
       <c r="M38" t="n">
-        <v>0.716508271474608</v>
+        <v>3.388031539787426</v>
       </c>
       <c r="N38" t="n">
-        <v>0.848190184595681</v>
+        <v>2.753476901277061</v>
       </c>
       <c r="O38" t="n">
-        <v>0.9250854438450066</v>
+        <v>2.595245850461791</v>
       </c>
       <c r="P38" t="n">
-        <v>0.8326821619338748</v>
+        <v>2.14308744677194</v>
       </c>
       <c r="Q38" t="n">
-        <v>605.8071693618397</v>
+        <v>1.659745669484492</v>
       </c>
       <c r="R38" t="n">
-        <v>620.853271489585</v>
+        <v>1.700967867094753</v>
       </c>
     </row>
     <row r="39">
@@ -2635,22 +2635,22 @@
         <v>2.840481604612617</v>
       </c>
       <c r="M39" t="n">
-        <v>0.6834580978470565</v>
+        <v>3.557796926739151</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8768081379283413</v>
+        <v>3.035235676224395</v>
       </c>
       <c r="O39" t="n">
-        <v>0.9445799959172786</v>
+        <v>2.579036237423019</v>
       </c>
       <c r="P39" t="n">
-        <v>0.8232316495938012</v>
+        <v>2.299393537894237</v>
       </c>
       <c r="Q39" t="n">
-        <v>616.3442032845895</v>
+        <v>1.684000555422376</v>
       </c>
       <c r="R39" t="n">
-        <v>631.3112718580384</v>
+        <v>1.724894185404476</v>
       </c>
     </row>
     <row r="40">
@@ -2691,22 +2691,22 @@
         <v>2.96262479918001</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7611954886540551</v>
+        <v>3.598574665190041</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7658346586327652</v>
+        <v>3.162312062626538</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9047666091677596</v>
+        <v>2.86197670263052</v>
       </c>
       <c r="P40" t="n">
-        <v>0.8376794145211441</v>
+        <v>2.330622813273051</v>
       </c>
       <c r="Q40" t="n">
-        <v>639.4484663168415</v>
+        <v>1.756726555815499</v>
       </c>
       <c r="R40" t="n">
-        <v>659.4671376001282</v>
+        <v>1.811722905494858</v>
       </c>
     </row>
     <row r="41">
@@ -2747,22 +2747,22 @@
         <v>2.9896739255263</v>
       </c>
       <c r="M41" t="n">
-        <v>0.700711258702303</v>
+        <v>3.631456296494126</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8410537175049672</v>
+        <v>3.360283732933324</v>
       </c>
       <c r="O41" t="n">
-        <v>0.9205936633517449</v>
+        <v>2.702663487068656</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8231140925584263</v>
+        <v>2.377800100336055</v>
       </c>
       <c r="Q41" t="n">
-        <v>641.9076186184174</v>
+        <v>1.758651009913472</v>
       </c>
       <c r="R41" t="n">
-        <v>658.9264303125334</v>
+        <v>1.805277891267215</v>
       </c>
     </row>
     <row r="42">
@@ -2803,22 +2803,22 @@
         <v>2.822169430377802</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7237902112665066</v>
+        <v>3.676237665097631</v>
       </c>
       <c r="N42" t="n">
-        <v>0.8718561832770807</v>
+        <v>2.961819388145139</v>
       </c>
       <c r="O42" t="n">
-        <v>0.9524953442418894</v>
+        <v>2.553104063092391</v>
       </c>
       <c r="P42" t="n">
-        <v>0.8302012185837143</v>
+        <v>2.212559189610972</v>
       </c>
       <c r="Q42" t="n">
-        <v>616.2311654469357</v>
+        <v>1.688304562868317</v>
       </c>
       <c r="R42" t="n">
-        <v>629.9901318863641</v>
+        <v>1.726000361332504</v>
       </c>
     </row>
     <row r="43">
@@ -2859,22 +2859,22 @@
         <v>2.865142928503761</v>
       </c>
       <c r="M43" t="n">
-        <v>0.726086679170543</v>
+        <v>3.462542215519905</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8024238444853613</v>
+        <v>2.976151805320743</v>
       </c>
       <c r="O43" t="n">
-        <v>0.9012231209055106</v>
+        <v>2.897676796344169</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8051547969303618</v>
+        <v>2.241731799490808</v>
       </c>
       <c r="Q43" t="n">
-        <v>631.1341112734406</v>
+        <v>1.724410140091368</v>
       </c>
       <c r="R43" t="n">
-        <v>650.9957326116834</v>
+        <v>1.778676865059244</v>
       </c>
     </row>
     <row r="44">
@@ -2915,22 +2915,22 @@
         <v>3.1017882248557</v>
       </c>
       <c r="M44" t="n">
-        <v>0.6702130971208853</v>
+        <v>3.710883451063527</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7851470141099487</v>
+        <v>3.212352566019305</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8565573278734528</v>
+        <v>3.088830148566384</v>
       </c>
       <c r="P44" t="n">
-        <v>0.7482047678162723</v>
+        <v>2.50788386219829</v>
       </c>
       <c r="Q44" t="n">
-        <v>653.713617106318</v>
+        <v>1.790996211250186</v>
       </c>
       <c r="R44" t="n">
-        <v>683.8417101166365</v>
+        <v>1.873538931826401</v>
       </c>
     </row>
     <row r="45">
@@ -2971,22 +2971,22 @@
         <v>2.879589028282891</v>
       </c>
       <c r="M45" t="n">
-        <v>0.6110703966786569</v>
+        <v>3.640552570039351</v>
       </c>
       <c r="N45" t="n">
-        <v>0.806277641228609</v>
+        <v>2.902225717831132</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8883337142400606</v>
+        <v>2.535301308246902</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7997103266502619</v>
+        <v>2.565799153517238</v>
       </c>
       <c r="Q45" t="n">
-        <v>643.7818270862857</v>
+        <v>1.76378582763366</v>
       </c>
       <c r="R45" t="n">
-        <v>670.0432731131189</v>
+        <v>1.835734994830463</v>
       </c>
     </row>
     <row r="46">
@@ -3027,22 +3027,22 @@
         <v>2.97000141407357</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6836556877032937</v>
+        <v>3.453473284722798</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7911853976139631</v>
+        <v>3.211321704989456</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8649442738320225</v>
+        <v>2.923314271278895</v>
       </c>
       <c r="P46" t="n">
-        <v>0.7835302115225248</v>
+        <v>2.405685079406461</v>
       </c>
       <c r="Q46" t="n">
-        <v>635.4809662545001</v>
+        <v>1.741043743163014</v>
       </c>
       <c r="R46" t="n">
-        <v>660.6161940282731</v>
+        <v>1.809907380899378</v>
       </c>
     </row>
     <row r="47">
@@ -3083,22 +3083,22 @@
         <v>3.043426151921222</v>
       </c>
       <c r="M47" t="n">
-        <v>0.673914219984024</v>
+        <v>3.855121066419704</v>
       </c>
       <c r="N47" t="n">
-        <v>0.784662623523441</v>
+        <v>3.091634498059561</v>
       </c>
       <c r="O47" t="n">
-        <v>0.9088923610909536</v>
+        <v>2.775522696775413</v>
       </c>
       <c r="P47" t="n">
-        <v>0.7715954076336865</v>
+        <v>2.57377679785616</v>
       </c>
       <c r="Q47" t="n">
-        <v>639.0242021653038</v>
+        <v>1.745967765478972</v>
       </c>
       <c r="R47" t="n">
-        <v>665.0277871244216</v>
+        <v>1.81701581181536</v>
       </c>
     </row>
     <row r="48">
@@ -3139,22 +3139,22 @@
         <v>3.060387905703198</v>
       </c>
       <c r="M48" t="n">
-        <v>0.6281078906444425</v>
+        <v>3.644763878427873</v>
       </c>
       <c r="N48" t="n">
-        <v>0.7974622222706828</v>
+        <v>3.284591521766065</v>
       </c>
       <c r="O48" t="n">
-        <v>0.9156319579821705</v>
+        <v>2.83381101909759</v>
       </c>
       <c r="P48" t="n">
-        <v>0.7801006138241533</v>
+        <v>2.599557123167284</v>
       </c>
       <c r="Q48" t="n">
-        <v>647.8208644841716</v>
+        <v>1.774851683518278</v>
       </c>
       <c r="R48" t="n">
-        <v>674.2390317684823</v>
+        <v>1.847230224023239</v>
       </c>
     </row>
     <row r="49">
@@ -3195,22 +3195,22 @@
         <v>3.145717226809</v>
       </c>
       <c r="M49" t="n">
-        <v>0.7498306306037833</v>
+        <v>4.039720658725763</v>
       </c>
       <c r="N49" t="n">
-        <v>0.8254797080331205</v>
+        <v>3.196034537774505</v>
       </c>
       <c r="O49" t="n">
-        <v>0.96005619470203</v>
+        <v>2.975970880552394</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8629229797511606</v>
+        <v>2.489407590216115</v>
       </c>
       <c r="Q49" t="n">
-        <v>628.957230482663</v>
+        <v>1.723170494473049</v>
       </c>
       <c r="R49" t="n">
-        <v>640.658812922686</v>
+        <v>1.755229624445715</v>
       </c>
     </row>
     <row r="50">
@@ -3251,22 +3251,22 @@
         <v>2.954776691604247</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7724382506951364</v>
+        <v>3.963184117396458</v>
       </c>
       <c r="N50" t="n">
-        <v>0.8898472986001731</v>
+        <v>2.988789142945137</v>
       </c>
       <c r="O50" t="n">
-        <v>0.9894801578679939</v>
+        <v>2.764635450887255</v>
       </c>
       <c r="P50" t="n">
-        <v>0.8836085684049801</v>
+        <v>2.222569556896126</v>
       </c>
       <c r="Q50" t="n">
-        <v>612.0965671083139</v>
+        <v>1.676976896187161</v>
       </c>
       <c r="R50" t="n">
-        <v>616.983629561342</v>
+        <v>1.690366108387238</v>
       </c>
     </row>
     <row r="51">
@@ -3307,22 +3307,22 @@
         <v>2.868291124553256</v>
       </c>
       <c r="M51" t="n">
-        <v>0.8263219947169055</v>
+        <v>3.401035988599496</v>
       </c>
       <c r="N51" t="n">
-        <v>0.9172672198162783</v>
+        <v>3.215913108673222</v>
       </c>
       <c r="O51" t="n">
-        <v>0.9599467722303719</v>
+        <v>2.820306538092809</v>
       </c>
       <c r="P51" t="n">
-        <v>0.8886913526191406</v>
+        <v>2.157434263066817</v>
       </c>
       <c r="Q51" t="n">
-        <v>621.885646915768</v>
+        <v>1.699141111791716</v>
       </c>
       <c r="R51" t="n">
-        <v>622.5096805984847</v>
+        <v>1.700846121853783</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56739_腾冲.xlsx
+++ b/my_work/data1/YearMeanER56739_腾冲.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,26 @@
           <t>ET0_ET0_PMT_CF</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>s11_ET0</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>s22_ET0</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>s33_ET0</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>s44_ET0</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +600,18 @@
       <c r="R2" t="n">
         <v>1.643222170460179</v>
       </c>
+      <c r="S2" t="n">
+        <v>3.34520681300867</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.938410353186093</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.545674991973935</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.151063582266716</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +668,18 @@
       <c r="R3" t="n">
         <v>1.691422423424257</v>
       </c>
+      <c r="S3" t="n">
+        <v>3.29310411871595</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.596089870664305</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.649197696574956</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.315540233910379</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +736,18 @@
       <c r="R4" t="n">
         <v>1.760201800103151</v>
       </c>
+      <c r="S4" t="n">
+        <v>3.767765873763431</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.805403708117477</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.682478737611918</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.505849567553529</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -748,6 +804,18 @@
       <c r="R5" t="n">
         <v>1.638969854375397</v>
       </c>
+      <c r="S5" t="n">
+        <v>3.5349440911606</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.894635552147142</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.489287128632587</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.401292533569865</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +872,18 @@
       <c r="R6" t="n">
         <v>1.62549358187965</v>
       </c>
+      <c r="S6" t="n">
+        <v>3.851532712742213</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.883080639121343</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.63857217118708</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.260479912578004</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -860,6 +940,18 @@
       <c r="R7" t="n">
         <v>1.644941267692175</v>
       </c>
+      <c r="S7" t="n">
+        <v>3.793082795849979</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.211689389802839</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.905218511954005</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.327884418665148</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -916,6 +1008,18 @@
       <c r="R8" t="n">
         <v>1.675094567708145</v>
       </c>
+      <c r="S8" t="n">
+        <v>3.81703571841627</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.133312831151159</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.650264296984254</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.394082808722463</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -972,6 +1076,18 @@
       <c r="R9" t="n">
         <v>1.599037426448598</v>
       </c>
+      <c r="S9" t="n">
+        <v>3.487100800512053</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.600123414072604</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.517160103231263</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.417419164754994</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1028,6 +1144,18 @@
       <c r="R10" t="n">
         <v>1.660751829026938</v>
       </c>
+      <c r="S10" t="n">
+        <v>3.796704361936376</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.977193573956419</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.518225748808207</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.287985803903588</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1084,6 +1212,18 @@
       <c r="R11" t="n">
         <v>1.560448659639225</v>
       </c>
+      <c r="S11" t="n">
+        <v>3.521268831706958</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.951900333309365</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.578631018440817</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.116236963970557</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1280,18 @@
       <c r="R12" t="n">
         <v>1.561795594228774</v>
       </c>
+      <c r="S12" t="n">
+        <v>3.19717333171441</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.413052718694731</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.51180187227887</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.160812005497924</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1196,6 +1348,18 @@
       <c r="R13" t="n">
         <v>1.737031718895332</v>
       </c>
+      <c r="S13" t="n">
+        <v>3.553734723486928</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.096644438163248</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.685961149639374</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.364744042980369</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1252,6 +1416,18 @@
       <c r="R14" t="n">
         <v>1.740893357329067</v>
       </c>
+      <c r="S14" t="n">
+        <v>3.870371212182666</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.990467629568519</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.439359099279023</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.27872185291739</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1308,6 +1484,18 @@
       <c r="R15" t="n">
         <v>1.707047814332276</v>
       </c>
+      <c r="S15" t="n">
+        <v>3.64930280812619</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.873498840384305</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.593585280099133</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.242495687837772</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1364,6 +1552,18 @@
       <c r="R16" t="n">
         <v>1.681220131667426</v>
       </c>
+      <c r="S16" t="n">
+        <v>3.226380887874561</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.736677059872041</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.647158029718819</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.225777326633028</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1420,6 +1620,18 @@
       <c r="R17" t="n">
         <v>1.619767032766354</v>
       </c>
+      <c r="S17" t="n">
+        <v>3.319373112583567</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.529858854256014</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.592005873327907</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.950654362086411</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1476,6 +1688,18 @@
       <c r="R18" t="n">
         <v>1.587727493884569</v>
       </c>
+      <c r="S18" t="n">
+        <v>3.061849637955018</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.53772269975043</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.495866083952209</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.842907424830648</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1532,6 +1756,18 @@
       <c r="R19" t="n">
         <v>1.606539206545277</v>
       </c>
+      <c r="S19" t="n">
+        <v>3.122345818077003</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.427354507855712</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.344829638149008</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.21187978193163</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1588,6 +1824,18 @@
       <c r="R20" t="n">
         <v>1.629373349179284</v>
       </c>
+      <c r="S20" t="n">
+        <v>2.999545349136596</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.573741529306127</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.401243651121262</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.022565555046986</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1644,6 +1892,18 @@
       <c r="R21" t="n">
         <v>1.672558230746346</v>
       </c>
+      <c r="S21" t="n">
+        <v>3.417427038834949</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.84914135463406</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.37302598314756</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.173335959947835</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1700,6 +1960,18 @@
       <c r="R22" t="n">
         <v>1.612066773399305</v>
       </c>
+      <c r="S22" t="n">
+        <v>3.654198617100263</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.443946842837974</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.613049500999519</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.341091927324599</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1756,6 +2028,18 @@
       <c r="R23" t="n">
         <v>1.639595412301189</v>
       </c>
+      <c r="S23" t="n">
+        <v>3.435090139995062</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.7759044751873</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.463531288132177</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.432579297367724</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1812,6 +2096,18 @@
       <c r="R24" t="n">
         <v>1.665504323762478</v>
       </c>
+      <c r="S24" t="n">
+        <v>3.924267032832302</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.92541900753654</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.501293857382314</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.345505125562934</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1868,6 +2164,18 @@
       <c r="R25" t="n">
         <v>1.576894920245232</v>
       </c>
+      <c r="S25" t="n">
+        <v>2.947695473642415</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.739126033504044</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.539923837784144</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.088332943539657</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1924,6 +2232,18 @@
       <c r="R26" t="n">
         <v>1.597733468486675</v>
       </c>
+      <c r="S26" t="n">
+        <v>3.577809811038203</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.480416064956683</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.518730834786613</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.247759967912959</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1980,6 +2300,18 @@
       <c r="R27" t="n">
         <v>1.653646321418615</v>
       </c>
+      <c r="S27" t="n">
+        <v>3.671286580113842</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.306029557148057</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.457026592075422</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.930183596085665</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2036,6 +2368,18 @@
       <c r="R28" t="n">
         <v>1.597703929993067</v>
       </c>
+      <c r="S28" t="n">
+        <v>3.541904404606252</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.816712838516843</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.632325011053206</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.128004939020518</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2092,6 +2436,18 @@
       <c r="R29" t="n">
         <v>1.741925103208905</v>
       </c>
+      <c r="S29" t="n">
+        <v>3.801323862030817</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.322499686895272</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.783629081374061</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.501561503901791</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2148,6 +2504,18 @@
       <c r="R30" t="n">
         <v>1.66156873590891</v>
       </c>
+      <c r="S30" t="n">
+        <v>3.897534569922238</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.857591664393456</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.504026305981794</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.308630114930625</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2204,6 +2572,18 @@
       <c r="R31" t="n">
         <v>1.660667996132836</v>
       </c>
+      <c r="S31" t="n">
+        <v>3.526391042592059</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.976542203318333</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.762992994743177</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.333141213482109</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2260,6 +2640,18 @@
       <c r="R32" t="n">
         <v>1.642430504788791</v>
       </c>
+      <c r="S32" t="n">
+        <v>3.408245740729203</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.920159289690133</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.584929248979891</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.055184928660052</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2316,6 +2708,18 @@
       <c r="R33" t="n">
         <v>1.62934534084822</v>
       </c>
+      <c r="S33" t="n">
+        <v>3.403569009663167</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.468875076409975</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.919599169898558</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.16937558522798</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2372,6 +2776,18 @@
       <c r="R34" t="n">
         <v>1.739996871751848</v>
       </c>
+      <c r="S34" t="n">
+        <v>3.509310393278616</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.889077276218905</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.590998511800164</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.326810666625121</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2428,6 +2844,18 @@
       <c r="R35" t="n">
         <v>1.599572763649256</v>
       </c>
+      <c r="S35" t="n">
+        <v>3.20560224394395</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.908056971164183</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.648361854516389</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.2431846355783</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2484,6 +2912,18 @@
       <c r="R36" t="n">
         <v>1.690873905653676</v>
       </c>
+      <c r="S36" t="n">
+        <v>3.513981028943502</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.059113695347655</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.286349117466235</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.312760421117458</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2540,6 +2980,18 @@
       <c r="R37" t="n">
         <v>1.695617949607499</v>
       </c>
+      <c r="S37" t="n">
+        <v>3.26106827268065</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.957283135433468</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.743650568356043</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.176378750754942</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2596,6 +3048,18 @@
       <c r="R38" t="n">
         <v>1.700967867094753</v>
       </c>
+      <c r="S38" t="n">
+        <v>3.388031539787426</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.753476901277061</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.595245850461791</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.14308744677194</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2652,6 +3116,18 @@
       <c r="R39" t="n">
         <v>1.724894185404476</v>
       </c>
+      <c r="S39" t="n">
+        <v>3.557796926739151</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.035235676224395</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.579036237423019</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.299393537894237</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2708,6 +3184,18 @@
       <c r="R40" t="n">
         <v>1.811722905494858</v>
       </c>
+      <c r="S40" t="n">
+        <v>3.598574665190041</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.162312062626538</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.86197670263052</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.330622813273051</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2764,6 +3252,18 @@
       <c r="R41" t="n">
         <v>1.805277891267215</v>
       </c>
+      <c r="S41" t="n">
+        <v>3.631456296494126</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.360283732933324</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.702663487068656</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.377800100336055</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2820,6 +3320,18 @@
       <c r="R42" t="n">
         <v>1.726000361332504</v>
       </c>
+      <c r="S42" t="n">
+        <v>3.676237665097631</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.961819388145139</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.553104063092391</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.212559189610972</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2876,6 +3388,18 @@
       <c r="R43" t="n">
         <v>1.778676865059244</v>
       </c>
+      <c r="S43" t="n">
+        <v>3.462542215519905</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.976151805320743</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.897676796344169</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.241731799490808</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2932,6 +3456,18 @@
       <c r="R44" t="n">
         <v>1.873538931826401</v>
       </c>
+      <c r="S44" t="n">
+        <v>3.710883451063527</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.212352566019305</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3.088830148566384</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.50788386219829</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2988,6 +3524,18 @@
       <c r="R45" t="n">
         <v>1.835734994830463</v>
       </c>
+      <c r="S45" t="n">
+        <v>3.640552570039351</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.902225717831132</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.535301308246902</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.565799153517238</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3044,6 +3592,18 @@
       <c r="R46" t="n">
         <v>1.809907380899378</v>
       </c>
+      <c r="S46" t="n">
+        <v>3.453473284722798</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.211321704989456</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.923314271278895</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.405685079406461</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3100,6 +3660,18 @@
       <c r="R47" t="n">
         <v>1.81701581181536</v>
       </c>
+      <c r="S47" t="n">
+        <v>3.855121066419704</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.091634498059561</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.775522696775413</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.57377679785616</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3156,6 +3728,18 @@
       <c r="R48" t="n">
         <v>1.847230224023239</v>
       </c>
+      <c r="S48" t="n">
+        <v>3.644763878427873</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.284591521766065</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.83381101909759</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.599557123167284</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3212,6 +3796,18 @@
       <c r="R49" t="n">
         <v>1.755229624445715</v>
       </c>
+      <c r="S49" t="n">
+        <v>4.039720658725763</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.196034537774505</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.975970880552394</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.489407590216115</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3268,6 +3864,18 @@
       <c r="R50" t="n">
         <v>1.690366108387238</v>
       </c>
+      <c r="S50" t="n">
+        <v>3.963184117396458</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.988789142945137</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.764635450887255</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.222569556896126</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3323,6 +3931,18 @@
       </c>
       <c r="R51" t="n">
         <v>1.700846121853783</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.401035988599496</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.215913108673222</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.820306538092809</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.157434263066817</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56739_腾冲.xlsx
+++ b/my_work/data1/YearMeanER56739_腾冲.xlsx
@@ -601,16 +601,16 @@
         <v>1.643222170460179</v>
       </c>
       <c r="S2" t="n">
-        <v>3.34520681300867</v>
+        <v>228.0593528634064</v>
       </c>
       <c r="T2" t="n">
-        <v>2.938410353186093</v>
+        <v>298.6535169542042</v>
       </c>
       <c r="U2" t="n">
-        <v>2.545674991973935</v>
+        <v>270.0854331414754</v>
       </c>
       <c r="V2" t="n">
-        <v>2.151063582266716</v>
+        <v>204.0009480124906</v>
       </c>
     </row>
     <row r="3">
@@ -669,16 +669,16 @@
         <v>1.691422423424257</v>
       </c>
       <c r="S3" t="n">
-        <v>3.29310411871595</v>
+        <v>399.743277327961</v>
       </c>
       <c r="T3" t="n">
-        <v>2.596089870664305</v>
+        <v>580.0199777570075</v>
       </c>
       <c r="U3" t="n">
-        <v>2.649197696574956</v>
+        <v>514.4650448194944</v>
       </c>
       <c r="V3" t="n">
-        <v>2.315540233910379</v>
+        <v>417.4058467726055</v>
       </c>
     </row>
     <row r="4">
@@ -737,16 +737,16 @@
         <v>1.760201800103151</v>
       </c>
       <c r="S4" t="n">
-        <v>3.767765873763431</v>
+        <v>665.9096507999452</v>
       </c>
       <c r="T4" t="n">
-        <v>2.805403708117477</v>
+        <v>893.9186403931737</v>
       </c>
       <c r="U4" t="n">
-        <v>2.682478737611918</v>
+        <v>784.5036396555603</v>
       </c>
       <c r="V4" t="n">
-        <v>2.505849567553529</v>
+        <v>628.006507935952</v>
       </c>
     </row>
     <row r="5">
@@ -805,16 +805,16 @@
         <v>1.638969854375397</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5349440911606</v>
+        <v>922.2892520511887</v>
       </c>
       <c r="T5" t="n">
-        <v>2.894635552147142</v>
+        <v>1208.773694327275</v>
       </c>
       <c r="U5" t="n">
-        <v>2.489287128632587</v>
+        <v>1040.968249472405</v>
       </c>
       <c r="V5" t="n">
-        <v>2.401292533569865</v>
+        <v>822.7085289578813</v>
       </c>
     </row>
     <row r="6">
@@ -873,16 +873,16 @@
         <v>1.62549358187965</v>
       </c>
       <c r="S6" t="n">
-        <v>3.851532712742213</v>
+        <v>1192.6521324528</v>
       </c>
       <c r="T6" t="n">
-        <v>2.883080639121343</v>
+        <v>1518.78265954888</v>
       </c>
       <c r="U6" t="n">
-        <v>2.63857217118708</v>
+        <v>1308.375051573582</v>
       </c>
       <c r="V6" t="n">
-        <v>2.260479912578004</v>
+        <v>1024.108837838283</v>
       </c>
     </row>
     <row r="7">
@@ -941,16 +941,16 @@
         <v>1.644941267692175</v>
       </c>
       <c r="S7" t="n">
-        <v>3.793082795849979</v>
+        <v>1453.302778035043</v>
       </c>
       <c r="T7" t="n">
-        <v>3.211689389802839</v>
+        <v>1857.308294420482</v>
       </c>
       <c r="U7" t="n">
-        <v>2.905218511954005</v>
+        <v>1592.968416227184</v>
       </c>
       <c r="V7" t="n">
-        <v>2.327884418665148</v>
+        <v>1249.356935061606</v>
       </c>
     </row>
     <row r="8">
@@ -1009,16 +1009,16 @@
         <v>1.675094567708145</v>
       </c>
       <c r="S8" t="n">
-        <v>3.81703571841627</v>
+        <v>1728.990476438419</v>
       </c>
       <c r="T8" t="n">
-        <v>3.133312831151159</v>
+        <v>2164.23158997479</v>
       </c>
       <c r="U8" t="n">
-        <v>2.650264296984254</v>
+        <v>1892.479923483097</v>
       </c>
       <c r="V8" t="n">
-        <v>2.394082808722463</v>
+        <v>1451.07012910253</v>
       </c>
     </row>
     <row r="9">
@@ -1077,16 +1077,16 @@
         <v>1.599037426448598</v>
       </c>
       <c r="S9" t="n">
-        <v>3.487100800512053</v>
+        <v>1988.969093371845</v>
       </c>
       <c r="T9" t="n">
-        <v>2.600123414072604</v>
+        <v>2467.180471767797</v>
       </c>
       <c r="U9" t="n">
-        <v>2.517160103231263</v>
+        <v>2123.870531879862</v>
       </c>
       <c r="V9" t="n">
-        <v>2.417419164754994</v>
+        <v>1651.41124828784</v>
       </c>
     </row>
     <row r="10">
@@ -1145,16 +1145,16 @@
         <v>1.660751829026938</v>
       </c>
       <c r="S10" t="n">
-        <v>3.796704361936376</v>
+        <v>2256.490973019927</v>
       </c>
       <c r="T10" t="n">
-        <v>2.977193573956419</v>
+        <v>2779.596398323187</v>
       </c>
       <c r="U10" t="n">
-        <v>2.518225748808207</v>
+        <v>2400.392288886747</v>
       </c>
       <c r="V10" t="n">
-        <v>2.287985803903588</v>
+        <v>1842.205757189914</v>
       </c>
     </row>
     <row r="11">
@@ -1213,16 +1213,16 @@
         <v>1.560448659639225</v>
       </c>
       <c r="S11" t="n">
-        <v>3.521268831706958</v>
+        <v>2491.534832927744</v>
       </c>
       <c r="T11" t="n">
-        <v>2.951900333309365</v>
+        <v>3075.270010022546</v>
       </c>
       <c r="U11" t="n">
-        <v>2.578631018440817</v>
+        <v>2680.343824591052</v>
       </c>
       <c r="V11" t="n">
-        <v>2.116236963970557</v>
+        <v>2042.721189970767</v>
       </c>
     </row>
     <row r="12">
@@ -1281,16 +1281,16 @@
         <v>1.561795594228774</v>
       </c>
       <c r="S12" t="n">
-        <v>3.19717333171441</v>
+        <v>2735.699973963921</v>
       </c>
       <c r="T12" t="n">
-        <v>2.413052718694731</v>
+        <v>3334.314545101434</v>
       </c>
       <c r="U12" t="n">
-        <v>2.51180187227887</v>
+        <v>2914.329872528559</v>
       </c>
       <c r="V12" t="n">
-        <v>2.160812005497924</v>
+        <v>2233.545276280599</v>
       </c>
     </row>
     <row r="13">
@@ -1349,16 +1349,16 @@
         <v>1.737031718895332</v>
       </c>
       <c r="S13" t="n">
-        <v>3.553734723486928</v>
+        <v>2996.577625277859</v>
       </c>
       <c r="T13" t="n">
-        <v>3.096644438163248</v>
+        <v>3633.309409870688</v>
       </c>
       <c r="U13" t="n">
-        <v>2.685961149639374</v>
+        <v>3189.900916245479</v>
       </c>
       <c r="V13" t="n">
-        <v>2.364744042980369</v>
+        <v>2456.903187909533</v>
       </c>
     </row>
     <row r="14">
@@ -1417,16 +1417,16 @@
         <v>1.740893357329067</v>
       </c>
       <c r="S14" t="n">
-        <v>3.870371212182666</v>
+        <v>3254.195962378479</v>
       </c>
       <c r="T14" t="n">
-        <v>2.990467629568519</v>
+        <v>3971.141338167967</v>
       </c>
       <c r="U14" t="n">
-        <v>2.439359099279023</v>
+        <v>3447.322887014415</v>
       </c>
       <c r="V14" t="n">
-        <v>2.27872185291739</v>
+        <v>2650.593685626495</v>
       </c>
     </row>
     <row r="15">
@@ -1485,16 +1485,16 @@
         <v>1.707047814332276</v>
       </c>
       <c r="S15" t="n">
-        <v>3.64930280812619</v>
+        <v>3491.236449411113</v>
       </c>
       <c r="T15" t="n">
-        <v>2.873498840384305</v>
+        <v>4295.988344327366</v>
       </c>
       <c r="U15" t="n">
-        <v>2.593585280099133</v>
+        <v>3711.210117003671</v>
       </c>
       <c r="V15" t="n">
-        <v>2.242495687837772</v>
+        <v>2853.421162396488</v>
       </c>
     </row>
     <row r="16">
@@ -1553,16 +1553,16 @@
         <v>1.681220131667426</v>
       </c>
       <c r="S16" t="n">
-        <v>3.226380887874561</v>
+        <v>3722.662866333503</v>
       </c>
       <c r="T16" t="n">
-        <v>2.736677059872041</v>
+        <v>4582.340552456583</v>
       </c>
       <c r="U16" t="n">
-        <v>2.647158029718819</v>
+        <v>3974.512672912585</v>
       </c>
       <c r="V16" t="n">
-        <v>2.225777326633028</v>
+        <v>3048.057093053717</v>
       </c>
     </row>
     <row r="17">
@@ -1621,16 +1621,16 @@
         <v>1.619767032766354</v>
       </c>
       <c r="S17" t="n">
-        <v>3.319373112583567</v>
+        <v>3949.087809160232</v>
       </c>
       <c r="T17" t="n">
-        <v>2.529858854256014</v>
+        <v>4853.733822280225</v>
       </c>
       <c r="U17" t="n">
-        <v>2.592005873327907</v>
+        <v>4215.716387224804</v>
       </c>
       <c r="V17" t="n">
-        <v>1.950654362086411</v>
+        <v>3245.167934923552</v>
       </c>
     </row>
     <row r="18">
@@ -1689,16 +1689,16 @@
         <v>1.587727493884569</v>
       </c>
       <c r="S18" t="n">
-        <v>3.061849637955018</v>
+        <v>4124.522473574523</v>
       </c>
       <c r="T18" t="n">
-        <v>2.53772269975043</v>
+        <v>5143.677807999446</v>
       </c>
       <c r="U18" t="n">
-        <v>2.495866083952209</v>
+        <v>4455.741647031472</v>
       </c>
       <c r="V18" t="n">
-        <v>1.842907424830648</v>
+        <v>3435.675362299598</v>
       </c>
     </row>
     <row r="19">
@@ -1757,16 +1757,16 @@
         <v>1.606539206545277</v>
       </c>
       <c r="S19" t="n">
-        <v>3.122345818077003</v>
+        <v>4381.810738014275</v>
       </c>
       <c r="T19" t="n">
-        <v>2.427354507855712</v>
+        <v>5384.55519978869</v>
       </c>
       <c r="U19" t="n">
-        <v>2.344829638149008</v>
+        <v>4683.214020498058</v>
       </c>
       <c r="V19" t="n">
-        <v>2.21187978193163</v>
+        <v>3625.331973970678</v>
       </c>
     </row>
     <row r="20">
@@ -1825,16 +1825,16 @@
         <v>1.629373349179284</v>
       </c>
       <c r="S20" t="n">
-        <v>2.999545349136596</v>
+        <v>4597.028919911348</v>
       </c>
       <c r="T20" t="n">
-        <v>2.573741529306127</v>
+        <v>5636.980118357628</v>
       </c>
       <c r="U20" t="n">
-        <v>2.401243651121262</v>
+        <v>4919.279180769496</v>
       </c>
       <c r="V20" t="n">
-        <v>2.022565555046986</v>
+        <v>3824.803768510206</v>
       </c>
     </row>
     <row r="21">
@@ -1893,16 +1893,16 @@
         <v>1.672558230746346</v>
       </c>
       <c r="S21" t="n">
-        <v>3.417427038834949</v>
+        <v>4833.530304810572</v>
       </c>
       <c r="T21" t="n">
-        <v>2.84914135463406</v>
+        <v>5939.994879071703</v>
       </c>
       <c r="U21" t="n">
-        <v>2.37302598314756</v>
+        <v>5170.014359638426</v>
       </c>
       <c r="V21" t="n">
-        <v>2.173335959947835</v>
+        <v>4012.625241004244</v>
       </c>
     </row>
     <row r="22">
@@ -1961,16 +1961,16 @@
         <v>1.612066773399305</v>
       </c>
       <c r="S22" t="n">
-        <v>3.654198617100263</v>
+        <v>5076.349783292207</v>
       </c>
       <c r="T22" t="n">
-        <v>2.443946842837974</v>
+        <v>6251.679291334024</v>
       </c>
       <c r="U22" t="n">
-        <v>2.613049500999519</v>
+        <v>5391.763316284561</v>
       </c>
       <c r="V22" t="n">
-        <v>2.341091927324599</v>
+        <v>4235.074623642077</v>
       </c>
     </row>
     <row r="23">
@@ -2029,16 +2029,16 @@
         <v>1.639595412301189</v>
       </c>
       <c r="S23" t="n">
-        <v>3.435090139995062</v>
+        <v>5340.023648593778</v>
       </c>
       <c r="T23" t="n">
-        <v>2.7759044751873</v>
+        <v>6559.157527364132</v>
       </c>
       <c r="U23" t="n">
-        <v>2.463531288132177</v>
+        <v>5616.690343150169</v>
       </c>
       <c r="V23" t="n">
-        <v>2.432579297367724</v>
+        <v>4444.900776433788</v>
       </c>
     </row>
     <row r="24">
@@ -2097,16 +2097,16 @@
         <v>1.665504323762478</v>
       </c>
       <c r="S24" t="n">
-        <v>3.924267032832302</v>
+        <v>5596.902886703384</v>
       </c>
       <c r="T24" t="n">
-        <v>2.92541900753654</v>
+        <v>6901.312992353285</v>
       </c>
       <c r="U24" t="n">
-        <v>2.501293857382314</v>
+        <v>5865.736529371093</v>
       </c>
       <c r="V24" t="n">
-        <v>2.345505125562934</v>
+        <v>4643.743674219972</v>
       </c>
     </row>
     <row r="25">
@@ -2165,16 +2165,16 @@
         <v>1.576894920245232</v>
       </c>
       <c r="S25" t="n">
-        <v>2.947695473642415</v>
+        <v>5800.926114316302</v>
       </c>
       <c r="T25" t="n">
-        <v>2.739126033504044</v>
+        <v>7155.993674493296</v>
       </c>
       <c r="U25" t="n">
-        <v>2.539923837784144</v>
+        <v>6122.848542113531</v>
       </c>
       <c r="V25" t="n">
-        <v>2.088332943539657</v>
+        <v>4858.501879515691</v>
       </c>
     </row>
     <row r="26">
@@ -2233,16 +2233,16 @@
         <v>1.597733468486675</v>
       </c>
       <c r="S26" t="n">
-        <v>3.577809811038203</v>
+        <v>6059.73417513338</v>
       </c>
       <c r="T26" t="n">
-        <v>2.480416064956683</v>
+        <v>7437.744857457146</v>
       </c>
       <c r="U26" t="n">
-        <v>2.518730834786613</v>
+        <v>6354.262225618396</v>
       </c>
       <c r="V26" t="n">
-        <v>2.247759967912959</v>
+        <v>5065.073557610704</v>
       </c>
     </row>
     <row r="27">
@@ -2301,16 +2301,16 @@
         <v>1.653646321418615</v>
       </c>
       <c r="S27" t="n">
-        <v>3.671286580113842</v>
+        <v>6274.075100975581</v>
       </c>
       <c r="T27" t="n">
-        <v>3.306029557148057</v>
+        <v>7764.184300655123</v>
       </c>
       <c r="U27" t="n">
-        <v>2.457026592075422</v>
+        <v>6625.72121762696</v>
       </c>
       <c r="V27" t="n">
-        <v>1.930183596085665</v>
+        <v>5256.463687073021</v>
       </c>
     </row>
     <row r="28">
@@ -2369,16 +2369,16 @@
         <v>1.597703929993067</v>
       </c>
       <c r="S28" t="n">
-        <v>3.541904404606252</v>
+        <v>6496.37926869998</v>
       </c>
       <c r="T28" t="n">
-        <v>2.816712838516843</v>
+        <v>8075.307433525948</v>
       </c>
       <c r="U28" t="n">
-        <v>2.632325011053206</v>
+        <v>6869.240534413572</v>
       </c>
       <c r="V28" t="n">
-        <v>2.128004939020518</v>
+        <v>5478.942700228671</v>
       </c>
     </row>
     <row r="29">
@@ -2437,16 +2437,16 @@
         <v>1.741925103208905</v>
       </c>
       <c r="S29" t="n">
-        <v>3.801323862030817</v>
+        <v>6749.132490696004</v>
       </c>
       <c r="T29" t="n">
-        <v>3.322499686895272</v>
+        <v>8420.251787511526</v>
       </c>
       <c r="U29" t="n">
-        <v>2.783629081374061</v>
+        <v>7170.187744628402</v>
       </c>
       <c r="V29" t="n">
-        <v>2.501561503901791</v>
+        <v>5699.699015409539</v>
       </c>
     </row>
     <row r="30">
@@ -2505,16 +2505,16 @@
         <v>1.66156873590891</v>
       </c>
       <c r="S30" t="n">
-        <v>3.897534569922238</v>
+        <v>7008.019296685831</v>
       </c>
       <c r="T30" t="n">
-        <v>2.857591664393456</v>
+        <v>8733.110418895678</v>
       </c>
       <c r="U30" t="n">
-        <v>2.504026305981794</v>
+        <v>7433.762800182033</v>
       </c>
       <c r="V30" t="n">
-        <v>2.308630114930625</v>
+        <v>5909.084226092878</v>
       </c>
     </row>
     <row r="31">
@@ -2573,16 +2573,16 @@
         <v>1.660667996132836</v>
       </c>
       <c r="S31" t="n">
-        <v>3.526391042592059</v>
+        <v>7249.785396051133</v>
       </c>
       <c r="T31" t="n">
-        <v>2.976542203318333</v>
+        <v>9052.922387192644</v>
       </c>
       <c r="U31" t="n">
-        <v>2.762992994743177</v>
+        <v>7701.265001548706</v>
       </c>
       <c r="V31" t="n">
-        <v>2.333141213482109</v>
+        <v>6124.714710782902</v>
       </c>
     </row>
     <row r="32">
@@ -2641,16 +2641,16 @@
         <v>1.642430504788791</v>
       </c>
       <c r="S32" t="n">
-        <v>3.408245740729203</v>
+        <v>7468.017786775507</v>
       </c>
       <c r="T32" t="n">
-        <v>2.920159289690133</v>
+        <v>9356.184427190266</v>
       </c>
       <c r="U32" t="n">
-        <v>2.584929248979891</v>
+        <v>7958.904303747815</v>
       </c>
       <c r="V32" t="n">
-        <v>2.055184928660052</v>
+        <v>6336.390378442831</v>
       </c>
     </row>
     <row r="33">
@@ -2709,16 +2709,16 @@
         <v>1.62934534084822</v>
       </c>
       <c r="S33" t="n">
-        <v>3.403569009663167</v>
+        <v>7693.516768728695</v>
       </c>
       <c r="T33" t="n">
-        <v>2.468875076409975</v>
+        <v>9646.817283077544</v>
       </c>
       <c r="U33" t="n">
-        <v>2.919599169898558</v>
+        <v>8206.226155163067</v>
       </c>
       <c r="V33" t="n">
-        <v>2.16937558522798</v>
+        <v>6563.160353029059</v>
       </c>
     </row>
     <row r="34">
@@ -2777,16 +2777,16 @@
         <v>1.739996871751848</v>
       </c>
       <c r="S34" t="n">
-        <v>3.509310393278616</v>
+        <v>7951.920640181596</v>
       </c>
       <c r="T34" t="n">
-        <v>2.889077276218905</v>
+        <v>9951.880313928559</v>
       </c>
       <c r="U34" t="n">
-        <v>2.590998511800164</v>
+        <v>8462.348334699425</v>
       </c>
       <c r="V34" t="n">
-        <v>2.326810666625121</v>
+        <v>6762.946032118161</v>
       </c>
     </row>
     <row r="35">
@@ -2845,16 +2845,16 @@
         <v>1.599572763649256</v>
       </c>
       <c r="S35" t="n">
-        <v>3.20560224394395</v>
+        <v>8176.815693107606</v>
       </c>
       <c r="T35" t="n">
-        <v>2.908056971164183</v>
+        <v>10240.07780113013</v>
       </c>
       <c r="U35" t="n">
-        <v>2.648361854516389</v>
+        <v>8725.740361744902</v>
       </c>
       <c r="V35" t="n">
-        <v>2.2431846355783</v>
+        <v>6982.732646485742</v>
       </c>
     </row>
     <row r="36">
@@ -2913,16 +2913,16 @@
         <v>1.690873905653676</v>
       </c>
       <c r="S36" t="n">
-        <v>3.513981028943502</v>
+        <v>8427.722360552834</v>
       </c>
       <c r="T36" t="n">
-        <v>3.059113695347655</v>
+        <v>10541.66889673533</v>
       </c>
       <c r="U36" t="n">
-        <v>2.286349117466235</v>
+        <v>9000.789853568642</v>
       </c>
       <c r="V36" t="n">
-        <v>2.312760421117458</v>
+        <v>7162.824759013683</v>
       </c>
     </row>
     <row r="37">
@@ -2981,16 +2981,16 @@
         <v>1.695617949607499</v>
       </c>
       <c r="S37" t="n">
-        <v>3.26106827268065</v>
+        <v>8665.6029582309</v>
       </c>
       <c r="T37" t="n">
-        <v>2.957283135433468</v>
+        <v>10825.02473969684</v>
       </c>
       <c r="U37" t="n">
-        <v>2.743650568356043</v>
+        <v>9275.207115509</v>
       </c>
       <c r="V37" t="n">
-        <v>2.176378750754942</v>
+        <v>7373.633471005726</v>
       </c>
     </row>
     <row r="38">
@@ -3049,16 +3049,16 @@
         <v>1.700967867094753</v>
       </c>
       <c r="S38" t="n">
-        <v>3.388031539787426</v>
+        <v>8891.664046418484</v>
       </c>
       <c r="T38" t="n">
-        <v>2.753476901277061</v>
+        <v>11118.59231332062</v>
       </c>
       <c r="U38" t="n">
-        <v>2.595245850461791</v>
+        <v>9538.01234180808</v>
       </c>
       <c r="V38" t="n">
-        <v>2.14308744677194</v>
+        <v>7574.125221347491</v>
       </c>
     </row>
     <row r="39">
@@ -3117,16 +3117,16 @@
         <v>1.724894185404476</v>
       </c>
       <c r="S39" t="n">
-        <v>3.557796926739151</v>
+        <v>9164.12363499672</v>
       </c>
       <c r="T39" t="n">
-        <v>3.035235676224395</v>
+        <v>11411.11035701817</v>
       </c>
       <c r="U39" t="n">
-        <v>2.579036237423019</v>
+        <v>9794.952484319867</v>
       </c>
       <c r="V39" t="n">
-        <v>2.299393537894237</v>
+        <v>7791.823713848135</v>
       </c>
     </row>
     <row r="40">
@@ -3185,16 +3185,16 @@
         <v>1.811722905494858</v>
       </c>
       <c r="S40" t="n">
-        <v>3.598574665190041</v>
+        <v>9391.759318468741</v>
       </c>
       <c r="T40" t="n">
-        <v>3.162312062626538</v>
+        <v>11754.29501021223</v>
       </c>
       <c r="U40" t="n">
-        <v>2.86197670263052</v>
+        <v>10083.27737341414</v>
       </c>
       <c r="V40" t="n">
-        <v>2.330622813273051</v>
+        <v>8011.073914989306</v>
       </c>
     </row>
     <row r="41">
@@ -3253,16 +3253,16 @@
         <v>1.805277891267215</v>
       </c>
       <c r="S41" t="n">
-        <v>3.631456296494126</v>
+        <v>9652.532838966325</v>
       </c>
       <c r="T41" t="n">
-        <v>3.360283732933324</v>
+        <v>12067.02967887522</v>
       </c>
       <c r="U41" t="n">
-        <v>2.702663487068656</v>
+        <v>10380.51127218604</v>
       </c>
       <c r="V41" t="n">
-        <v>2.377800100336055</v>
+        <v>8231.562809873943</v>
       </c>
     </row>
     <row r="42">
@@ -3321,16 +3321,16 @@
         <v>1.726000361332504</v>
       </c>
       <c r="S42" t="n">
-        <v>3.676237665097631</v>
+        <v>9909.774713307688</v>
       </c>
       <c r="T42" t="n">
-        <v>2.961819388145139</v>
+        <v>12374.57986331998</v>
       </c>
       <c r="U42" t="n">
-        <v>2.553104063092391</v>
+        <v>10637.15381538289</v>
       </c>
       <c r="V42" t="n">
-        <v>2.212559189610972</v>
+        <v>8440.220049978854</v>
       </c>
     </row>
     <row r="43">
@@ -3389,16 +3389,16 @@
         <v>1.778676865059244</v>
       </c>
       <c r="S43" t="n">
-        <v>3.462542215519905</v>
+        <v>10147.7340797142</v>
       </c>
       <c r="T43" t="n">
-        <v>2.976151805320743</v>
+        <v>12688.33326257301</v>
       </c>
       <c r="U43" t="n">
-        <v>2.897676796344169</v>
+        <v>10916.42317958265</v>
       </c>
       <c r="V43" t="n">
-        <v>2.241731799490808</v>
+        <v>8657.880231951916</v>
       </c>
     </row>
     <row r="44">
@@ -3457,16 +3457,16 @@
         <v>1.873538931826401</v>
       </c>
       <c r="S44" t="n">
-        <v>3.710883451063527</v>
+        <v>10408.50375970539</v>
       </c>
       <c r="T44" t="n">
-        <v>3.212352566019305</v>
+        <v>13020.7750073728</v>
       </c>
       <c r="U44" t="n">
-        <v>3.088830148566384</v>
+        <v>11219.10509126269</v>
       </c>
       <c r="V44" t="n">
-        <v>2.50788386219829</v>
+        <v>8894.139597553238</v>
       </c>
     </row>
     <row r="45">
@@ -3525,16 +3525,16 @@
         <v>1.835734994830463</v>
       </c>
       <c r="S45" t="n">
-        <v>3.640552570039351</v>
+        <v>10684.32765857719</v>
       </c>
       <c r="T45" t="n">
-        <v>2.902225717831132</v>
+        <v>13318.79953709843</v>
       </c>
       <c r="U45" t="n">
-        <v>2.535301308246902</v>
+        <v>11491.56217022735</v>
       </c>
       <c r="V45" t="n">
-        <v>2.565799153517238</v>
+        <v>9098.884085314376</v>
       </c>
     </row>
     <row r="46">
@@ -3593,16 +3593,16 @@
         <v>1.809907380899378</v>
       </c>
       <c r="S46" t="n">
-        <v>3.453473284722798</v>
+        <v>10930.47220451527</v>
       </c>
       <c r="T46" t="n">
-        <v>3.211321704989456</v>
+        <v>13633.47232559515</v>
       </c>
       <c r="U46" t="n">
-        <v>2.923314271278895</v>
+        <v>11784.07547629093</v>
       </c>
       <c r="V46" t="n">
-        <v>2.405685079406461</v>
+        <v>9329.603960952853</v>
       </c>
     </row>
     <row r="47">
@@ -3661,16 +3661,16 @@
         <v>1.81701581181536</v>
       </c>
       <c r="S47" t="n">
-        <v>3.855121066419704</v>
+        <v>11194.96256539224</v>
       </c>
       <c r="T47" t="n">
-        <v>3.091634498059561</v>
+        <v>13968.87231203349</v>
       </c>
       <c r="U47" t="n">
-        <v>2.775522696775413</v>
+        <v>12056.59206586956</v>
       </c>
       <c r="V47" t="n">
-        <v>2.57377679785616</v>
+        <v>9571.090995662082</v>
       </c>
     </row>
     <row r="48">
@@ -3729,16 +3729,16 @@
         <v>1.847230224023239</v>
       </c>
       <c r="S48" t="n">
-        <v>3.644763878427873</v>
+        <v>11480.19810368471</v>
       </c>
       <c r="T48" t="n">
-        <v>3.284591521766065</v>
+        <v>14296.70729441083</v>
       </c>
       <c r="U48" t="n">
-        <v>2.83381101909759</v>
+        <v>12327.23974654926</v>
       </c>
       <c r="V48" t="n">
-        <v>2.599557123167284</v>
+        <v>9804.414379894244</v>
       </c>
     </row>
     <row r="49">
@@ -3797,16 +3797,16 @@
         <v>1.755229624445715</v>
       </c>
       <c r="S49" t="n">
-        <v>4.039720658725763</v>
+        <v>11748.50853921511</v>
       </c>
       <c r="T49" t="n">
-        <v>3.196034537774505</v>
+        <v>14654.87449155606</v>
       </c>
       <c r="U49" t="n">
-        <v>2.975970880552394</v>
+        <v>12615.24754901614</v>
       </c>
       <c r="V49" t="n">
-        <v>2.489407590216115</v>
+        <v>10038.11573253699</v>
       </c>
     </row>
     <row r="50">
@@ -3865,16 +3865,16 @@
         <v>1.690366108387238</v>
       </c>
       <c r="S50" t="n">
-        <v>3.963184117396458</v>
+        <v>12016.32762275894</v>
       </c>
       <c r="T50" t="n">
-        <v>2.988789142945137</v>
+        <v>14989.75746151347</v>
       </c>
       <c r="U50" t="n">
-        <v>2.764635450887255</v>
+        <v>12876.640234641</v>
       </c>
       <c r="V50" t="n">
-        <v>2.222569556896126</v>
+        <v>10252.51448584645</v>
       </c>
     </row>
     <row r="51">
@@ -3933,16 +3933,16 @@
         <v>1.700846121853783</v>
       </c>
       <c r="S51" t="n">
-        <v>3.401035988599496</v>
+        <v>12250.16983539767</v>
       </c>
       <c r="T51" t="n">
-        <v>3.215913108673222</v>
+        <v>15288.32127380592</v>
       </c>
       <c r="U51" t="n">
-        <v>2.820306538092809</v>
+        <v>13173.13152828641</v>
       </c>
       <c r="V51" t="n">
-        <v>2.157434263066817</v>
+        <v>10473.41171885635</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56739_腾冲.xlsx
+++ b/my_work/data1/YearMeanER56739_腾冲.xlsx
@@ -601,16 +601,16 @@
         <v>1.643222170460179</v>
       </c>
       <c r="S2" t="n">
-        <v>228.0593528634064</v>
+        <v>2.533992809593404</v>
       </c>
       <c r="T2" t="n">
-        <v>298.6535169542042</v>
+        <v>3.28190677971653</v>
       </c>
       <c r="U2" t="n">
-        <v>270.0854331414754</v>
+        <v>2.935711229798646</v>
       </c>
       <c r="V2" t="n">
-        <v>204.0009480124906</v>
+        <v>2.241768659477918</v>
       </c>
     </row>
     <row r="3">
@@ -669,16 +669,16 @@
         <v>1.691422423424257</v>
       </c>
       <c r="S3" t="n">
-        <v>399.743277327961</v>
+        <v>2.903631954569136</v>
       </c>
       <c r="T3" t="n">
-        <v>580.0199777570075</v>
+        <v>3.12800403936835</v>
       </c>
       <c r="U3" t="n">
-        <v>514.4650448194944</v>
+        <v>2.688210031606712</v>
       </c>
       <c r="V3" t="n">
-        <v>417.4058467726055</v>
+        <v>2.343985515430356</v>
       </c>
     </row>
     <row r="4">
@@ -737,16 +737,16 @@
         <v>1.760201800103151</v>
       </c>
       <c r="S4" t="n">
-        <v>665.9096507999452</v>
+        <v>2.989666726961699</v>
       </c>
       <c r="T4" t="n">
-        <v>893.9186403931737</v>
+        <v>3.522518518617047</v>
       </c>
       <c r="U4" t="n">
-        <v>784.5036396555603</v>
+        <v>2.964421792039922</v>
       </c>
       <c r="V4" t="n">
-        <v>628.006507935952</v>
+        <v>2.314615724769314</v>
       </c>
     </row>
     <row r="5">
@@ -805,16 +805,16 @@
         <v>1.638969854375397</v>
       </c>
       <c r="S5" t="n">
-        <v>922.2892520511887</v>
+        <v>2.881880755313392</v>
       </c>
       <c r="T5" t="n">
-        <v>1208.773694327275</v>
+        <v>3.498654642337572</v>
       </c>
       <c r="U5" t="n">
-        <v>1040.968249472405</v>
+        <v>2.819880778357442</v>
       </c>
       <c r="V5" t="n">
-        <v>822.7085289578813</v>
+        <v>2.141485182029331</v>
       </c>
     </row>
     <row r="6">
@@ -873,16 +873,16 @@
         <v>1.62549358187965</v>
       </c>
       <c r="S6" t="n">
-        <v>1192.6521324528</v>
+        <v>3.03605290174361</v>
       </c>
       <c r="T6" t="n">
-        <v>1518.78265954888</v>
+        <v>3.445138679823544</v>
       </c>
       <c r="U6" t="n">
-        <v>1308.375051573582</v>
+        <v>2.937246553038417</v>
       </c>
       <c r="V6" t="n">
-        <v>1024.108837838283</v>
+        <v>2.23672301167506</v>
       </c>
     </row>
     <row r="7">
@@ -941,16 +941,16 @@
         <v>1.644941267692175</v>
       </c>
       <c r="S7" t="n">
-        <v>1453.302778035043</v>
+        <v>2.897656027296568</v>
       </c>
       <c r="T7" t="n">
-        <v>1857.308294420482</v>
+        <v>3.757920588477206</v>
       </c>
       <c r="U7" t="n">
-        <v>1592.968416227184</v>
+        <v>3.125332730506975</v>
       </c>
       <c r="V7" t="n">
-        <v>1249.356935061606</v>
+        <v>2.472661089510861</v>
       </c>
     </row>
     <row r="8">
@@ -1009,16 +1009,16 @@
         <v>1.675094567708145</v>
       </c>
       <c r="S8" t="n">
-        <v>1728.990476438419</v>
+        <v>3.095392827007477</v>
       </c>
       <c r="T8" t="n">
-        <v>2164.23158997479</v>
+        <v>3.414079298272384</v>
       </c>
       <c r="U8" t="n">
-        <v>1892.479923483097</v>
+        <v>3.289530869417596</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.07012910253</v>
+        <v>2.219411468809057</v>
       </c>
     </row>
     <row r="9">
@@ -1077,16 +1077,16 @@
         <v>1.599037426448598</v>
       </c>
       <c r="S9" t="n">
-        <v>1988.969093371845</v>
+        <v>2.923044552893707</v>
       </c>
       <c r="T9" t="n">
-        <v>2467.180471767797</v>
+        <v>3.366625946058</v>
       </c>
       <c r="U9" t="n">
-        <v>2123.870531879862</v>
+        <v>2.550871078980256</v>
       </c>
       <c r="V9" t="n">
-        <v>1651.41124828784</v>
+        <v>2.201744898414348</v>
       </c>
     </row>
     <row r="10">
@@ -1145,16 +1145,16 @@
         <v>1.660751829026938</v>
       </c>
       <c r="S10" t="n">
-        <v>2256.490973019927</v>
+        <v>3.004943602233082</v>
       </c>
       <c r="T10" t="n">
-        <v>2779.596398323187</v>
+        <v>3.470137939576364</v>
       </c>
       <c r="U10" t="n">
-        <v>2400.392288886747</v>
+        <v>3.033398131368116</v>
       </c>
       <c r="V10" t="n">
-        <v>1842.205757189914</v>
+        <v>2.097785367396618</v>
       </c>
     </row>
     <row r="11">
@@ -1213,16 +1213,16 @@
         <v>1.560448659639225</v>
       </c>
       <c r="S11" t="n">
-        <v>2491.534832927744</v>
+        <v>2.61592091769284</v>
       </c>
       <c r="T11" t="n">
-        <v>3075.270010022546</v>
+        <v>3.287293952076205</v>
       </c>
       <c r="U11" t="n">
-        <v>2680.343824591052</v>
+        <v>3.075923193866013</v>
       </c>
       <c r="V11" t="n">
-        <v>2042.721189970767</v>
+        <v>2.202317588567933</v>
       </c>
     </row>
     <row r="12">
@@ -1281,16 +1281,16 @@
         <v>1.561795594228774</v>
       </c>
       <c r="S12" t="n">
-        <v>2735.699973963921</v>
+        <v>2.742011799487452</v>
       </c>
       <c r="T12" t="n">
-        <v>3334.314545101434</v>
+        <v>2.882767351988611</v>
       </c>
       <c r="U12" t="n">
-        <v>2914.329872528559</v>
+        <v>2.576760555775776</v>
       </c>
       <c r="V12" t="n">
-        <v>2233.545276280599</v>
+        <v>2.098113085852182</v>
       </c>
     </row>
     <row r="13">
@@ -1349,16 +1349,16 @@
         <v>1.737031718895332</v>
       </c>
       <c r="S13" t="n">
-        <v>2996.577625277859</v>
+        <v>2.929107367926911</v>
       </c>
       <c r="T13" t="n">
-        <v>3633.309409870688</v>
+        <v>3.317336616716958</v>
       </c>
       <c r="U13" t="n">
-        <v>3189.900916245479</v>
+        <v>3.023345698616283</v>
       </c>
       <c r="V13" t="n">
-        <v>2456.903187909533</v>
+        <v>2.450608964291166</v>
       </c>
     </row>
     <row r="14">
@@ -1417,16 +1417,16 @@
         <v>1.740893357329067</v>
       </c>
       <c r="S14" t="n">
-        <v>3254.195962378479</v>
+        <v>2.894971605206056</v>
       </c>
       <c r="T14" t="n">
-        <v>3971.141338167967</v>
+        <v>3.748893021032919</v>
       </c>
       <c r="U14" t="n">
-        <v>3447.322887014415</v>
+        <v>2.830927352908197</v>
       </c>
       <c r="V14" t="n">
-        <v>2650.593685626495</v>
+        <v>2.131968550883169</v>
       </c>
     </row>
     <row r="15">
@@ -1485,16 +1485,16 @@
         <v>1.707047814332276</v>
       </c>
       <c r="S15" t="n">
-        <v>3491.236449411113</v>
+        <v>2.636653391624613</v>
       </c>
       <c r="T15" t="n">
-        <v>4295.988344327366</v>
+        <v>3.610943947037674</v>
       </c>
       <c r="U15" t="n">
-        <v>3711.210117003671</v>
+        <v>2.89911040589307</v>
       </c>
       <c r="V15" t="n">
-        <v>2853.421162396488</v>
+        <v>2.227820057835612</v>
       </c>
     </row>
     <row r="16">
@@ -1553,16 +1553,16 @@
         <v>1.681220131667426</v>
       </c>
       <c r="S16" t="n">
-        <v>3722.662866333503</v>
+        <v>2.600700781266854</v>
       </c>
       <c r="T16" t="n">
-        <v>4582.340552456583</v>
+        <v>3.221812800847307</v>
       </c>
       <c r="U16" t="n">
-        <v>3974.512672912585</v>
+        <v>2.893496372987022</v>
       </c>
       <c r="V16" t="n">
-        <v>3048.057093053717</v>
+        <v>2.139823377337651</v>
       </c>
     </row>
     <row r="17">
@@ -1621,16 +1621,16 @@
         <v>1.619767032766354</v>
       </c>
       <c r="S17" t="n">
-        <v>3949.087809160232</v>
+        <v>2.544729373422206</v>
       </c>
       <c r="T17" t="n">
-        <v>4853.733822280225</v>
+        <v>3.017748160708684</v>
       </c>
       <c r="U17" t="n">
-        <v>4215.716387224804</v>
+        <v>2.68238693060669</v>
       </c>
       <c r="V17" t="n">
-        <v>3245.167934923552</v>
+        <v>2.165768100512749</v>
       </c>
     </row>
     <row r="18">
@@ -1689,16 +1689,16 @@
         <v>1.587727493884569</v>
       </c>
       <c r="S18" t="n">
-        <v>4124.522473574523</v>
+        <v>1.97754881986349</v>
       </c>
       <c r="T18" t="n">
-        <v>5143.677807999446</v>
+        <v>3.219359712966269</v>
       </c>
       <c r="U18" t="n">
-        <v>4455.741647031472</v>
+        <v>2.638126594970348</v>
       </c>
       <c r="V18" t="n">
-        <v>3435.675362299598</v>
+        <v>2.117287862379776</v>
       </c>
     </row>
     <row r="19">
@@ -1757,16 +1757,16 @@
         <v>1.606539206545277</v>
       </c>
       <c r="S19" t="n">
-        <v>4381.810738014275</v>
+        <v>2.849074870984812</v>
       </c>
       <c r="T19" t="n">
-        <v>5384.55519978869</v>
+        <v>2.682381884639609</v>
       </c>
       <c r="U19" t="n">
-        <v>4683.214020498058</v>
+        <v>2.501201087625645</v>
       </c>
       <c r="V19" t="n">
-        <v>3625.331973970678</v>
+        <v>2.084498907972367</v>
       </c>
     </row>
     <row r="20">
@@ -1825,16 +1825,16 @@
         <v>1.629373349179284</v>
       </c>
       <c r="S20" t="n">
-        <v>4597.028919911348</v>
+        <v>2.422969519645095</v>
       </c>
       <c r="T20" t="n">
-        <v>5636.980118357628</v>
+        <v>2.803376928061305</v>
       </c>
       <c r="U20" t="n">
-        <v>4919.279180769496</v>
+        <v>2.593112623468086</v>
       </c>
       <c r="V20" t="n">
-        <v>3824.803768510206</v>
+        <v>2.190829276603282</v>
       </c>
     </row>
     <row r="21">
@@ -1893,16 +1893,16 @@
         <v>1.672558230746346</v>
       </c>
       <c r="S21" t="n">
-        <v>4833.530304810572</v>
+        <v>2.654715049098576</v>
       </c>
       <c r="T21" t="n">
-        <v>5939.994879071703</v>
+        <v>3.360638875188322</v>
       </c>
       <c r="U21" t="n">
-        <v>5170.014359638426</v>
+        <v>2.753568385786935</v>
       </c>
       <c r="V21" t="n">
-        <v>4012.625241004244</v>
+        <v>2.065351106202623</v>
       </c>
     </row>
     <row r="22">
@@ -1961,16 +1961,16 @@
         <v>1.612066773399305</v>
       </c>
       <c r="S22" t="n">
-        <v>5076.349783292207</v>
+        <v>2.727491039230362</v>
       </c>
       <c r="T22" t="n">
-        <v>6251.679291334024</v>
+        <v>3.462033528983615</v>
       </c>
       <c r="U22" t="n">
-        <v>5391.763316284561</v>
+        <v>2.440244837303478</v>
       </c>
       <c r="V22" t="n">
-        <v>4235.074623642077</v>
+        <v>2.440377540696069</v>
       </c>
     </row>
     <row r="23">
@@ -2029,16 +2029,16 @@
         <v>1.639595412301189</v>
       </c>
       <c r="S23" t="n">
-        <v>5340.023648593778</v>
+        <v>2.927487432316511</v>
       </c>
       <c r="T23" t="n">
-        <v>6559.157527364132</v>
+        <v>3.416926039110922</v>
       </c>
       <c r="U23" t="n">
-        <v>5616.690343150169</v>
+        <v>2.47138338807513</v>
       </c>
       <c r="V23" t="n">
-        <v>4444.900776433788</v>
+        <v>2.307244894917513</v>
       </c>
     </row>
     <row r="24">
@@ -2097,16 +2097,16 @@
         <v>1.665504323762478</v>
       </c>
       <c r="S24" t="n">
-        <v>5596.902886703384</v>
+        <v>2.886741394910244</v>
       </c>
       <c r="T24" t="n">
-        <v>6901.312992353285</v>
+        <v>3.797498802508388</v>
       </c>
       <c r="U24" t="n">
-        <v>5865.736529371093</v>
+        <v>2.858154200102262</v>
       </c>
       <c r="V24" t="n">
-        <v>4643.743674219972</v>
+        <v>2.186414594359828</v>
       </c>
     </row>
     <row r="25">
@@ -2165,16 +2165,16 @@
         <v>1.576894920245232</v>
       </c>
       <c r="S25" t="n">
-        <v>5800.926114316302</v>
+        <v>2.29899965564256</v>
       </c>
       <c r="T25" t="n">
-        <v>7155.993674493296</v>
+        <v>2.840419570796902</v>
       </c>
       <c r="U25" t="n">
-        <v>6122.848542113531</v>
+        <v>2.825762684158058</v>
       </c>
       <c r="V25" t="n">
-        <v>4858.501879515691</v>
+        <v>2.358093694457365</v>
       </c>
     </row>
     <row r="26">
@@ -2233,16 +2233,16 @@
         <v>1.597733468486675</v>
       </c>
       <c r="S26" t="n">
-        <v>6059.73417513338</v>
+        <v>2.901189560807993</v>
       </c>
       <c r="T26" t="n">
-        <v>7437.744857457146</v>
+        <v>3.127380247633537</v>
       </c>
       <c r="U26" t="n">
-        <v>6354.262225618396</v>
+        <v>2.546080936837216</v>
       </c>
       <c r="V26" t="n">
-        <v>5065.073557610704</v>
+        <v>2.270975780320294</v>
       </c>
     </row>
     <row r="27">
@@ -2301,16 +2301,16 @@
         <v>1.653646321418615</v>
       </c>
       <c r="S27" t="n">
-        <v>6274.075100975581</v>
+        <v>2.387275993439642</v>
       </c>
       <c r="T27" t="n">
-        <v>7764.184300655123</v>
+        <v>3.877256746418913</v>
       </c>
       <c r="U27" t="n">
-        <v>6625.72121762696</v>
+        <v>3.044500810504438</v>
       </c>
       <c r="V27" t="n">
-        <v>5256.463687073021</v>
+        <v>2.105012013506898</v>
       </c>
     </row>
     <row r="28">
@@ -2369,16 +2369,16 @@
         <v>1.597703929993067</v>
       </c>
       <c r="S28" t="n">
-        <v>6496.37926869998</v>
+        <v>2.496571596864916</v>
       </c>
       <c r="T28" t="n">
-        <v>8075.307433525948</v>
+        <v>3.461542743046605</v>
       </c>
       <c r="U28" t="n">
-        <v>6869.240534413572</v>
+        <v>2.739597973301252</v>
       </c>
       <c r="V28" t="n">
-        <v>5478.942700228671</v>
+        <v>2.441130708360409</v>
       </c>
     </row>
     <row r="29">
@@ -2437,16 +2437,16 @@
         <v>1.741925103208905</v>
       </c>
       <c r="S29" t="n">
-        <v>6749.132490696004</v>
+        <v>2.836108817698802</v>
       </c>
       <c r="T29" t="n">
-        <v>8420.251787511526</v>
+        <v>3.828636227787086</v>
       </c>
       <c r="U29" t="n">
-        <v>7170.187744628402</v>
+        <v>3.337217672397088</v>
       </c>
       <c r="V29" t="n">
-        <v>5699.699015409539</v>
+        <v>2.42605919444815</v>
       </c>
     </row>
     <row r="30">
@@ -2505,16 +2505,16 @@
         <v>1.66156873590891</v>
       </c>
       <c r="S30" t="n">
-        <v>7008.019296685831</v>
+        <v>2.908032386750314</v>
       </c>
       <c r="T30" t="n">
-        <v>8733.110418895678</v>
+        <v>3.480079863867358</v>
       </c>
       <c r="U30" t="n">
-        <v>7433.762800182033</v>
+        <v>2.901220361152481</v>
       </c>
       <c r="V30" t="n">
-        <v>5909.084226092878</v>
+        <v>2.302296411715067</v>
       </c>
     </row>
     <row r="31">
@@ -2573,16 +2573,16 @@
         <v>1.660667996132836</v>
       </c>
       <c r="S31" t="n">
-        <v>7249.785396051133</v>
+        <v>2.688726722550075</v>
       </c>
       <c r="T31" t="n">
-        <v>9052.922387192644</v>
+        <v>3.592133868453693</v>
       </c>
       <c r="U31" t="n">
-        <v>7701.265001548706</v>
+        <v>2.939167627476338</v>
       </c>
       <c r="V31" t="n">
-        <v>6124.714710782902</v>
+        <v>2.394865726392751</v>
       </c>
     </row>
     <row r="32">
@@ -2641,16 +2641,16 @@
         <v>1.642430504788791</v>
       </c>
       <c r="S32" t="n">
-        <v>7468.017786775507</v>
+        <v>2.454679082743586</v>
       </c>
       <c r="T32" t="n">
-        <v>9356.184427190266</v>
+        <v>3.372023888638107</v>
       </c>
       <c r="U32" t="n">
-        <v>7958.904303747815</v>
+        <v>2.832374672028057</v>
       </c>
       <c r="V32" t="n">
-        <v>6336.390378442831</v>
+        <v>2.326853623764336</v>
       </c>
     </row>
     <row r="33">
@@ -2709,16 +2709,16 @@
         <v>1.62934534084822</v>
       </c>
       <c r="S33" t="n">
-        <v>7693.516768728695</v>
+        <v>2.532818455954835</v>
       </c>
       <c r="T33" t="n">
-        <v>9646.817283077544</v>
+        <v>3.230822854680495</v>
       </c>
       <c r="U33" t="n">
-        <v>8206.226155163067</v>
+        <v>2.71906767486173</v>
       </c>
       <c r="V33" t="n">
-        <v>6563.160353029059</v>
+        <v>2.490182915325995</v>
       </c>
     </row>
     <row r="34">
@@ -2777,16 +2777,16 @@
         <v>1.739996871751848</v>
       </c>
       <c r="S34" t="n">
-        <v>7951.920640181596</v>
+        <v>2.931872920324192</v>
       </c>
       <c r="T34" t="n">
-        <v>9951.880313928559</v>
+        <v>3.387844546216491</v>
       </c>
       <c r="U34" t="n">
-        <v>8462.348334699425</v>
+        <v>2.813491817513243</v>
       </c>
       <c r="V34" t="n">
-        <v>6762.946032118161</v>
+        <v>2.198650673961091</v>
       </c>
     </row>
     <row r="35">
@@ -2845,16 +2845,16 @@
         <v>1.599572763649256</v>
       </c>
       <c r="S35" t="n">
-        <v>8176.815693107606</v>
+        <v>2.50359259171799</v>
       </c>
       <c r="T35" t="n">
-        <v>10240.07780113013</v>
+        <v>3.204234414810869</v>
       </c>
       <c r="U35" t="n">
-        <v>8725.740361744902</v>
+        <v>2.893538248510762</v>
       </c>
       <c r="V35" t="n">
-        <v>6982.732646485742</v>
+        <v>2.412883315668922</v>
       </c>
     </row>
     <row r="36">
@@ -2913,16 +2913,16 @@
         <v>1.690873905653676</v>
       </c>
       <c r="S36" t="n">
-        <v>8427.722360552834</v>
+        <v>2.815669555966141</v>
       </c>
       <c r="T36" t="n">
-        <v>10541.66889673533</v>
+        <v>3.349399230989071</v>
       </c>
       <c r="U36" t="n">
-        <v>9000.789853568642</v>
+        <v>3.021119892089752</v>
       </c>
       <c r="V36" t="n">
-        <v>7162.824759013683</v>
+        <v>2.00554940487483</v>
       </c>
     </row>
     <row r="37">
@@ -2981,16 +2981,16 @@
         <v>1.695617949607499</v>
       </c>
       <c r="S37" t="n">
-        <v>8665.6029582309</v>
+        <v>2.674402969266871</v>
       </c>
       <c r="T37" t="n">
-        <v>10825.02473969684</v>
+        <v>3.150607057060463</v>
       </c>
       <c r="U37" t="n">
-        <v>9275.207115509</v>
+        <v>3.015634585135248</v>
       </c>
       <c r="V37" t="n">
-        <v>7373.633471005726</v>
+        <v>2.313198493444837</v>
       </c>
     </row>
     <row r="38">
@@ -3049,16 +3049,16 @@
         <v>1.700967867094753</v>
       </c>
       <c r="S38" t="n">
-        <v>8891.664046418484</v>
+        <v>2.54150545729831</v>
       </c>
       <c r="T38" t="n">
-        <v>11118.59231332062</v>
+        <v>3.260639348141132</v>
       </c>
       <c r="U38" t="n">
-        <v>9538.01234180808</v>
+        <v>2.889357183524046</v>
       </c>
       <c r="V38" t="n">
-        <v>7574.125221347491</v>
+        <v>2.204401617774017</v>
       </c>
     </row>
     <row r="39">
@@ -3117,16 +3117,16 @@
         <v>1.724894185404476</v>
       </c>
       <c r="S39" t="n">
-        <v>9164.12363499672</v>
+        <v>3.021990044346497</v>
       </c>
       <c r="T39" t="n">
-        <v>11411.11035701817</v>
+        <v>3.25031519830427</v>
       </c>
       <c r="U39" t="n">
-        <v>9794.952484319867</v>
+        <v>2.824233692340387</v>
       </c>
       <c r="V39" t="n">
-        <v>7791.823713848135</v>
+        <v>2.390248849113262</v>
       </c>
     </row>
     <row r="40">
@@ -3185,16 +3185,16 @@
         <v>1.811722905494858</v>
       </c>
       <c r="S40" t="n">
-        <v>9391.759318468741</v>
+        <v>2.562863039070745</v>
       </c>
       <c r="T40" t="n">
-        <v>11754.29501021223</v>
+        <v>3.806977674641318</v>
       </c>
       <c r="U40" t="n">
-        <v>10083.27737341414</v>
+        <v>3.1646643781154</v>
       </c>
       <c r="V40" t="n">
-        <v>8011.073914989306</v>
+        <v>2.43560934055257</v>
       </c>
     </row>
     <row r="41">
@@ -3253,16 +3253,16 @@
         <v>1.805277891267215</v>
       </c>
       <c r="S41" t="n">
-        <v>9652.532838966325</v>
+        <v>2.925959817073973</v>
       </c>
       <c r="T41" t="n">
-        <v>12067.02967887522</v>
+        <v>3.478479630083812</v>
       </c>
       <c r="U41" t="n">
-        <v>10380.51127218604</v>
+        <v>3.265201773369577</v>
       </c>
       <c r="V41" t="n">
-        <v>8231.562809873943</v>
+        <v>2.423092437230351</v>
       </c>
     </row>
     <row r="42">
@@ -3321,16 +3321,16 @@
         <v>1.726000361332504</v>
       </c>
       <c r="S42" t="n">
-        <v>9909.774713307688</v>
+        <v>2.890753712871493</v>
       </c>
       <c r="T42" t="n">
-        <v>12374.57986331998</v>
+        <v>3.417897407415972</v>
       </c>
       <c r="U42" t="n">
-        <v>10637.15381538289</v>
+        <v>2.825084184458994</v>
       </c>
       <c r="V42" t="n">
-        <v>8440.220049978854</v>
+        <v>2.29435144067544</v>
       </c>
     </row>
     <row r="43">
@@ -3389,16 +3389,16 @@
         <v>1.778676865059244</v>
       </c>
       <c r="S43" t="n">
-        <v>10147.7340797142</v>
+        <v>2.646704616696645</v>
       </c>
       <c r="T43" t="n">
-        <v>12688.33326257301</v>
+        <v>3.485398864400454</v>
       </c>
       <c r="U43" t="n">
-        <v>10916.42317958265</v>
+        <v>3.066244004176334</v>
       </c>
       <c r="V43" t="n">
-        <v>8657.880231951916</v>
+        <v>2.390810145801517</v>
       </c>
     </row>
     <row r="44">
@@ -3457,16 +3457,16 @@
         <v>1.873538931826401</v>
       </c>
       <c r="S44" t="n">
-        <v>10408.50375970539</v>
+        <v>2.926848717865352</v>
       </c>
       <c r="T44" t="n">
-        <v>13020.7750073728</v>
+        <v>3.691507073232891</v>
       </c>
       <c r="U44" t="n">
-        <v>11219.10509126269</v>
+        <v>3.32334951830663</v>
       </c>
       <c r="V44" t="n">
-        <v>8894.139597553238</v>
+        <v>2.594023649425243</v>
       </c>
     </row>
     <row r="45">
@@ -3525,16 +3525,16 @@
         <v>1.835734994830463</v>
       </c>
       <c r="S45" t="n">
-        <v>10684.32765857719</v>
+        <v>3.097230528774126</v>
       </c>
       <c r="T45" t="n">
-        <v>13318.79953709843</v>
+        <v>3.315560843943777</v>
       </c>
       <c r="U45" t="n">
-        <v>11491.56217022735</v>
+        <v>2.997613353075765</v>
       </c>
       <c r="V45" t="n">
-        <v>9098.884085314376</v>
+        <v>2.253679471853929</v>
       </c>
     </row>
     <row r="46">
@@ -3593,16 +3593,16 @@
         <v>1.809907380899378</v>
       </c>
       <c r="S46" t="n">
-        <v>10930.47220451527</v>
+        <v>2.769353071853976</v>
       </c>
       <c r="T46" t="n">
-        <v>13633.47232559515</v>
+        <v>3.494377465281973</v>
       </c>
       <c r="U46" t="n">
-        <v>11784.07547629093</v>
+        <v>3.212075211050632</v>
       </c>
       <c r="V46" t="n">
-        <v>9329.603960952853</v>
+        <v>2.532321251199196</v>
       </c>
     </row>
     <row r="47">
@@ -3661,16 +3661,16 @@
         <v>1.81701581181536</v>
       </c>
       <c r="S47" t="n">
-        <v>11194.96256539224</v>
+        <v>2.936919933503458</v>
       </c>
       <c r="T47" t="n">
-        <v>13968.87231203349</v>
+        <v>3.724113889050864</v>
       </c>
       <c r="U47" t="n">
-        <v>12056.59206586956</v>
+        <v>2.997050704235714</v>
       </c>
       <c r="V47" t="n">
-        <v>9571.090995662082</v>
+        <v>2.65238430391766</v>
       </c>
     </row>
     <row r="48">
@@ -3729,16 +3729,16 @@
         <v>1.847230224023239</v>
       </c>
       <c r="S48" t="n">
-        <v>11480.19810368471</v>
+        <v>3.20191620251084</v>
       </c>
       <c r="T48" t="n">
-        <v>14296.70729441083</v>
+        <v>3.643506552377811</v>
       </c>
       <c r="U48" t="n">
-        <v>12327.23974654926</v>
+        <v>2.974399254173215</v>
       </c>
       <c r="V48" t="n">
-        <v>9804.414379894244</v>
+        <v>2.564954005826989</v>
       </c>
     </row>
     <row r="49">
@@ -3797,16 +3797,16 @@
         <v>1.755229624445715</v>
       </c>
       <c r="S49" t="n">
-        <v>11748.50853921511</v>
+        <v>3.016803908143564</v>
       </c>
       <c r="T49" t="n">
-        <v>14654.87449155606</v>
+        <v>3.975941798874894</v>
       </c>
       <c r="U49" t="n">
-        <v>12615.24754901614</v>
+        <v>3.162850018707136</v>
       </c>
       <c r="V49" t="n">
-        <v>10038.11573253699</v>
+        <v>2.568112028788915</v>
       </c>
     </row>
     <row r="50">
@@ -3865,16 +3865,16 @@
         <v>1.690366108387238</v>
       </c>
       <c r="S50" t="n">
-        <v>12016.32762275894</v>
+        <v>3.009287638355262</v>
       </c>
       <c r="T50" t="n">
-        <v>14989.75746151347</v>
+        <v>3.723724305014132</v>
       </c>
       <c r="U50" t="n">
-        <v>12876.640234641</v>
+        <v>2.875603648299566</v>
       </c>
       <c r="V50" t="n">
-        <v>10252.51448584645</v>
+        <v>2.358335492807006</v>
       </c>
     </row>
     <row r="51">
@@ -3933,16 +3933,16 @@
         <v>1.700846121853783</v>
       </c>
       <c r="S51" t="n">
-        <v>12250.16983539767</v>
+        <v>2.602763739308562</v>
       </c>
       <c r="T51" t="n">
-        <v>15288.32127380592</v>
+        <v>3.321841061510557</v>
       </c>
       <c r="U51" t="n">
-        <v>13173.13152828641</v>
+        <v>3.253988014062111</v>
       </c>
       <c r="V51" t="n">
-        <v>10473.41171885635</v>
+        <v>2.426690961986012</v>
       </c>
     </row>
   </sheetData>
